--- a/modules/report/dailyreport.xlsx
+++ b/modules/report/dailyreport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t>TT</t>
   </si>
@@ -76,13 +76,16 @@
   </si>
   <si>
     <t>Lead</t>
+  </si>
+  <si>
+    <t>BÁO CÁO DOANH SỐ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +96,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -108,12 +126,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -162,25 +180,74 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -487,153 +554,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:X5"/>
+  <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="E4" sqref="E4:E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="1" spans="1:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+    </row>
+    <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+    </row>
+    <row r="4" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2" t="s">
+      <c r="I4" s="5"/>
+      <c r="J4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2" t="s">
+      <c r="K4" s="6"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2" t="s">
+      <c r="N4" s="5"/>
+      <c r="O4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2" t="s">
+      <c r="P4" s="5"/>
+      <c r="Q4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2" t="s">
+      <c r="R4" s="5"/>
+      <c r="S4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2" t="s">
+      <c r="T4" s="6"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="2"/>
-      <c r="X4" s="3" t="s">
+      <c r="W4" s="5"/>
+      <c r="X4" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5" t="s">
+    <row r="5" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="K5" s="5" t="s">
+      <c r="K5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="L5" s="5" t="s">
+      <c r="L5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="5" t="s">
+      <c r="M5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N5" s="5" t="s">
+      <c r="N5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O5" s="5" t="s">
+      <c r="O5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="P5" s="5" t="s">
+      <c r="P5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="Q5" s="5" t="s">
+      <c r="Q5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="R5" s="5" t="s">
+      <c r="R5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="S5" s="5" t="s">
+      <c r="S5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T5" s="5" t="s">
+      <c r="T5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="U5" s="5" t="s">
+      <c r="U5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="V5" s="5" t="s">
+      <c r="V5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="W5" s="5" t="s">
+      <c r="W5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="X5" s="6"/>
+      <c r="X5" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="V4:W4"/>
-    <mergeCell ref="X4:X5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="S4:U4"/>
+  <mergeCells count="6">
+    <mergeCell ref="A1:X1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="C4:C5"/>
     <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/modules/report/dailyreport.xlsx
+++ b/modules/report/dailyreport.xlsx
@@ -85,7 +85,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,6 +116,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -221,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -248,9 +255,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -557,7 +567,7 @@
   <dimension ref="A1:X5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:E5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -621,22 +631,86 @@
       <c r="W2" s="1"/>
       <c r="X2" s="1"/>
     </row>
+    <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="11">
+        <f>SUM(F$6:F$6100)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="11">
+        <f t="shared" ref="G3:W3" si="0">SUM(G$6:G$6100)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
     <row r="4" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>1</v>
-      </c>
+      <c r="A4" s="9"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
       <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
@@ -676,11 +750,21 @@
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
+      <c r="A5" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>1</v>
+      </c>
       <c r="F5" s="2" t="s">
         <v>14</v>
       </c>
@@ -738,13 +822,8 @@
       <c r="X5" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="1">
     <mergeCell ref="A1:X1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/modules/report/dailyreport.xlsx
+++ b/modules/report/dailyreport.xlsx
@@ -4,19 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="12315"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="12315" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Daily Report Detail" sheetId="1" r:id="rId1"/>
+    <sheet name="Total by DSA" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="22">
   <si>
     <t>TT</t>
   </si>
@@ -80,12 +79,20 @@
   <si>
     <t>BÁO CÁO DOANH SỐ</t>
   </si>
+  <si>
+    <t>BÁO CÁO TỔNG HỢP DOANH SỐ</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="dd\/mm"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +126,28 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -225,10 +254,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -248,9 +278,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -263,8 +290,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -564,46 +608,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X5"/>
+  <dimension ref="A1:X1055"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="4" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+    <col min="3" max="3" width="20" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13.140625" customWidth="1"/>
+    <col min="24" max="24" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+      <c r="X1" s="16"/>
     </row>
     <row r="2" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -632,85 +680,85 @@
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F3" s="11">
-        <f>SUM(F$6:F$6100)</f>
+      <c r="F3" s="10">
+        <f>SUBTOTAL(109,F$6:F$6100)</f>
         <v>0</v>
       </c>
-      <c r="G3" s="11">
-        <f t="shared" ref="G3:W3" si="0">SUM(G$6:G$6100)</f>
+      <c r="G3" s="10">
+        <f t="shared" ref="G3:W3" si="0">SUBTOTAL(109,G$6:G$6100)</f>
         <v>0</v>
       </c>
-      <c r="H3" s="11">
+      <c r="H3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L3" s="11">
+      <c r="L3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M3" s="11">
+      <c r="M3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N3" s="11">
+      <c r="N3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R3" s="11">
+      <c r="R3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S3" s="11">
+      <c r="S3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T3" s="11">
+      <c r="T3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="10">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
       <c r="F4" s="4" t="s">
         <v>5</v>
       </c>
@@ -745,24 +793,24 @@
         <v>12</v>
       </c>
       <c r="W4" s="5"/>
-      <c r="X4" s="7" t="s">
+      <c r="X4" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -820,6 +868,3156 @@
         <v>15</v>
       </c>
       <c r="X5" s="3"/>
+    </row>
+    <row r="6" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="14"/>
+    </row>
+    <row r="14" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="14"/>
+    </row>
+    <row r="15" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="1:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P16" s="14"/>
+    </row>
+    <row r="17" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P17" s="14"/>
+    </row>
+    <row r="18" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P18" s="14"/>
+    </row>
+    <row r="19" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P19" s="14"/>
+    </row>
+    <row r="20" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="14"/>
+    </row>
+    <row r="21" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="14"/>
+    </row>
+    <row r="22" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="14"/>
+    </row>
+    <row r="23" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="14"/>
+    </row>
+    <row r="24" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="14"/>
+    </row>
+    <row r="25" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="14"/>
+    </row>
+    <row r="26" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="14"/>
+    </row>
+    <row r="27" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P27" s="14"/>
+    </row>
+    <row r="28" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P28" s="14"/>
+    </row>
+    <row r="29" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P29" s="14"/>
+    </row>
+    <row r="30" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="14"/>
+    </row>
+    <row r="31" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P31" s="14"/>
+    </row>
+    <row r="32" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P32" s="14"/>
+    </row>
+    <row r="33" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P33" s="14"/>
+    </row>
+    <row r="34" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P34" s="14"/>
+    </row>
+    <row r="35" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P35" s="14"/>
+    </row>
+    <row r="36" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P36" s="14"/>
+    </row>
+    <row r="37" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P37" s="14"/>
+    </row>
+    <row r="38" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P38" s="14"/>
+    </row>
+    <row r="39" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P39" s="14"/>
+    </row>
+    <row r="40" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P40" s="14"/>
+    </row>
+    <row r="41" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P41" s="14"/>
+    </row>
+    <row r="42" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P42" s="14"/>
+    </row>
+    <row r="43" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P43" s="14"/>
+    </row>
+    <row r="44" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P44" s="14"/>
+    </row>
+    <row r="45" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P45" s="14"/>
+    </row>
+    <row r="46" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P46" s="14"/>
+    </row>
+    <row r="47" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P47" s="14"/>
+    </row>
+    <row r="48" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P48" s="14"/>
+    </row>
+    <row r="49" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P49" s="14"/>
+    </row>
+    <row r="50" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P50" s="14"/>
+    </row>
+    <row r="51" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P51" s="14"/>
+    </row>
+    <row r="52" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P52" s="14"/>
+    </row>
+    <row r="53" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P53" s="14"/>
+    </row>
+    <row r="54" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P54" s="14"/>
+    </row>
+    <row r="55" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P55" s="14"/>
+    </row>
+    <row r="56" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P56" s="14"/>
+    </row>
+    <row r="57" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P57" s="14"/>
+    </row>
+    <row r="58" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P58" s="14"/>
+    </row>
+    <row r="59" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P59" s="14"/>
+    </row>
+    <row r="60" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P60" s="14"/>
+    </row>
+    <row r="61" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P61" s="14"/>
+    </row>
+    <row r="62" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P62" s="14"/>
+    </row>
+    <row r="63" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P63" s="14"/>
+    </row>
+    <row r="64" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P64" s="14"/>
+    </row>
+    <row r="65" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P65" s="14"/>
+    </row>
+    <row r="66" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P66" s="14"/>
+    </row>
+    <row r="67" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P67" s="14"/>
+    </row>
+    <row r="68" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P68" s="14"/>
+    </row>
+    <row r="69" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P69" s="14"/>
+    </row>
+    <row r="70" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P70" s="14"/>
+    </row>
+    <row r="71" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P71" s="14"/>
+    </row>
+    <row r="72" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P72" s="14"/>
+    </row>
+    <row r="73" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P73" s="14"/>
+    </row>
+    <row r="74" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P74" s="14"/>
+    </row>
+    <row r="75" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P75" s="14"/>
+    </row>
+    <row r="76" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P76" s="14"/>
+    </row>
+    <row r="77" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P77" s="14"/>
+    </row>
+    <row r="78" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P78" s="14"/>
+    </row>
+    <row r="79" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P79" s="14"/>
+    </row>
+    <row r="80" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P80" s="14"/>
+    </row>
+    <row r="81" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P81" s="14"/>
+    </row>
+    <row r="82" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P82" s="14"/>
+    </row>
+    <row r="83" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P83" s="14"/>
+    </row>
+    <row r="84" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P84" s="14"/>
+    </row>
+    <row r="85" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P85" s="14"/>
+    </row>
+    <row r="86" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P86" s="14"/>
+    </row>
+    <row r="87" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P87" s="14"/>
+    </row>
+    <row r="88" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P88" s="14"/>
+    </row>
+    <row r="89" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P89" s="14"/>
+    </row>
+    <row r="90" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P90" s="14"/>
+    </row>
+    <row r="91" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P91" s="14"/>
+    </row>
+    <row r="92" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P92" s="14"/>
+    </row>
+    <row r="93" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P93" s="14"/>
+    </row>
+    <row r="94" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P94" s="14"/>
+    </row>
+    <row r="95" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P95" s="14"/>
+    </row>
+    <row r="96" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P96" s="14"/>
+    </row>
+    <row r="97" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P97" s="14"/>
+    </row>
+    <row r="98" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P98" s="14"/>
+    </row>
+    <row r="99" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P99" s="14"/>
+    </row>
+    <row r="100" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P100" s="14"/>
+    </row>
+    <row r="101" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P101" s="14"/>
+    </row>
+    <row r="102" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P102" s="14"/>
+    </row>
+    <row r="103" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P103" s="14"/>
+    </row>
+    <row r="104" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P104" s="14"/>
+    </row>
+    <row r="105" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P105" s="14"/>
+    </row>
+    <row r="106" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P106" s="14"/>
+    </row>
+    <row r="107" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P107" s="14"/>
+    </row>
+    <row r="108" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P108" s="14"/>
+    </row>
+    <row r="109" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P109" s="14"/>
+    </row>
+    <row r="110" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P110" s="14"/>
+    </row>
+    <row r="111" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P111" s="14"/>
+    </row>
+    <row r="112" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P112" s="14"/>
+    </row>
+    <row r="113" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P113" s="14"/>
+    </row>
+    <row r="114" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P114" s="14"/>
+    </row>
+    <row r="115" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P115" s="14"/>
+    </row>
+    <row r="116" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P116" s="14"/>
+    </row>
+    <row r="117" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P117" s="14"/>
+    </row>
+    <row r="118" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P118" s="14"/>
+    </row>
+    <row r="119" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P119" s="14"/>
+    </row>
+    <row r="120" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P120" s="14"/>
+    </row>
+    <row r="121" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P121" s="14"/>
+    </row>
+    <row r="122" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P122" s="14"/>
+    </row>
+    <row r="123" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P123" s="14"/>
+    </row>
+    <row r="124" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P124" s="14"/>
+    </row>
+    <row r="125" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P125" s="14"/>
+    </row>
+    <row r="126" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P126" s="14"/>
+    </row>
+    <row r="127" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P127" s="14"/>
+    </row>
+    <row r="128" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P128" s="14"/>
+    </row>
+    <row r="129" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P129" s="14"/>
+    </row>
+    <row r="130" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P130" s="14"/>
+    </row>
+    <row r="131" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P131" s="14"/>
+    </row>
+    <row r="132" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P132" s="14"/>
+    </row>
+    <row r="133" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P133" s="14"/>
+    </row>
+    <row r="134" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P134" s="14"/>
+    </row>
+    <row r="135" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P135" s="14"/>
+    </row>
+    <row r="136" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P136" s="14"/>
+    </row>
+    <row r="137" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P137" s="14"/>
+    </row>
+    <row r="138" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P138" s="14"/>
+    </row>
+    <row r="139" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P139" s="14"/>
+    </row>
+    <row r="140" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P140" s="14"/>
+    </row>
+    <row r="141" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P141" s="14"/>
+    </row>
+    <row r="142" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P142" s="14"/>
+    </row>
+    <row r="143" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P143" s="14"/>
+    </row>
+    <row r="144" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P144" s="14"/>
+    </row>
+    <row r="145" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P145" s="14"/>
+    </row>
+    <row r="146" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P146" s="14"/>
+    </row>
+    <row r="147" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P147" s="14"/>
+    </row>
+    <row r="148" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P148" s="14"/>
+    </row>
+    <row r="149" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P149" s="14"/>
+    </row>
+    <row r="150" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P150" s="14"/>
+    </row>
+    <row r="151" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P151" s="14"/>
+    </row>
+    <row r="152" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P152" s="14"/>
+    </row>
+    <row r="153" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P153" s="14"/>
+    </row>
+    <row r="154" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P154" s="14"/>
+    </row>
+    <row r="155" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P155" s="14"/>
+    </row>
+    <row r="156" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P156" s="14"/>
+    </row>
+    <row r="157" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P157" s="14"/>
+    </row>
+    <row r="158" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P158" s="14"/>
+    </row>
+    <row r="159" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P159" s="14"/>
+    </row>
+    <row r="160" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P160" s="14"/>
+    </row>
+    <row r="161" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P161" s="14"/>
+    </row>
+    <row r="162" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P162" s="14"/>
+    </row>
+    <row r="163" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P163" s="14"/>
+    </row>
+    <row r="164" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P164" s="14"/>
+    </row>
+    <row r="165" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P165" s="14"/>
+    </row>
+    <row r="166" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P166" s="14"/>
+    </row>
+    <row r="167" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P167" s="14"/>
+    </row>
+    <row r="168" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P168" s="14"/>
+    </row>
+    <row r="169" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P169" s="14"/>
+    </row>
+    <row r="170" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P170" s="14"/>
+    </row>
+    <row r="171" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P171" s="14"/>
+    </row>
+    <row r="172" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P172" s="14"/>
+    </row>
+    <row r="173" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P173" s="14"/>
+    </row>
+    <row r="174" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P174" s="14"/>
+    </row>
+    <row r="175" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P175" s="14"/>
+    </row>
+    <row r="176" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P176" s="14"/>
+    </row>
+    <row r="177" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P177" s="14"/>
+    </row>
+    <row r="178" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P178" s="14"/>
+    </row>
+    <row r="179" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P179" s="14"/>
+    </row>
+    <row r="180" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P180" s="14"/>
+    </row>
+    <row r="181" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P181" s="14"/>
+    </row>
+    <row r="182" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P182" s="14"/>
+    </row>
+    <row r="183" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P183" s="14"/>
+    </row>
+    <row r="184" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P184" s="14"/>
+    </row>
+    <row r="185" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P185" s="14"/>
+    </row>
+    <row r="186" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P186" s="14"/>
+    </row>
+    <row r="187" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P187" s="14"/>
+    </row>
+    <row r="188" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P188" s="14"/>
+    </row>
+    <row r="189" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P189" s="14"/>
+    </row>
+    <row r="190" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P190" s="14"/>
+    </row>
+    <row r="191" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P191" s="14"/>
+    </row>
+    <row r="192" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P192" s="14"/>
+    </row>
+    <row r="193" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P193" s="14"/>
+    </row>
+    <row r="194" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P194" s="14"/>
+    </row>
+    <row r="195" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P195" s="14"/>
+    </row>
+    <row r="196" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P196" s="14"/>
+    </row>
+    <row r="197" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P197" s="14"/>
+    </row>
+    <row r="198" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P198" s="14"/>
+    </row>
+    <row r="199" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P199" s="14"/>
+    </row>
+    <row r="200" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P200" s="14"/>
+    </row>
+    <row r="201" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P201" s="14"/>
+    </row>
+    <row r="202" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P202" s="14"/>
+    </row>
+    <row r="203" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P203" s="14"/>
+    </row>
+    <row r="204" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P204" s="14"/>
+    </row>
+    <row r="205" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P205" s="14"/>
+    </row>
+    <row r="206" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P206" s="14"/>
+    </row>
+    <row r="207" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P207" s="14"/>
+    </row>
+    <row r="208" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P208" s="14"/>
+    </row>
+    <row r="209" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P209" s="14"/>
+    </row>
+    <row r="210" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P210" s="14"/>
+    </row>
+    <row r="211" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P211" s="14"/>
+    </row>
+    <row r="212" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P212" s="14"/>
+    </row>
+    <row r="213" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P213" s="14"/>
+    </row>
+    <row r="214" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P214" s="14"/>
+    </row>
+    <row r="215" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P215" s="14"/>
+    </row>
+    <row r="216" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P216" s="14"/>
+    </row>
+    <row r="217" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P217" s="14"/>
+    </row>
+    <row r="218" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P218" s="14"/>
+    </row>
+    <row r="219" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P219" s="14"/>
+    </row>
+    <row r="220" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P220" s="14"/>
+    </row>
+    <row r="221" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P221" s="14"/>
+    </row>
+    <row r="222" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P222" s="14"/>
+    </row>
+    <row r="223" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P223" s="14"/>
+    </row>
+    <row r="224" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P224" s="14"/>
+    </row>
+    <row r="225" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P225" s="14"/>
+    </row>
+    <row r="226" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P226" s="14"/>
+    </row>
+    <row r="227" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P227" s="14"/>
+    </row>
+    <row r="228" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P228" s="14"/>
+    </row>
+    <row r="229" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P229" s="14"/>
+    </row>
+    <row r="230" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P230" s="14"/>
+    </row>
+    <row r="231" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P231" s="14"/>
+    </row>
+    <row r="232" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P232" s="14"/>
+    </row>
+    <row r="233" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P233" s="14"/>
+    </row>
+    <row r="234" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P234" s="14"/>
+    </row>
+    <row r="235" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P235" s="14"/>
+    </row>
+    <row r="236" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P236" s="14"/>
+    </row>
+    <row r="237" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P237" s="14"/>
+    </row>
+    <row r="238" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P238" s="14"/>
+    </row>
+    <row r="239" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P239" s="14"/>
+    </row>
+    <row r="240" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P240" s="14"/>
+    </row>
+    <row r="241" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P241" s="14"/>
+    </row>
+    <row r="242" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P242" s="14"/>
+    </row>
+    <row r="243" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P243" s="14"/>
+    </row>
+    <row r="244" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P244" s="14"/>
+    </row>
+    <row r="245" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P245" s="14"/>
+    </row>
+    <row r="246" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P246" s="14"/>
+    </row>
+    <row r="247" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P247" s="14"/>
+    </row>
+    <row r="248" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P248" s="14"/>
+    </row>
+    <row r="249" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P249" s="14"/>
+    </row>
+    <row r="250" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P250" s="14"/>
+    </row>
+    <row r="251" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P251" s="14"/>
+    </row>
+    <row r="252" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P252" s="14"/>
+    </row>
+    <row r="253" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P253" s="14"/>
+    </row>
+    <row r="254" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P254" s="14"/>
+    </row>
+    <row r="255" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P255" s="14"/>
+    </row>
+    <row r="256" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P256" s="14"/>
+    </row>
+    <row r="257" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P257" s="14"/>
+    </row>
+    <row r="258" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P258" s="14"/>
+    </row>
+    <row r="259" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P259" s="14"/>
+    </row>
+    <row r="260" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P260" s="14"/>
+    </row>
+    <row r="261" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P261" s="14"/>
+    </row>
+    <row r="262" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P262" s="14"/>
+    </row>
+    <row r="263" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P263" s="14"/>
+    </row>
+    <row r="264" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P264" s="14"/>
+    </row>
+    <row r="265" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P265" s="14"/>
+    </row>
+    <row r="266" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P266" s="14"/>
+    </row>
+    <row r="267" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P267" s="14"/>
+    </row>
+    <row r="268" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P268" s="14"/>
+    </row>
+    <row r="269" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P269" s="14"/>
+    </row>
+    <row r="270" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P270" s="14"/>
+    </row>
+    <row r="271" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P271" s="14"/>
+    </row>
+    <row r="272" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P272" s="14"/>
+    </row>
+    <row r="273" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P273" s="14"/>
+    </row>
+    <row r="274" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P274" s="14"/>
+    </row>
+    <row r="275" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P275" s="14"/>
+    </row>
+    <row r="276" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P276" s="14"/>
+    </row>
+    <row r="277" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P277" s="14"/>
+    </row>
+    <row r="278" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P278" s="14"/>
+    </row>
+    <row r="279" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P279" s="14"/>
+    </row>
+    <row r="280" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P280" s="14"/>
+    </row>
+    <row r="281" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P281" s="14"/>
+    </row>
+    <row r="282" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P282" s="14"/>
+    </row>
+    <row r="283" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P283" s="14"/>
+    </row>
+    <row r="284" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P284" s="14"/>
+    </row>
+    <row r="285" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P285" s="14"/>
+    </row>
+    <row r="286" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P286" s="14"/>
+    </row>
+    <row r="287" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P287" s="14"/>
+    </row>
+    <row r="288" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P288" s="14"/>
+    </row>
+    <row r="289" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P289" s="14"/>
+    </row>
+    <row r="290" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P290" s="14"/>
+    </row>
+    <row r="291" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P291" s="14"/>
+    </row>
+    <row r="292" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P292" s="14"/>
+    </row>
+    <row r="293" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P293" s="14"/>
+    </row>
+    <row r="294" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P294" s="14"/>
+    </row>
+    <row r="295" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P295" s="14"/>
+    </row>
+    <row r="296" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P296" s="14"/>
+    </row>
+    <row r="297" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P297" s="14"/>
+    </row>
+    <row r="298" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P298" s="14"/>
+    </row>
+    <row r="299" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P299" s="14"/>
+    </row>
+    <row r="300" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P300" s="14"/>
+    </row>
+    <row r="301" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P301" s="14"/>
+    </row>
+    <row r="302" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P302" s="14"/>
+    </row>
+    <row r="303" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P303" s="14"/>
+    </row>
+    <row r="304" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P304" s="14"/>
+    </row>
+    <row r="305" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P305" s="14"/>
+    </row>
+    <row r="306" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P306" s="14"/>
+    </row>
+    <row r="307" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P307" s="14"/>
+    </row>
+    <row r="308" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P308" s="14"/>
+    </row>
+    <row r="309" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P309" s="14"/>
+    </row>
+    <row r="310" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P310" s="14"/>
+    </row>
+    <row r="311" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P311" s="14"/>
+    </row>
+    <row r="312" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P312" s="14"/>
+    </row>
+    <row r="313" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P313" s="14"/>
+    </row>
+    <row r="314" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P314" s="14"/>
+    </row>
+    <row r="315" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P315" s="14"/>
+    </row>
+    <row r="316" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P316" s="14"/>
+    </row>
+    <row r="317" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P317" s="14"/>
+    </row>
+    <row r="318" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P318" s="14"/>
+    </row>
+    <row r="319" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P319" s="14"/>
+    </row>
+    <row r="320" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P320" s="14"/>
+    </row>
+    <row r="321" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P321" s="14"/>
+    </row>
+    <row r="322" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P322" s="14"/>
+    </row>
+    <row r="323" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P323" s="14"/>
+    </row>
+    <row r="324" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P324" s="14"/>
+    </row>
+    <row r="325" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P325" s="14"/>
+    </row>
+    <row r="326" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P326" s="14"/>
+    </row>
+    <row r="327" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P327" s="14"/>
+    </row>
+    <row r="328" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P328" s="14"/>
+    </row>
+    <row r="329" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P329" s="14"/>
+    </row>
+    <row r="330" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P330" s="14"/>
+    </row>
+    <row r="331" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P331" s="14"/>
+    </row>
+    <row r="332" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P332" s="14"/>
+    </row>
+    <row r="333" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P333" s="14"/>
+    </row>
+    <row r="334" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P334" s="14"/>
+    </row>
+    <row r="335" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P335" s="14"/>
+    </row>
+    <row r="336" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P336" s="14"/>
+    </row>
+    <row r="337" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P337" s="14"/>
+    </row>
+    <row r="338" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P338" s="14"/>
+    </row>
+    <row r="339" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P339" s="14"/>
+    </row>
+    <row r="340" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P340" s="14"/>
+    </row>
+    <row r="341" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P341" s="14"/>
+    </row>
+    <row r="342" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P342" s="14"/>
+    </row>
+    <row r="343" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P343" s="14"/>
+    </row>
+    <row r="344" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P344" s="14"/>
+    </row>
+    <row r="345" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P345" s="14"/>
+    </row>
+    <row r="346" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P346" s="14"/>
+    </row>
+    <row r="347" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P347" s="14"/>
+    </row>
+    <row r="348" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P348" s="14"/>
+    </row>
+    <row r="349" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P349" s="14"/>
+    </row>
+    <row r="350" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P350" s="14"/>
+    </row>
+    <row r="351" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P351" s="14"/>
+    </row>
+    <row r="352" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P352" s="14"/>
+    </row>
+    <row r="353" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P353" s="14"/>
+    </row>
+    <row r="354" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P354" s="14"/>
+    </row>
+    <row r="355" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P355" s="14"/>
+    </row>
+    <row r="356" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P356" s="14"/>
+    </row>
+    <row r="357" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P357" s="14"/>
+    </row>
+    <row r="358" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P358" s="14"/>
+    </row>
+    <row r="359" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P359" s="14"/>
+    </row>
+    <row r="360" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P360" s="14"/>
+    </row>
+    <row r="361" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P361" s="14"/>
+    </row>
+    <row r="362" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P362" s="14"/>
+    </row>
+    <row r="363" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P363" s="14"/>
+    </row>
+    <row r="364" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P364" s="14"/>
+    </row>
+    <row r="365" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P365" s="14"/>
+    </row>
+    <row r="366" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P366" s="14"/>
+    </row>
+    <row r="367" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P367" s="14"/>
+    </row>
+    <row r="368" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P368" s="14"/>
+    </row>
+    <row r="369" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P369" s="14"/>
+    </row>
+    <row r="370" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P370" s="14"/>
+    </row>
+    <row r="371" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P371" s="14"/>
+    </row>
+    <row r="372" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P372" s="14"/>
+    </row>
+    <row r="373" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P373" s="14"/>
+    </row>
+    <row r="374" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P374" s="14"/>
+    </row>
+    <row r="375" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P375" s="14"/>
+    </row>
+    <row r="376" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P376" s="14"/>
+    </row>
+    <row r="377" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P377" s="14"/>
+    </row>
+    <row r="378" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P378" s="14"/>
+    </row>
+    <row r="379" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P379" s="14"/>
+    </row>
+    <row r="380" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P380" s="14"/>
+    </row>
+    <row r="381" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P381" s="14"/>
+    </row>
+    <row r="382" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P382" s="14"/>
+    </row>
+    <row r="383" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P383" s="14"/>
+    </row>
+    <row r="384" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P384" s="14"/>
+    </row>
+    <row r="385" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P385" s="14"/>
+    </row>
+    <row r="386" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P386" s="14"/>
+    </row>
+    <row r="387" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P387" s="14"/>
+    </row>
+    <row r="388" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P388" s="14"/>
+    </row>
+    <row r="389" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P389" s="14"/>
+    </row>
+    <row r="390" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P390" s="14"/>
+    </row>
+    <row r="391" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P391" s="14"/>
+    </row>
+    <row r="392" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P392" s="14"/>
+    </row>
+    <row r="393" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P393" s="14"/>
+    </row>
+    <row r="394" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P394" s="14"/>
+    </row>
+    <row r="395" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P395" s="14"/>
+    </row>
+    <row r="396" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P396" s="14"/>
+    </row>
+    <row r="397" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P397" s="14"/>
+    </row>
+    <row r="398" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P398" s="14"/>
+    </row>
+    <row r="399" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P399" s="14"/>
+    </row>
+    <row r="400" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P400" s="14"/>
+    </row>
+    <row r="401" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P401" s="14"/>
+    </row>
+    <row r="402" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P402" s="14"/>
+    </row>
+    <row r="403" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P403" s="14"/>
+    </row>
+    <row r="404" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P404" s="14"/>
+    </row>
+    <row r="405" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P405" s="14"/>
+    </row>
+    <row r="406" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P406" s="14"/>
+    </row>
+    <row r="407" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P407" s="14"/>
+    </row>
+    <row r="408" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P408" s="14"/>
+    </row>
+    <row r="409" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P409" s="14"/>
+    </row>
+    <row r="410" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P410" s="14"/>
+    </row>
+    <row r="411" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P411" s="14"/>
+    </row>
+    <row r="412" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P412" s="14"/>
+    </row>
+    <row r="413" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P413" s="14"/>
+    </row>
+    <row r="414" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P414" s="14"/>
+    </row>
+    <row r="415" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P415" s="14"/>
+    </row>
+    <row r="416" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P416" s="14"/>
+    </row>
+    <row r="417" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P417" s="14"/>
+    </row>
+    <row r="418" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P418" s="14"/>
+    </row>
+    <row r="419" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P419" s="14"/>
+    </row>
+    <row r="420" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P420" s="14"/>
+    </row>
+    <row r="421" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P421" s="14"/>
+    </row>
+    <row r="422" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P422" s="14"/>
+    </row>
+    <row r="423" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P423" s="14"/>
+    </row>
+    <row r="424" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P424" s="14"/>
+    </row>
+    <row r="425" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P425" s="14"/>
+    </row>
+    <row r="426" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P426" s="14"/>
+    </row>
+    <row r="427" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P427" s="14"/>
+    </row>
+    <row r="428" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P428" s="14"/>
+    </row>
+    <row r="429" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P429" s="14"/>
+    </row>
+    <row r="430" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P430" s="14"/>
+    </row>
+    <row r="431" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P431" s="14"/>
+    </row>
+    <row r="432" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P432" s="14"/>
+    </row>
+    <row r="433" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P433" s="14"/>
+    </row>
+    <row r="434" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P434" s="14"/>
+    </row>
+    <row r="435" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P435" s="14"/>
+    </row>
+    <row r="436" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P436" s="14"/>
+    </row>
+    <row r="437" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P437" s="14"/>
+    </row>
+    <row r="438" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P438" s="14"/>
+    </row>
+    <row r="439" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P439" s="14"/>
+    </row>
+    <row r="440" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P440" s="14"/>
+    </row>
+    <row r="441" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P441" s="14"/>
+    </row>
+    <row r="442" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P442" s="14"/>
+    </row>
+    <row r="443" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P443" s="14"/>
+    </row>
+    <row r="444" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P444" s="14"/>
+    </row>
+    <row r="445" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P445" s="14"/>
+    </row>
+    <row r="446" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P446" s="14"/>
+    </row>
+    <row r="447" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P447" s="14"/>
+    </row>
+    <row r="448" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P448" s="14"/>
+    </row>
+    <row r="449" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P449" s="14"/>
+    </row>
+    <row r="450" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P450" s="14"/>
+    </row>
+    <row r="451" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P451" s="14"/>
+    </row>
+    <row r="452" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P452" s="14"/>
+    </row>
+    <row r="453" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P453" s="14"/>
+    </row>
+    <row r="454" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P454" s="14"/>
+    </row>
+    <row r="455" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P455" s="14"/>
+    </row>
+    <row r="456" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P456" s="14"/>
+    </row>
+    <row r="457" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P457" s="14"/>
+    </row>
+    <row r="458" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P458" s="14"/>
+    </row>
+    <row r="459" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P459" s="14"/>
+    </row>
+    <row r="460" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P460" s="14"/>
+    </row>
+    <row r="461" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P461" s="14"/>
+    </row>
+    <row r="462" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P462" s="14"/>
+    </row>
+    <row r="463" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P463" s="14"/>
+    </row>
+    <row r="464" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P464" s="14"/>
+    </row>
+    <row r="465" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P465" s="14"/>
+    </row>
+    <row r="466" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P466" s="14"/>
+    </row>
+    <row r="467" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P467" s="14"/>
+    </row>
+    <row r="468" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P468" s="14"/>
+    </row>
+    <row r="469" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P469" s="14"/>
+    </row>
+    <row r="470" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P470" s="14"/>
+    </row>
+    <row r="471" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P471" s="14"/>
+    </row>
+    <row r="472" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P472" s="14"/>
+    </row>
+    <row r="473" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P473" s="14"/>
+    </row>
+    <row r="474" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P474" s="14"/>
+    </row>
+    <row r="475" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P475" s="14"/>
+    </row>
+    <row r="476" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P476" s="14"/>
+    </row>
+    <row r="477" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P477" s="14"/>
+    </row>
+    <row r="478" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P478" s="14"/>
+    </row>
+    <row r="479" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P479" s="14"/>
+    </row>
+    <row r="480" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P480" s="14"/>
+    </row>
+    <row r="481" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P481" s="14"/>
+    </row>
+    <row r="482" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P482" s="14"/>
+    </row>
+    <row r="483" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P483" s="14"/>
+    </row>
+    <row r="484" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P484" s="14"/>
+    </row>
+    <row r="485" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P485" s="14"/>
+    </row>
+    <row r="486" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P486" s="14"/>
+    </row>
+    <row r="487" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P487" s="14"/>
+    </row>
+    <row r="488" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P488" s="14"/>
+    </row>
+    <row r="489" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P489" s="14"/>
+    </row>
+    <row r="490" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P490" s="14"/>
+    </row>
+    <row r="491" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P491" s="14"/>
+    </row>
+    <row r="492" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P492" s="14"/>
+    </row>
+    <row r="493" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P493" s="14"/>
+    </row>
+    <row r="494" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P494" s="14"/>
+    </row>
+    <row r="495" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P495" s="14"/>
+    </row>
+    <row r="496" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P496" s="14"/>
+    </row>
+    <row r="497" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P497" s="14"/>
+    </row>
+    <row r="498" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P498" s="14"/>
+    </row>
+    <row r="499" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P499" s="14"/>
+    </row>
+    <row r="500" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P500" s="14"/>
+    </row>
+    <row r="501" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P501" s="14"/>
+    </row>
+    <row r="502" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P502" s="14"/>
+    </row>
+    <row r="503" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P503" s="14"/>
+    </row>
+    <row r="504" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P504" s="14"/>
+    </row>
+    <row r="505" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P505" s="14"/>
+    </row>
+    <row r="506" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P506" s="14"/>
+    </row>
+    <row r="507" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P507" s="14"/>
+    </row>
+    <row r="508" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P508" s="14"/>
+    </row>
+    <row r="509" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P509" s="14"/>
+    </row>
+    <row r="510" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P510" s="14"/>
+    </row>
+    <row r="511" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P511" s="14"/>
+    </row>
+    <row r="512" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P512" s="14"/>
+    </row>
+    <row r="513" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P513" s="14"/>
+    </row>
+    <row r="514" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P514" s="14"/>
+    </row>
+    <row r="515" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P515" s="14"/>
+    </row>
+    <row r="516" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P516" s="14"/>
+    </row>
+    <row r="517" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P517" s="14"/>
+    </row>
+    <row r="518" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P518" s="14"/>
+    </row>
+    <row r="519" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P519" s="14"/>
+    </row>
+    <row r="520" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P520" s="14"/>
+    </row>
+    <row r="521" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P521" s="14"/>
+    </row>
+    <row r="522" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P522" s="14"/>
+    </row>
+    <row r="523" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P523" s="14"/>
+    </row>
+    <row r="524" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P524" s="14"/>
+    </row>
+    <row r="525" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P525" s="14"/>
+    </row>
+    <row r="526" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P526" s="14"/>
+    </row>
+    <row r="527" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P527" s="14"/>
+    </row>
+    <row r="528" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P528" s="14"/>
+    </row>
+    <row r="529" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P529" s="14"/>
+    </row>
+    <row r="530" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P530" s="14"/>
+    </row>
+    <row r="531" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P531" s="14"/>
+    </row>
+    <row r="532" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P532" s="14"/>
+    </row>
+    <row r="533" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P533" s="14"/>
+    </row>
+    <row r="534" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P534" s="14"/>
+    </row>
+    <row r="535" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P535" s="14"/>
+    </row>
+    <row r="536" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P536" s="14"/>
+    </row>
+    <row r="537" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P537" s="14"/>
+    </row>
+    <row r="538" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P538" s="14"/>
+    </row>
+    <row r="539" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P539" s="14"/>
+    </row>
+    <row r="540" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P540" s="14"/>
+    </row>
+    <row r="541" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P541" s="14"/>
+    </row>
+    <row r="542" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P542" s="14"/>
+    </row>
+    <row r="543" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P543" s="14"/>
+    </row>
+    <row r="544" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P544" s="14"/>
+    </row>
+    <row r="545" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P545" s="14"/>
+    </row>
+    <row r="546" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P546" s="14"/>
+    </row>
+    <row r="547" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P547" s="14"/>
+    </row>
+    <row r="548" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P548" s="14"/>
+    </row>
+    <row r="549" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P549" s="14"/>
+    </row>
+    <row r="550" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P550" s="14"/>
+    </row>
+    <row r="551" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P551" s="14"/>
+    </row>
+    <row r="552" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P552" s="14"/>
+    </row>
+    <row r="553" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P553" s="14"/>
+    </row>
+    <row r="554" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P554" s="14"/>
+    </row>
+    <row r="555" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P555" s="14"/>
+    </row>
+    <row r="556" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P556" s="14"/>
+    </row>
+    <row r="557" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P557" s="14"/>
+    </row>
+    <row r="558" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P558" s="14"/>
+    </row>
+    <row r="559" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P559" s="14"/>
+    </row>
+    <row r="560" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P560" s="14"/>
+    </row>
+    <row r="561" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P561" s="14"/>
+    </row>
+    <row r="562" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P562" s="14"/>
+    </row>
+    <row r="563" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P563" s="14"/>
+    </row>
+    <row r="564" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P564" s="14"/>
+    </row>
+    <row r="565" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P565" s="14"/>
+    </row>
+    <row r="566" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P566" s="14"/>
+    </row>
+    <row r="567" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P567" s="14"/>
+    </row>
+    <row r="568" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P568" s="14"/>
+    </row>
+    <row r="569" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P569" s="14"/>
+    </row>
+    <row r="570" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P570" s="14"/>
+    </row>
+    <row r="571" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P571" s="14"/>
+    </row>
+    <row r="572" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P572" s="14"/>
+    </row>
+    <row r="573" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P573" s="14"/>
+    </row>
+    <row r="574" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P574" s="14"/>
+    </row>
+    <row r="575" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P575" s="14"/>
+    </row>
+    <row r="576" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P576" s="14"/>
+    </row>
+    <row r="577" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P577" s="14"/>
+    </row>
+    <row r="578" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P578" s="14"/>
+    </row>
+    <row r="579" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P579" s="14"/>
+    </row>
+    <row r="580" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P580" s="14"/>
+    </row>
+    <row r="581" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P581" s="14"/>
+    </row>
+    <row r="582" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P582" s="14"/>
+    </row>
+    <row r="583" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P583" s="14"/>
+    </row>
+    <row r="584" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P584" s="14"/>
+    </row>
+    <row r="585" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P585" s="14"/>
+    </row>
+    <row r="586" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P586" s="14"/>
+    </row>
+    <row r="587" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P587" s="14"/>
+    </row>
+    <row r="588" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P588" s="14"/>
+    </row>
+    <row r="589" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P589" s="14"/>
+    </row>
+    <row r="590" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P590" s="14"/>
+    </row>
+    <row r="591" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P591" s="14"/>
+    </row>
+    <row r="592" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P592" s="14"/>
+    </row>
+    <row r="593" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P593" s="14"/>
+    </row>
+    <row r="594" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P594" s="14"/>
+    </row>
+    <row r="595" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P595" s="14"/>
+    </row>
+    <row r="596" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P596" s="14"/>
+    </row>
+    <row r="597" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P597" s="14"/>
+    </row>
+    <row r="598" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P598" s="14"/>
+    </row>
+    <row r="599" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P599" s="14"/>
+    </row>
+    <row r="600" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P600" s="14"/>
+    </row>
+    <row r="601" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P601" s="14"/>
+    </row>
+    <row r="602" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P602" s="14"/>
+    </row>
+    <row r="603" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P603" s="14"/>
+    </row>
+    <row r="604" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P604" s="14"/>
+    </row>
+    <row r="605" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P605" s="14"/>
+    </row>
+    <row r="606" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P606" s="14"/>
+    </row>
+    <row r="607" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P607" s="14"/>
+    </row>
+    <row r="608" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P608" s="14"/>
+    </row>
+    <row r="609" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P609" s="14"/>
+    </row>
+    <row r="610" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P610" s="14"/>
+    </row>
+    <row r="611" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P611" s="14"/>
+    </row>
+    <row r="612" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P612" s="14"/>
+    </row>
+    <row r="613" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P613" s="14"/>
+    </row>
+    <row r="614" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P614" s="14"/>
+    </row>
+    <row r="615" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P615" s="14"/>
+    </row>
+    <row r="616" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P616" s="14"/>
+    </row>
+    <row r="617" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P617" s="14"/>
+    </row>
+    <row r="618" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P618" s="14"/>
+    </row>
+    <row r="619" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P619" s="14"/>
+    </row>
+    <row r="620" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P620" s="14"/>
+    </row>
+    <row r="621" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P621" s="14"/>
+    </row>
+    <row r="622" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P622" s="14"/>
+    </row>
+    <row r="623" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P623" s="14"/>
+    </row>
+    <row r="624" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P624" s="14"/>
+    </row>
+    <row r="625" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P625" s="14"/>
+    </row>
+    <row r="626" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P626" s="14"/>
+    </row>
+    <row r="627" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P627" s="14"/>
+    </row>
+    <row r="628" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P628" s="14"/>
+    </row>
+    <row r="629" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P629" s="14"/>
+    </row>
+    <row r="630" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P630" s="14"/>
+    </row>
+    <row r="631" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P631" s="14"/>
+    </row>
+    <row r="632" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P632" s="14"/>
+    </row>
+    <row r="633" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P633" s="14"/>
+    </row>
+    <row r="634" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P634" s="14"/>
+    </row>
+    <row r="635" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P635" s="14"/>
+    </row>
+    <row r="636" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P636" s="14"/>
+    </row>
+    <row r="637" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P637" s="14"/>
+    </row>
+    <row r="638" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P638" s="14"/>
+    </row>
+    <row r="639" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P639" s="14"/>
+    </row>
+    <row r="640" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P640" s="14"/>
+    </row>
+    <row r="641" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P641" s="14"/>
+    </row>
+    <row r="642" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P642" s="14"/>
+    </row>
+    <row r="643" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P643" s="14"/>
+    </row>
+    <row r="644" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P644" s="14"/>
+    </row>
+    <row r="645" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P645" s="14"/>
+    </row>
+    <row r="646" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P646" s="14"/>
+    </row>
+    <row r="647" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P647" s="14"/>
+    </row>
+    <row r="648" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P648" s="14"/>
+    </row>
+    <row r="649" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P649" s="14"/>
+    </row>
+    <row r="650" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P650" s="14"/>
+    </row>
+    <row r="651" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P651" s="14"/>
+    </row>
+    <row r="652" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P652" s="14"/>
+    </row>
+    <row r="653" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P653" s="14"/>
+    </row>
+    <row r="654" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P654" s="14"/>
+    </row>
+    <row r="655" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P655" s="14"/>
+    </row>
+    <row r="656" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P656" s="14"/>
+    </row>
+    <row r="657" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P657" s="14"/>
+    </row>
+    <row r="658" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P658" s="14"/>
+    </row>
+    <row r="659" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P659" s="14"/>
+    </row>
+    <row r="660" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P660" s="14"/>
+    </row>
+    <row r="661" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P661" s="14"/>
+    </row>
+    <row r="662" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P662" s="14"/>
+    </row>
+    <row r="663" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P663" s="14"/>
+    </row>
+    <row r="664" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P664" s="14"/>
+    </row>
+    <row r="665" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P665" s="14"/>
+    </row>
+    <row r="666" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P666" s="14"/>
+    </row>
+    <row r="667" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P667" s="14"/>
+    </row>
+    <row r="668" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P668" s="14"/>
+    </row>
+    <row r="669" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P669" s="14"/>
+    </row>
+    <row r="670" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P670" s="14"/>
+    </row>
+    <row r="671" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P671" s="14"/>
+    </row>
+    <row r="672" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P672" s="14"/>
+    </row>
+    <row r="673" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P673" s="14"/>
+    </row>
+    <row r="674" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P674" s="14"/>
+    </row>
+    <row r="675" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P675" s="14"/>
+    </row>
+    <row r="676" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P676" s="14"/>
+    </row>
+    <row r="677" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P677" s="14"/>
+    </row>
+    <row r="678" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P678" s="14"/>
+    </row>
+    <row r="679" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P679" s="14"/>
+    </row>
+    <row r="680" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P680" s="14"/>
+    </row>
+    <row r="681" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P681" s="14"/>
+    </row>
+    <row r="682" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P682" s="14"/>
+    </row>
+    <row r="683" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P683" s="14"/>
+    </row>
+    <row r="684" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P684" s="14"/>
+    </row>
+    <row r="685" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P685" s="14"/>
+    </row>
+    <row r="686" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P686" s="14"/>
+    </row>
+    <row r="687" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P687" s="14"/>
+    </row>
+    <row r="688" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P688" s="14"/>
+    </row>
+    <row r="689" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P689" s="14"/>
+    </row>
+    <row r="690" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P690" s="14"/>
+    </row>
+    <row r="691" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P691" s="14"/>
+    </row>
+    <row r="692" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P692" s="14"/>
+    </row>
+    <row r="693" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P693" s="14"/>
+    </row>
+    <row r="694" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P694" s="14"/>
+    </row>
+    <row r="695" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P695" s="14"/>
+    </row>
+    <row r="696" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P696" s="14"/>
+    </row>
+    <row r="697" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P697" s="14"/>
+    </row>
+    <row r="698" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P698" s="14"/>
+    </row>
+    <row r="699" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P699" s="14"/>
+    </row>
+    <row r="700" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P700" s="14"/>
+    </row>
+    <row r="701" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P701" s="14"/>
+    </row>
+    <row r="702" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P702" s="14"/>
+    </row>
+    <row r="703" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P703" s="14"/>
+    </row>
+    <row r="704" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P704" s="14"/>
+    </row>
+    <row r="705" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P705" s="14"/>
+    </row>
+    <row r="706" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P706" s="14"/>
+    </row>
+    <row r="707" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P707" s="14"/>
+    </row>
+    <row r="708" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P708" s="14"/>
+    </row>
+    <row r="709" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P709" s="14"/>
+    </row>
+    <row r="710" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P710" s="14"/>
+    </row>
+    <row r="711" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P711" s="14"/>
+    </row>
+    <row r="712" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P712" s="14"/>
+    </row>
+    <row r="713" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P713" s="14"/>
+    </row>
+    <row r="714" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P714" s="14"/>
+    </row>
+    <row r="715" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P715" s="14"/>
+    </row>
+    <row r="716" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P716" s="14"/>
+    </row>
+    <row r="717" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P717" s="14"/>
+    </row>
+    <row r="718" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P718" s="14"/>
+    </row>
+    <row r="719" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P719" s="14"/>
+    </row>
+    <row r="720" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P720" s="14"/>
+    </row>
+    <row r="721" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P721" s="14"/>
+    </row>
+    <row r="722" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P722" s="14"/>
+    </row>
+    <row r="723" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P723" s="14"/>
+    </row>
+    <row r="724" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P724" s="14"/>
+    </row>
+    <row r="725" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P725" s="14"/>
+    </row>
+    <row r="726" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P726" s="14"/>
+    </row>
+    <row r="727" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P727" s="14"/>
+    </row>
+    <row r="728" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P728" s="14"/>
+    </row>
+    <row r="729" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P729" s="14"/>
+    </row>
+    <row r="730" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P730" s="14"/>
+    </row>
+    <row r="731" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P731" s="14"/>
+    </row>
+    <row r="732" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P732" s="14"/>
+    </row>
+    <row r="733" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P733" s="14"/>
+    </row>
+    <row r="734" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P734" s="14"/>
+    </row>
+    <row r="735" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P735" s="14"/>
+    </row>
+    <row r="736" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P736" s="14"/>
+    </row>
+    <row r="737" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P737" s="14"/>
+    </row>
+    <row r="738" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P738" s="14"/>
+    </row>
+    <row r="739" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P739" s="14"/>
+    </row>
+    <row r="740" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P740" s="14"/>
+    </row>
+    <row r="741" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P741" s="14"/>
+    </row>
+    <row r="742" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P742" s="14"/>
+    </row>
+    <row r="743" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P743" s="14"/>
+    </row>
+    <row r="744" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P744" s="14"/>
+    </row>
+    <row r="745" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P745" s="14"/>
+    </row>
+    <row r="746" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P746" s="14"/>
+    </row>
+    <row r="747" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P747" s="14"/>
+    </row>
+    <row r="748" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P748" s="14"/>
+    </row>
+    <row r="749" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P749" s="14"/>
+    </row>
+    <row r="750" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P750" s="14"/>
+    </row>
+    <row r="751" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P751" s="14"/>
+    </row>
+    <row r="752" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P752" s="14"/>
+    </row>
+    <row r="753" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P753" s="14"/>
+    </row>
+    <row r="754" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P754" s="14"/>
+    </row>
+    <row r="755" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P755" s="14"/>
+    </row>
+    <row r="756" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P756" s="14"/>
+    </row>
+    <row r="757" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P757" s="14"/>
+    </row>
+    <row r="758" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P758" s="14"/>
+    </row>
+    <row r="759" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P759" s="14"/>
+    </row>
+    <row r="760" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P760" s="14"/>
+    </row>
+    <row r="761" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P761" s="14"/>
+    </row>
+    <row r="762" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P762" s="14"/>
+    </row>
+    <row r="763" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P763" s="14"/>
+    </row>
+    <row r="764" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P764" s="14"/>
+    </row>
+    <row r="765" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P765" s="14"/>
+    </row>
+    <row r="766" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P766" s="14"/>
+    </row>
+    <row r="767" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P767" s="14"/>
+    </row>
+    <row r="768" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P768" s="14"/>
+    </row>
+    <row r="769" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P769" s="14"/>
+    </row>
+    <row r="770" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P770" s="14"/>
+    </row>
+    <row r="771" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P771" s="14"/>
+    </row>
+    <row r="772" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P772" s="14"/>
+    </row>
+    <row r="773" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P773" s="14"/>
+    </row>
+    <row r="774" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P774" s="14"/>
+    </row>
+    <row r="775" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P775" s="14"/>
+    </row>
+    <row r="776" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P776" s="14"/>
+    </row>
+    <row r="777" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P777" s="14"/>
+    </row>
+    <row r="778" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P778" s="14"/>
+    </row>
+    <row r="779" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P779" s="14"/>
+    </row>
+    <row r="780" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P780" s="14"/>
+    </row>
+    <row r="781" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P781" s="14"/>
+    </row>
+    <row r="782" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P782" s="14"/>
+    </row>
+    <row r="783" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P783" s="14"/>
+    </row>
+    <row r="784" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P784" s="14"/>
+    </row>
+    <row r="785" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P785" s="14"/>
+    </row>
+    <row r="786" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P786" s="14"/>
+    </row>
+    <row r="787" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P787" s="14"/>
+    </row>
+    <row r="788" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P788" s="14"/>
+    </row>
+    <row r="789" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P789" s="14"/>
+    </row>
+    <row r="790" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P790" s="14"/>
+    </row>
+    <row r="791" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P791" s="14"/>
+    </row>
+    <row r="792" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P792" s="14"/>
+    </row>
+    <row r="793" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P793" s="14"/>
+    </row>
+    <row r="794" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P794" s="14"/>
+    </row>
+    <row r="795" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P795" s="14"/>
+    </row>
+    <row r="796" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P796" s="14"/>
+    </row>
+    <row r="797" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P797" s="14"/>
+    </row>
+    <row r="798" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P798" s="14"/>
+    </row>
+    <row r="799" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P799" s="14"/>
+    </row>
+    <row r="800" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P800" s="14"/>
+    </row>
+    <row r="801" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P801" s="14"/>
+    </row>
+    <row r="802" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P802" s="14"/>
+    </row>
+    <row r="803" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P803" s="14"/>
+    </row>
+    <row r="804" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P804" s="14"/>
+    </row>
+    <row r="805" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P805" s="14"/>
+    </row>
+    <row r="806" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P806" s="14"/>
+    </row>
+    <row r="807" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P807" s="14"/>
+    </row>
+    <row r="808" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P808" s="14"/>
+    </row>
+    <row r="809" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P809" s="14"/>
+    </row>
+    <row r="810" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P810" s="14"/>
+    </row>
+    <row r="811" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P811" s="14"/>
+    </row>
+    <row r="812" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P812" s="14"/>
+    </row>
+    <row r="813" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P813" s="14"/>
+    </row>
+    <row r="814" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P814" s="14"/>
+    </row>
+    <row r="815" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P815" s="14"/>
+    </row>
+    <row r="816" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P816" s="14"/>
+    </row>
+    <row r="817" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P817" s="14"/>
+    </row>
+    <row r="818" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P818" s="14"/>
+    </row>
+    <row r="819" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P819" s="14"/>
+    </row>
+    <row r="820" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P820" s="14"/>
+    </row>
+    <row r="821" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P821" s="14"/>
+    </row>
+    <row r="822" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P822" s="14"/>
+    </row>
+    <row r="823" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P823" s="14"/>
+    </row>
+    <row r="824" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P824" s="14"/>
+    </row>
+    <row r="825" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P825" s="14"/>
+    </row>
+    <row r="826" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P826" s="14"/>
+    </row>
+    <row r="827" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P827" s="14"/>
+    </row>
+    <row r="828" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P828" s="14"/>
+    </row>
+    <row r="829" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P829" s="14"/>
+    </row>
+    <row r="830" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P830" s="14"/>
+    </row>
+    <row r="831" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P831" s="14"/>
+    </row>
+    <row r="832" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P832" s="14"/>
+    </row>
+    <row r="833" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P833" s="14"/>
+    </row>
+    <row r="834" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P834" s="14"/>
+    </row>
+    <row r="835" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P835" s="14"/>
+    </row>
+    <row r="836" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P836" s="14"/>
+    </row>
+    <row r="837" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P837" s="14"/>
+    </row>
+    <row r="838" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P838" s="14"/>
+    </row>
+    <row r="839" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P839" s="14"/>
+    </row>
+    <row r="840" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P840" s="14"/>
+    </row>
+    <row r="841" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P841" s="14"/>
+    </row>
+    <row r="842" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P842" s="14"/>
+    </row>
+    <row r="843" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P843" s="14"/>
+    </row>
+    <row r="844" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P844" s="14"/>
+    </row>
+    <row r="845" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P845" s="14"/>
+    </row>
+    <row r="846" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P846" s="14"/>
+    </row>
+    <row r="847" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P847" s="14"/>
+    </row>
+    <row r="848" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P848" s="14"/>
+    </row>
+    <row r="849" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P849" s="14"/>
+    </row>
+    <row r="850" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P850" s="14"/>
+    </row>
+    <row r="851" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P851" s="14"/>
+    </row>
+    <row r="852" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P852" s="14"/>
+    </row>
+    <row r="853" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P853" s="14"/>
+    </row>
+    <row r="854" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P854" s="14"/>
+    </row>
+    <row r="855" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P855" s="14"/>
+    </row>
+    <row r="856" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P856" s="14"/>
+    </row>
+    <row r="857" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P857" s="14"/>
+    </row>
+    <row r="858" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P858" s="14"/>
+    </row>
+    <row r="859" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P859" s="14"/>
+    </row>
+    <row r="860" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P860" s="14"/>
+    </row>
+    <row r="861" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P861" s="14"/>
+    </row>
+    <row r="862" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P862" s="14"/>
+    </row>
+    <row r="863" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P863" s="14"/>
+    </row>
+    <row r="864" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P864" s="14"/>
+    </row>
+    <row r="865" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P865" s="14"/>
+    </row>
+    <row r="866" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P866" s="14"/>
+    </row>
+    <row r="867" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P867" s="14"/>
+    </row>
+    <row r="868" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P868" s="14"/>
+    </row>
+    <row r="869" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P869" s="14"/>
+    </row>
+    <row r="870" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P870" s="14"/>
+    </row>
+    <row r="871" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P871" s="14"/>
+    </row>
+    <row r="872" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P872" s="14"/>
+    </row>
+    <row r="873" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P873" s="14"/>
+    </row>
+    <row r="874" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P874" s="14"/>
+    </row>
+    <row r="875" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P875" s="14"/>
+    </row>
+    <row r="876" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P876" s="14"/>
+    </row>
+    <row r="877" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P877" s="14"/>
+    </row>
+    <row r="878" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P878" s="14"/>
+    </row>
+    <row r="879" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P879" s="14"/>
+    </row>
+    <row r="880" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P880" s="14"/>
+    </row>
+    <row r="881" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P881" s="14"/>
+    </row>
+    <row r="882" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P882" s="14"/>
+    </row>
+    <row r="883" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P883" s="14"/>
+    </row>
+    <row r="884" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P884" s="14"/>
+    </row>
+    <row r="885" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P885" s="14"/>
+    </row>
+    <row r="886" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P886" s="14"/>
+    </row>
+    <row r="887" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P887" s="14"/>
+    </row>
+    <row r="888" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P888" s="14"/>
+    </row>
+    <row r="889" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P889" s="14"/>
+    </row>
+    <row r="890" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P890" s="14"/>
+    </row>
+    <row r="891" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P891" s="14"/>
+    </row>
+    <row r="892" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P892" s="14"/>
+    </row>
+    <row r="893" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P893" s="14"/>
+    </row>
+    <row r="894" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P894" s="14"/>
+    </row>
+    <row r="895" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P895" s="14"/>
+    </row>
+    <row r="896" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P896" s="14"/>
+    </row>
+    <row r="897" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P897" s="14"/>
+    </row>
+    <row r="898" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P898" s="14"/>
+    </row>
+    <row r="899" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P899" s="14"/>
+    </row>
+    <row r="900" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P900" s="14"/>
+    </row>
+    <row r="901" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P901" s="14"/>
+    </row>
+    <row r="902" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P902" s="14"/>
+    </row>
+    <row r="903" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P903" s="14"/>
+    </row>
+    <row r="904" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P904" s="14"/>
+    </row>
+    <row r="905" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P905" s="14"/>
+    </row>
+    <row r="906" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P906" s="14"/>
+    </row>
+    <row r="907" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P907" s="14"/>
+    </row>
+    <row r="908" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P908" s="14"/>
+    </row>
+    <row r="909" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P909" s="14"/>
+    </row>
+    <row r="910" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P910" s="14"/>
+    </row>
+    <row r="911" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P911" s="14"/>
+    </row>
+    <row r="912" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P912" s="14"/>
+    </row>
+    <row r="913" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P913" s="14"/>
+    </row>
+    <row r="914" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P914" s="14"/>
+    </row>
+    <row r="915" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P915" s="14"/>
+    </row>
+    <row r="916" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P916" s="14"/>
+    </row>
+    <row r="917" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P917" s="14"/>
+    </row>
+    <row r="918" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P918" s="14"/>
+    </row>
+    <row r="919" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P919" s="14"/>
+    </row>
+    <row r="920" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P920" s="14"/>
+    </row>
+    <row r="921" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P921" s="14"/>
+    </row>
+    <row r="922" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P922" s="14"/>
+    </row>
+    <row r="923" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P923" s="14"/>
+    </row>
+    <row r="924" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P924" s="14"/>
+    </row>
+    <row r="925" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P925" s="14"/>
+    </row>
+    <row r="926" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P926" s="14"/>
+    </row>
+    <row r="927" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P927" s="14"/>
+    </row>
+    <row r="928" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P928" s="14"/>
+    </row>
+    <row r="929" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P929" s="14"/>
+    </row>
+    <row r="930" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P930" s="14"/>
+    </row>
+    <row r="931" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P931" s="14"/>
+    </row>
+    <row r="932" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P932" s="14"/>
+    </row>
+    <row r="933" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P933" s="14"/>
+    </row>
+    <row r="934" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P934" s="14"/>
+    </row>
+    <row r="935" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P935" s="14"/>
+    </row>
+    <row r="936" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P936" s="14"/>
+    </row>
+    <row r="937" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P937" s="14"/>
+    </row>
+    <row r="938" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P938" s="14"/>
+    </row>
+    <row r="939" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P939" s="14"/>
+    </row>
+    <row r="940" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P940" s="14"/>
+    </row>
+    <row r="941" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P941" s="14"/>
+    </row>
+    <row r="942" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P942" s="14"/>
+    </row>
+    <row r="943" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P943" s="14"/>
+    </row>
+    <row r="944" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P944" s="14"/>
+    </row>
+    <row r="945" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P945" s="14"/>
+    </row>
+    <row r="946" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P946" s="14"/>
+    </row>
+    <row r="947" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P947" s="14"/>
+    </row>
+    <row r="948" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P948" s="14"/>
+    </row>
+    <row r="949" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P949" s="14"/>
+    </row>
+    <row r="950" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P950" s="14"/>
+    </row>
+    <row r="951" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P951" s="14"/>
+    </row>
+    <row r="952" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P952" s="14"/>
+    </row>
+    <row r="953" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P953" s="14"/>
+    </row>
+    <row r="954" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P954" s="14"/>
+    </row>
+    <row r="955" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P955" s="14"/>
+    </row>
+    <row r="956" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P956" s="14"/>
+    </row>
+    <row r="957" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P957" s="14"/>
+    </row>
+    <row r="958" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P958" s="14"/>
+    </row>
+    <row r="959" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P959" s="14"/>
+    </row>
+    <row r="960" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P960" s="14"/>
+    </row>
+    <row r="961" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P961" s="14"/>
+    </row>
+    <row r="962" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P962" s="14"/>
+    </row>
+    <row r="963" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P963" s="14"/>
+    </row>
+    <row r="964" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P964" s="14"/>
+    </row>
+    <row r="965" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P965" s="14"/>
+    </row>
+    <row r="966" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P966" s="14"/>
+    </row>
+    <row r="967" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P967" s="14"/>
+    </row>
+    <row r="968" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P968" s="14"/>
+    </row>
+    <row r="969" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P969" s="14"/>
+    </row>
+    <row r="970" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P970" s="14"/>
+    </row>
+    <row r="971" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P971" s="14"/>
+    </row>
+    <row r="972" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P972" s="14"/>
+    </row>
+    <row r="973" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P973" s="14"/>
+    </row>
+    <row r="974" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P974" s="14"/>
+    </row>
+    <row r="975" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P975" s="14"/>
+    </row>
+    <row r="976" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P976" s="14"/>
+    </row>
+    <row r="977" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P977" s="14"/>
+    </row>
+    <row r="978" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P978" s="14"/>
+    </row>
+    <row r="979" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P979" s="14"/>
+    </row>
+    <row r="980" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P980" s="14"/>
+    </row>
+    <row r="981" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P981" s="14"/>
+    </row>
+    <row r="982" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P982" s="14"/>
+    </row>
+    <row r="983" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P983" s="14"/>
+    </row>
+    <row r="984" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P984" s="14"/>
+    </row>
+    <row r="985" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P985" s="14"/>
+    </row>
+    <row r="986" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P986" s="14"/>
+    </row>
+    <row r="987" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P987" s="14"/>
+    </row>
+    <row r="988" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P988" s="14"/>
+    </row>
+    <row r="989" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P989" s="14"/>
+    </row>
+    <row r="990" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P990" s="14"/>
+    </row>
+    <row r="991" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P991" s="14"/>
+    </row>
+    <row r="992" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P992" s="14"/>
+    </row>
+    <row r="993" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P993" s="14"/>
+    </row>
+    <row r="994" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P994" s="14"/>
+    </row>
+    <row r="995" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P995" s="14"/>
+    </row>
+    <row r="996" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P996" s="14"/>
+    </row>
+    <row r="997" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P997" s="14"/>
+    </row>
+    <row r="998" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P998" s="14"/>
+    </row>
+    <row r="999" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P999" s="14"/>
+    </row>
+    <row r="1000" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1000" s="14"/>
+    </row>
+    <row r="1001" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1001" s="14"/>
+    </row>
+    <row r="1002" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1002" s="14"/>
+    </row>
+    <row r="1003" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1003" s="14"/>
+    </row>
+    <row r="1004" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1004" s="14"/>
+    </row>
+    <row r="1005" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1005" s="14"/>
+    </row>
+    <row r="1006" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1006" s="14"/>
+    </row>
+    <row r="1007" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1007" s="14"/>
+    </row>
+    <row r="1008" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1008" s="14"/>
+    </row>
+    <row r="1009" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1009" s="14"/>
+    </row>
+    <row r="1010" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1010" s="14"/>
+    </row>
+    <row r="1011" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1011" s="14"/>
+    </row>
+    <row r="1012" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1012" s="14"/>
+    </row>
+    <row r="1013" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1013" s="14"/>
+    </row>
+    <row r="1014" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1014" s="14"/>
+    </row>
+    <row r="1015" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1015" s="14"/>
+    </row>
+    <row r="1016" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1016" s="14"/>
+    </row>
+    <row r="1017" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1017" s="14"/>
+    </row>
+    <row r="1018" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1018" s="14"/>
+    </row>
+    <row r="1019" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1019" s="14"/>
+    </row>
+    <row r="1020" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1020" s="14"/>
+    </row>
+    <row r="1021" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1021" s="14"/>
+    </row>
+    <row r="1022" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1022" s="14"/>
+    </row>
+    <row r="1023" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1023" s="14"/>
+    </row>
+    <row r="1024" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1024" s="14"/>
+    </row>
+    <row r="1025" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1025" s="14"/>
+    </row>
+    <row r="1026" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1026" s="14"/>
+    </row>
+    <row r="1027" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1027" s="14"/>
+    </row>
+    <row r="1028" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1028" s="14"/>
+    </row>
+    <row r="1029" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1029" s="14"/>
+    </row>
+    <row r="1030" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1030" s="14"/>
+    </row>
+    <row r="1031" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1031" s="14"/>
+    </row>
+    <row r="1032" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1032" s="14"/>
+    </row>
+    <row r="1033" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1033" s="14"/>
+    </row>
+    <row r="1034" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1034" s="14"/>
+    </row>
+    <row r="1035" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1035" s="14"/>
+    </row>
+    <row r="1036" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1036" s="14"/>
+    </row>
+    <row r="1037" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1037" s="14"/>
+    </row>
+    <row r="1038" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1038" s="14"/>
+    </row>
+    <row r="1039" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1039" s="14"/>
+    </row>
+    <row r="1040" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1040" s="14"/>
+    </row>
+    <row r="1041" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1041" s="14"/>
+    </row>
+    <row r="1042" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1042" s="14"/>
+    </row>
+    <row r="1043" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1043" s="14"/>
+    </row>
+    <row r="1044" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1044" s="14"/>
+    </row>
+    <row r="1045" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1045" s="14"/>
+    </row>
+    <row r="1046" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1046" s="14"/>
+    </row>
+    <row r="1047" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1047" s="14"/>
+    </row>
+    <row r="1048" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1048" s="14"/>
+    </row>
+    <row r="1049" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1049" s="14"/>
+    </row>
+    <row r="1050" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1050" s="14"/>
+    </row>
+    <row r="1051" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1051" s="14"/>
+    </row>
+    <row r="1052" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1052" s="14"/>
+    </row>
+    <row r="1053" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1053" s="14"/>
+    </row>
+    <row r="1054" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1054" s="14"/>
+    </row>
+    <row r="1055" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1055" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -832,24 +4030,3521 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:W1090"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+      <c r="O1" s="16"/>
+      <c r="P1" s="16"/>
+      <c r="Q1" s="16"/>
+      <c r="R1" s="16"/>
+      <c r="S1" s="16"/>
+      <c r="T1" s="16"/>
+      <c r="U1" s="16"/>
+      <c r="V1" s="16"/>
+      <c r="W1" s="16"/>
+    </row>
+    <row r="2" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+    </row>
+    <row r="3" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="10">
+        <f>SUBTOTAL(109,F$6:F$6100)</f>
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <f t="shared" ref="G3:W3" si="0">SUBTOTAL(109,G$6:G$6100)</f>
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I3" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J3" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L3" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M3" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O3" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P3" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q3" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R3" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S3" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T3" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U3" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V3" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W3" s="10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I4" s="5"/>
+      <c r="J4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="T4" s="6"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="W4" s="5"/>
+    </row>
+    <row r="5" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P6" s="14"/>
+    </row>
+    <row r="7" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P7" s="14"/>
+    </row>
+    <row r="8" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P8" s="14"/>
+    </row>
+    <row r="9" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P9" s="14"/>
+    </row>
+    <row r="10" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P10" s="14"/>
+    </row>
+    <row r="11" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P11" s="14"/>
+    </row>
+    <row r="12" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P12" s="14"/>
+    </row>
+    <row r="13" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P13" s="14"/>
+    </row>
+    <row r="14" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P14" s="14"/>
+    </row>
+    <row r="15" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P15" s="14"/>
+    </row>
+    <row r="16" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P16" s="14"/>
+    </row>
+    <row r="17" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P17" s="14"/>
+    </row>
+    <row r="18" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P18" s="14"/>
+    </row>
+    <row r="19" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P19" s="14"/>
+    </row>
+    <row r="20" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P20" s="14"/>
+    </row>
+    <row r="21" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P21" s="14"/>
+    </row>
+    <row r="22" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P22" s="14"/>
+    </row>
+    <row r="23" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P23" s="14"/>
+    </row>
+    <row r="24" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P24" s="14"/>
+    </row>
+    <row r="25" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P25" s="14"/>
+    </row>
+    <row r="26" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P26" s="14"/>
+    </row>
+    <row r="27" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P27" s="14"/>
+    </row>
+    <row r="28" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P28" s="14"/>
+    </row>
+    <row r="29" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P29" s="14"/>
+    </row>
+    <row r="30" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P30" s="14"/>
+    </row>
+    <row r="31" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P31" s="14"/>
+    </row>
+    <row r="32" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P32" s="14"/>
+    </row>
+    <row r="33" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P33" s="14"/>
+    </row>
+    <row r="34" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P34" s="14"/>
+    </row>
+    <row r="35" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P35" s="14"/>
+    </row>
+    <row r="36" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P36" s="14"/>
+    </row>
+    <row r="37" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P37" s="14"/>
+    </row>
+    <row r="38" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P38" s="14"/>
+    </row>
+    <row r="39" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P39" s="14"/>
+    </row>
+    <row r="40" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P40" s="14"/>
+    </row>
+    <row r="41" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P41" s="14"/>
+    </row>
+    <row r="42" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P42" s="14"/>
+    </row>
+    <row r="43" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P43" s="14"/>
+    </row>
+    <row r="44" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P44" s="14"/>
+    </row>
+    <row r="45" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P45" s="14"/>
+    </row>
+    <row r="46" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P46" s="14"/>
+    </row>
+    <row r="47" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P47" s="14"/>
+    </row>
+    <row r="48" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P48" s="14"/>
+    </row>
+    <row r="49" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P49" s="14"/>
+    </row>
+    <row r="50" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P50" s="14"/>
+    </row>
+    <row r="51" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P51" s="14"/>
+    </row>
+    <row r="52" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P52" s="14"/>
+    </row>
+    <row r="53" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P53" s="14"/>
+    </row>
+    <row r="54" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P54" s="14"/>
+    </row>
+    <row r="55" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P55" s="14"/>
+    </row>
+    <row r="56" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P56" s="14"/>
+    </row>
+    <row r="57" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P57" s="14"/>
+    </row>
+    <row r="58" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P58" s="14"/>
+    </row>
+    <row r="59" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P59" s="14"/>
+    </row>
+    <row r="60" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P60" s="14"/>
+    </row>
+    <row r="61" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P61" s="14"/>
+    </row>
+    <row r="62" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P62" s="14"/>
+    </row>
+    <row r="63" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P63" s="14"/>
+    </row>
+    <row r="64" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P64" s="14"/>
+    </row>
+    <row r="65" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P65" s="14"/>
+    </row>
+    <row r="66" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P66" s="14"/>
+    </row>
+    <row r="67" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P67" s="14"/>
+    </row>
+    <row r="68" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P68" s="14"/>
+    </row>
+    <row r="69" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P69" s="14"/>
+    </row>
+    <row r="70" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P70" s="14"/>
+    </row>
+    <row r="71" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P71" s="14"/>
+    </row>
+    <row r="72" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P72" s="14"/>
+    </row>
+    <row r="73" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P73" s="14"/>
+    </row>
+    <row r="74" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P74" s="14"/>
+    </row>
+    <row r="75" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P75" s="14"/>
+    </row>
+    <row r="76" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P76" s="14"/>
+    </row>
+    <row r="77" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P77" s="14"/>
+    </row>
+    <row r="78" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P78" s="14"/>
+    </row>
+    <row r="79" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P79" s="14"/>
+    </row>
+    <row r="80" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P80" s="14"/>
+    </row>
+    <row r="81" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P81" s="14"/>
+    </row>
+    <row r="82" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P82" s="14"/>
+    </row>
+    <row r="83" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P83" s="14"/>
+    </row>
+    <row r="84" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P84" s="14"/>
+    </row>
+    <row r="85" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P85" s="14"/>
+    </row>
+    <row r="86" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P86" s="14"/>
+    </row>
+    <row r="87" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P87" s="14"/>
+    </row>
+    <row r="88" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P88" s="14"/>
+    </row>
+    <row r="89" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P89" s="14"/>
+    </row>
+    <row r="90" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P90" s="14"/>
+    </row>
+    <row r="91" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P91" s="14"/>
+    </row>
+    <row r="92" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P92" s="14"/>
+    </row>
+    <row r="93" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P93" s="14"/>
+    </row>
+    <row r="94" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P94" s="14"/>
+    </row>
+    <row r="95" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P95" s="14"/>
+    </row>
+    <row r="96" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P96" s="14"/>
+    </row>
+    <row r="97" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P97" s="14"/>
+    </row>
+    <row r="98" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P98" s="14"/>
+    </row>
+    <row r="99" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P99" s="14"/>
+    </row>
+    <row r="100" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P100" s="14"/>
+    </row>
+    <row r="101" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P101" s="14"/>
+    </row>
+    <row r="102" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P102" s="14"/>
+    </row>
+    <row r="103" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P103" s="14"/>
+    </row>
+    <row r="104" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P104" s="14"/>
+    </row>
+    <row r="105" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P105" s="14"/>
+    </row>
+    <row r="106" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P106" s="14"/>
+    </row>
+    <row r="107" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P107" s="14"/>
+    </row>
+    <row r="108" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P108" s="14"/>
+    </row>
+    <row r="109" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P109" s="14"/>
+    </row>
+    <row r="110" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P110" s="14"/>
+    </row>
+    <row r="111" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P111" s="14"/>
+    </row>
+    <row r="112" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P112" s="14"/>
+    </row>
+    <row r="113" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P113" s="14"/>
+    </row>
+    <row r="114" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P114" s="14"/>
+    </row>
+    <row r="115" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P115" s="14"/>
+    </row>
+    <row r="116" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P116" s="14"/>
+    </row>
+    <row r="117" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P117" s="14"/>
+    </row>
+    <row r="118" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P118" s="14"/>
+    </row>
+    <row r="119" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P119" s="14"/>
+    </row>
+    <row r="120" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P120" s="14"/>
+    </row>
+    <row r="121" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P121" s="14"/>
+    </row>
+    <row r="122" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P122" s="14"/>
+    </row>
+    <row r="123" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P123" s="14"/>
+    </row>
+    <row r="124" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P124" s="14"/>
+    </row>
+    <row r="125" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P125" s="14"/>
+    </row>
+    <row r="126" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P126" s="14"/>
+    </row>
+    <row r="127" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P127" s="14"/>
+    </row>
+    <row r="128" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P128" s="14"/>
+    </row>
+    <row r="129" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P129" s="14"/>
+    </row>
+    <row r="130" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P130" s="14"/>
+    </row>
+    <row r="131" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P131" s="14"/>
+    </row>
+    <row r="132" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P132" s="14"/>
+    </row>
+    <row r="133" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P133" s="14"/>
+    </row>
+    <row r="134" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P134" s="14"/>
+    </row>
+    <row r="135" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P135" s="14"/>
+    </row>
+    <row r="136" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P136" s="14"/>
+    </row>
+    <row r="137" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P137" s="14"/>
+    </row>
+    <row r="138" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P138" s="14"/>
+    </row>
+    <row r="139" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P139" s="14"/>
+    </row>
+    <row r="140" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P140" s="14"/>
+    </row>
+    <row r="141" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P141" s="14"/>
+    </row>
+    <row r="142" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P142" s="14"/>
+    </row>
+    <row r="143" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P143" s="14"/>
+    </row>
+    <row r="144" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P144" s="14"/>
+    </row>
+    <row r="145" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P145" s="14"/>
+    </row>
+    <row r="146" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P146" s="14"/>
+    </row>
+    <row r="147" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P147" s="14"/>
+    </row>
+    <row r="148" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P148" s="14"/>
+    </row>
+    <row r="149" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P149" s="14"/>
+    </row>
+    <row r="150" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P150" s="14"/>
+    </row>
+    <row r="151" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P151" s="14"/>
+    </row>
+    <row r="152" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P152" s="14"/>
+    </row>
+    <row r="153" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P153" s="14"/>
+    </row>
+    <row r="154" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P154" s="14"/>
+    </row>
+    <row r="155" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P155" s="14"/>
+    </row>
+    <row r="156" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P156" s="14"/>
+    </row>
+    <row r="157" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P157" s="14"/>
+    </row>
+    <row r="158" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P158" s="14"/>
+    </row>
+    <row r="159" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P159" s="14"/>
+    </row>
+    <row r="160" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P160" s="14"/>
+    </row>
+    <row r="161" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P161" s="14"/>
+    </row>
+    <row r="162" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P162" s="14"/>
+    </row>
+    <row r="163" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P163" s="14"/>
+    </row>
+    <row r="164" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P164" s="14"/>
+    </row>
+    <row r="165" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P165" s="14"/>
+    </row>
+    <row r="166" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P166" s="14"/>
+    </row>
+    <row r="167" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P167" s="14"/>
+    </row>
+    <row r="168" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P168" s="14"/>
+    </row>
+    <row r="169" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P169" s="14"/>
+    </row>
+    <row r="170" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P170" s="14"/>
+    </row>
+    <row r="171" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P171" s="14"/>
+    </row>
+    <row r="172" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P172" s="14"/>
+    </row>
+    <row r="173" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P173" s="14"/>
+    </row>
+    <row r="174" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P174" s="14"/>
+    </row>
+    <row r="175" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P175" s="14"/>
+    </row>
+    <row r="176" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P176" s="14"/>
+    </row>
+    <row r="177" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P177" s="14"/>
+    </row>
+    <row r="178" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P178" s="14"/>
+    </row>
+    <row r="179" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P179" s="14"/>
+    </row>
+    <row r="180" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P180" s="14"/>
+    </row>
+    <row r="181" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P181" s="14"/>
+    </row>
+    <row r="182" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P182" s="14"/>
+    </row>
+    <row r="183" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P183" s="14"/>
+    </row>
+    <row r="184" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P184" s="14"/>
+    </row>
+    <row r="185" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P185" s="14"/>
+    </row>
+    <row r="186" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P186" s="14"/>
+    </row>
+    <row r="187" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P187" s="14"/>
+    </row>
+    <row r="188" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P188" s="14"/>
+    </row>
+    <row r="189" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P189" s="14"/>
+    </row>
+    <row r="190" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P190" s="14"/>
+    </row>
+    <row r="191" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P191" s="14"/>
+    </row>
+    <row r="192" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P192" s="14"/>
+    </row>
+    <row r="193" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P193" s="14"/>
+    </row>
+    <row r="194" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P194" s="14"/>
+    </row>
+    <row r="195" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P195" s="14"/>
+    </row>
+    <row r="196" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P196" s="14"/>
+    </row>
+    <row r="197" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P197" s="14"/>
+    </row>
+    <row r="198" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P198" s="14"/>
+    </row>
+    <row r="199" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P199" s="14"/>
+    </row>
+    <row r="200" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P200" s="14"/>
+    </row>
+    <row r="201" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P201" s="14"/>
+    </row>
+    <row r="202" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P202" s="14"/>
+    </row>
+    <row r="203" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P203" s="14"/>
+    </row>
+    <row r="204" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P204" s="14"/>
+    </row>
+    <row r="205" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P205" s="14"/>
+    </row>
+    <row r="206" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P206" s="14"/>
+    </row>
+    <row r="207" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P207" s="14"/>
+    </row>
+    <row r="208" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P208" s="14"/>
+    </row>
+    <row r="209" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P209" s="14"/>
+    </row>
+    <row r="210" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P210" s="14"/>
+    </row>
+    <row r="211" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P211" s="14"/>
+    </row>
+    <row r="212" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P212" s="14"/>
+    </row>
+    <row r="213" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P213" s="14"/>
+    </row>
+    <row r="214" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P214" s="14"/>
+    </row>
+    <row r="215" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P215" s="14"/>
+    </row>
+    <row r="216" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P216" s="14"/>
+    </row>
+    <row r="217" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P217" s="14"/>
+    </row>
+    <row r="218" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P218" s="14"/>
+    </row>
+    <row r="219" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P219" s="14"/>
+    </row>
+    <row r="220" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P220" s="14"/>
+    </row>
+    <row r="221" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P221" s="14"/>
+    </row>
+    <row r="222" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P222" s="14"/>
+    </row>
+    <row r="223" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P223" s="14"/>
+    </row>
+    <row r="224" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P224" s="14"/>
+    </row>
+    <row r="225" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P225" s="14"/>
+    </row>
+    <row r="226" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P226" s="14"/>
+    </row>
+    <row r="227" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P227" s="14"/>
+    </row>
+    <row r="228" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P228" s="14"/>
+    </row>
+    <row r="229" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P229" s="14"/>
+    </row>
+    <row r="230" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P230" s="14"/>
+    </row>
+    <row r="231" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P231" s="14"/>
+    </row>
+    <row r="232" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P232" s="14"/>
+    </row>
+    <row r="233" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P233" s="14"/>
+    </row>
+    <row r="234" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P234" s="14"/>
+    </row>
+    <row r="235" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P235" s="14"/>
+    </row>
+    <row r="236" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P236" s="14"/>
+    </row>
+    <row r="237" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P237" s="14"/>
+    </row>
+    <row r="238" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P238" s="14"/>
+    </row>
+    <row r="239" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P239" s="14"/>
+    </row>
+    <row r="240" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P240" s="14"/>
+    </row>
+    <row r="241" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P241" s="14"/>
+    </row>
+    <row r="242" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P242" s="14"/>
+    </row>
+    <row r="243" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P243" s="14"/>
+    </row>
+    <row r="244" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P244" s="14"/>
+    </row>
+    <row r="245" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P245" s="14"/>
+    </row>
+    <row r="246" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P246" s="14"/>
+    </row>
+    <row r="247" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P247" s="14"/>
+    </row>
+    <row r="248" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P248" s="14"/>
+    </row>
+    <row r="249" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P249" s="14"/>
+    </row>
+    <row r="250" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P250" s="14"/>
+    </row>
+    <row r="251" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P251" s="14"/>
+    </row>
+    <row r="252" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P252" s="14"/>
+    </row>
+    <row r="253" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P253" s="14"/>
+    </row>
+    <row r="254" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P254" s="14"/>
+    </row>
+    <row r="255" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P255" s="14"/>
+    </row>
+    <row r="256" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P256" s="14"/>
+    </row>
+    <row r="257" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P257" s="14"/>
+    </row>
+    <row r="258" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P258" s="14"/>
+    </row>
+    <row r="259" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P259" s="14"/>
+    </row>
+    <row r="260" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P260" s="14"/>
+    </row>
+    <row r="261" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P261" s="14"/>
+    </row>
+    <row r="262" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P262" s="14"/>
+    </row>
+    <row r="263" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P263" s="14"/>
+    </row>
+    <row r="264" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P264" s="14"/>
+    </row>
+    <row r="265" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P265" s="14"/>
+    </row>
+    <row r="266" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P266" s="14"/>
+    </row>
+    <row r="267" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P267" s="14"/>
+    </row>
+    <row r="268" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P268" s="14"/>
+    </row>
+    <row r="269" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P269" s="14"/>
+    </row>
+    <row r="270" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P270" s="14"/>
+    </row>
+    <row r="271" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P271" s="14"/>
+    </row>
+    <row r="272" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P272" s="14"/>
+    </row>
+    <row r="273" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P273" s="14"/>
+    </row>
+    <row r="274" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P274" s="14"/>
+    </row>
+    <row r="275" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P275" s="14"/>
+    </row>
+    <row r="276" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P276" s="14"/>
+    </row>
+    <row r="277" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P277" s="14"/>
+    </row>
+    <row r="278" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P278" s="14"/>
+    </row>
+    <row r="279" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P279" s="14"/>
+    </row>
+    <row r="280" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P280" s="14"/>
+    </row>
+    <row r="281" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P281" s="14"/>
+    </row>
+    <row r="282" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P282" s="14"/>
+    </row>
+    <row r="283" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P283" s="14"/>
+    </row>
+    <row r="284" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P284" s="14"/>
+    </row>
+    <row r="285" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P285" s="14"/>
+    </row>
+    <row r="286" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P286" s="14"/>
+    </row>
+    <row r="287" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P287" s="14"/>
+    </row>
+    <row r="288" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P288" s="14"/>
+    </row>
+    <row r="289" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P289" s="14"/>
+    </row>
+    <row r="290" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P290" s="14"/>
+    </row>
+    <row r="291" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P291" s="14"/>
+    </row>
+    <row r="292" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P292" s="14"/>
+    </row>
+    <row r="293" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P293" s="14"/>
+    </row>
+    <row r="294" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P294" s="14"/>
+    </row>
+    <row r="295" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P295" s="14"/>
+    </row>
+    <row r="296" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P296" s="14"/>
+    </row>
+    <row r="297" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P297" s="14"/>
+    </row>
+    <row r="298" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P298" s="14"/>
+    </row>
+    <row r="299" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P299" s="14"/>
+    </row>
+    <row r="300" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P300" s="14"/>
+    </row>
+    <row r="301" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P301" s="14"/>
+    </row>
+    <row r="302" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P302" s="14"/>
+    </row>
+    <row r="303" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P303" s="14"/>
+    </row>
+    <row r="304" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P304" s="14"/>
+    </row>
+    <row r="305" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P305" s="14"/>
+    </row>
+    <row r="306" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P306" s="14"/>
+    </row>
+    <row r="307" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P307" s="14"/>
+    </row>
+    <row r="308" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P308" s="14"/>
+    </row>
+    <row r="309" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P309" s="14"/>
+    </row>
+    <row r="310" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P310" s="14"/>
+    </row>
+    <row r="311" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P311" s="14"/>
+    </row>
+    <row r="312" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P312" s="14"/>
+    </row>
+    <row r="313" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P313" s="14"/>
+    </row>
+    <row r="314" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P314" s="14"/>
+    </row>
+    <row r="315" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P315" s="14"/>
+    </row>
+    <row r="316" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P316" s="14"/>
+    </row>
+    <row r="317" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P317" s="14"/>
+    </row>
+    <row r="318" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P318" s="14"/>
+    </row>
+    <row r="319" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P319" s="14"/>
+    </row>
+    <row r="320" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P320" s="14"/>
+    </row>
+    <row r="321" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P321" s="14"/>
+    </row>
+    <row r="322" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P322" s="14"/>
+    </row>
+    <row r="323" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P323" s="14"/>
+    </row>
+    <row r="324" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P324" s="14"/>
+    </row>
+    <row r="325" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P325" s="14"/>
+    </row>
+    <row r="326" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P326" s="14"/>
+    </row>
+    <row r="327" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P327" s="14"/>
+    </row>
+    <row r="328" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P328" s="14"/>
+    </row>
+    <row r="329" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P329" s="14"/>
+    </row>
+    <row r="330" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P330" s="14"/>
+    </row>
+    <row r="331" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P331" s="14"/>
+    </row>
+    <row r="332" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P332" s="14"/>
+    </row>
+    <row r="333" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P333" s="14"/>
+    </row>
+    <row r="334" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P334" s="14"/>
+    </row>
+    <row r="335" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P335" s="14"/>
+    </row>
+    <row r="336" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P336" s="14"/>
+    </row>
+    <row r="337" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P337" s="14"/>
+    </row>
+    <row r="338" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P338" s="14"/>
+    </row>
+    <row r="339" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P339" s="14"/>
+    </row>
+    <row r="340" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P340" s="14"/>
+    </row>
+    <row r="341" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P341" s="14"/>
+    </row>
+    <row r="342" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P342" s="14"/>
+    </row>
+    <row r="343" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P343" s="14"/>
+    </row>
+    <row r="344" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P344" s="14"/>
+    </row>
+    <row r="345" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P345" s="14"/>
+    </row>
+    <row r="346" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P346" s="14"/>
+    </row>
+    <row r="347" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P347" s="14"/>
+    </row>
+    <row r="348" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P348" s="14"/>
+    </row>
+    <row r="349" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P349" s="14"/>
+    </row>
+    <row r="350" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P350" s="14"/>
+    </row>
+    <row r="351" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P351" s="14"/>
+    </row>
+    <row r="352" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P352" s="14"/>
+    </row>
+    <row r="353" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P353" s="14"/>
+    </row>
+    <row r="354" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P354" s="14"/>
+    </row>
+    <row r="355" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P355" s="14"/>
+    </row>
+    <row r="356" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P356" s="14"/>
+    </row>
+    <row r="357" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P357" s="14"/>
+    </row>
+    <row r="358" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P358" s="14"/>
+    </row>
+    <row r="359" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P359" s="14"/>
+    </row>
+    <row r="360" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P360" s="14"/>
+    </row>
+    <row r="361" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P361" s="14"/>
+    </row>
+    <row r="362" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P362" s="14"/>
+    </row>
+    <row r="363" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P363" s="14"/>
+    </row>
+    <row r="364" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P364" s="14"/>
+    </row>
+    <row r="365" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P365" s="14"/>
+    </row>
+    <row r="366" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P366" s="14"/>
+    </row>
+    <row r="367" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P367" s="14"/>
+    </row>
+    <row r="368" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P368" s="14"/>
+    </row>
+    <row r="369" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P369" s="14"/>
+    </row>
+    <row r="370" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P370" s="14"/>
+    </row>
+    <row r="371" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P371" s="14"/>
+    </row>
+    <row r="372" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P372" s="14"/>
+    </row>
+    <row r="373" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P373" s="14"/>
+    </row>
+    <row r="374" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P374" s="14"/>
+    </row>
+    <row r="375" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P375" s="14"/>
+    </row>
+    <row r="376" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P376" s="14"/>
+    </row>
+    <row r="377" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P377" s="14"/>
+    </row>
+    <row r="378" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P378" s="14"/>
+    </row>
+    <row r="379" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P379" s="14"/>
+    </row>
+    <row r="380" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P380" s="14"/>
+    </row>
+    <row r="381" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P381" s="14"/>
+    </row>
+    <row r="382" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P382" s="14"/>
+    </row>
+    <row r="383" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P383" s="14"/>
+    </row>
+    <row r="384" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P384" s="14"/>
+    </row>
+    <row r="385" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P385" s="14"/>
+    </row>
+    <row r="386" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P386" s="14"/>
+    </row>
+    <row r="387" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P387" s="14"/>
+    </row>
+    <row r="388" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P388" s="14"/>
+    </row>
+    <row r="389" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P389" s="14"/>
+    </row>
+    <row r="390" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P390" s="14"/>
+    </row>
+    <row r="391" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P391" s="14"/>
+    </row>
+    <row r="392" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P392" s="14"/>
+    </row>
+    <row r="393" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P393" s="14"/>
+    </row>
+    <row r="394" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P394" s="14"/>
+    </row>
+    <row r="395" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P395" s="14"/>
+    </row>
+    <row r="396" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P396" s="14"/>
+    </row>
+    <row r="397" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P397" s="14"/>
+    </row>
+    <row r="398" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P398" s="14"/>
+    </row>
+    <row r="399" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P399" s="14"/>
+    </row>
+    <row r="400" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P400" s="14"/>
+    </row>
+    <row r="401" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P401" s="14"/>
+    </row>
+    <row r="402" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P402" s="14"/>
+    </row>
+    <row r="403" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P403" s="14"/>
+    </row>
+    <row r="404" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P404" s="14"/>
+    </row>
+    <row r="405" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P405" s="14"/>
+    </row>
+    <row r="406" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P406" s="14"/>
+    </row>
+    <row r="407" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P407" s="14"/>
+    </row>
+    <row r="408" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P408" s="14"/>
+    </row>
+    <row r="409" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P409" s="14"/>
+    </row>
+    <row r="410" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P410" s="14"/>
+    </row>
+    <row r="411" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P411" s="14"/>
+    </row>
+    <row r="412" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P412" s="14"/>
+    </row>
+    <row r="413" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P413" s="14"/>
+    </row>
+    <row r="414" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P414" s="14"/>
+    </row>
+    <row r="415" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P415" s="14"/>
+    </row>
+    <row r="416" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P416" s="14"/>
+    </row>
+    <row r="417" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P417" s="14"/>
+    </row>
+    <row r="418" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P418" s="14"/>
+    </row>
+    <row r="419" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P419" s="14"/>
+    </row>
+    <row r="420" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P420" s="14"/>
+    </row>
+    <row r="421" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P421" s="14"/>
+    </row>
+    <row r="422" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P422" s="14"/>
+    </row>
+    <row r="423" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P423" s="14"/>
+    </row>
+    <row r="424" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P424" s="14"/>
+    </row>
+    <row r="425" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P425" s="14"/>
+    </row>
+    <row r="426" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P426" s="14"/>
+    </row>
+    <row r="427" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P427" s="14"/>
+    </row>
+    <row r="428" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P428" s="14"/>
+    </row>
+    <row r="429" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P429" s="14"/>
+    </row>
+    <row r="430" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P430" s="14"/>
+    </row>
+    <row r="431" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P431" s="14"/>
+    </row>
+    <row r="432" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P432" s="14"/>
+    </row>
+    <row r="433" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P433" s="14"/>
+    </row>
+    <row r="434" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P434" s="14"/>
+    </row>
+    <row r="435" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P435" s="14"/>
+    </row>
+    <row r="436" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P436" s="14"/>
+    </row>
+    <row r="437" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P437" s="14"/>
+    </row>
+    <row r="438" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P438" s="14"/>
+    </row>
+    <row r="439" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P439" s="14"/>
+    </row>
+    <row r="440" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P440" s="14"/>
+    </row>
+    <row r="441" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P441" s="14"/>
+    </row>
+    <row r="442" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P442" s="14"/>
+    </row>
+    <row r="443" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P443" s="14"/>
+    </row>
+    <row r="444" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P444" s="14"/>
+    </row>
+    <row r="445" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P445" s="14"/>
+    </row>
+    <row r="446" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P446" s="14"/>
+    </row>
+    <row r="447" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P447" s="14"/>
+    </row>
+    <row r="448" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P448" s="14"/>
+    </row>
+    <row r="449" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P449" s="14"/>
+    </row>
+    <row r="450" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P450" s="14"/>
+    </row>
+    <row r="451" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P451" s="14"/>
+    </row>
+    <row r="452" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P452" s="14"/>
+    </row>
+    <row r="453" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P453" s="14"/>
+    </row>
+    <row r="454" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P454" s="14"/>
+    </row>
+    <row r="455" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P455" s="14"/>
+    </row>
+    <row r="456" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P456" s="14"/>
+    </row>
+    <row r="457" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P457" s="14"/>
+    </row>
+    <row r="458" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P458" s="14"/>
+    </row>
+    <row r="459" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P459" s="14"/>
+    </row>
+    <row r="460" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P460" s="14"/>
+    </row>
+    <row r="461" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P461" s="14"/>
+    </row>
+    <row r="462" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P462" s="14"/>
+    </row>
+    <row r="463" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P463" s="14"/>
+    </row>
+    <row r="464" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P464" s="14"/>
+    </row>
+    <row r="465" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P465" s="14"/>
+    </row>
+    <row r="466" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P466" s="14"/>
+    </row>
+    <row r="467" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P467" s="14"/>
+    </row>
+    <row r="468" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P468" s="14"/>
+    </row>
+    <row r="469" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P469" s="14"/>
+    </row>
+    <row r="470" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P470" s="14"/>
+    </row>
+    <row r="471" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P471" s="14"/>
+    </row>
+    <row r="472" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P472" s="14"/>
+    </row>
+    <row r="473" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P473" s="14"/>
+    </row>
+    <row r="474" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P474" s="14"/>
+    </row>
+    <row r="475" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P475" s="14"/>
+    </row>
+    <row r="476" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P476" s="14"/>
+    </row>
+    <row r="477" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P477" s="14"/>
+    </row>
+    <row r="478" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P478" s="14"/>
+    </row>
+    <row r="479" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P479" s="14"/>
+    </row>
+    <row r="480" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P480" s="14"/>
+    </row>
+    <row r="481" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P481" s="14"/>
+    </row>
+    <row r="482" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P482" s="14"/>
+    </row>
+    <row r="483" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P483" s="14"/>
+    </row>
+    <row r="484" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P484" s="14"/>
+    </row>
+    <row r="485" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P485" s="14"/>
+    </row>
+    <row r="486" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P486" s="14"/>
+    </row>
+    <row r="487" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P487" s="14"/>
+    </row>
+    <row r="488" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P488" s="14"/>
+    </row>
+    <row r="489" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P489" s="14"/>
+    </row>
+    <row r="490" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P490" s="14"/>
+    </row>
+    <row r="491" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P491" s="14"/>
+    </row>
+    <row r="492" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P492" s="14"/>
+    </row>
+    <row r="493" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P493" s="14"/>
+    </row>
+    <row r="494" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P494" s="14"/>
+    </row>
+    <row r="495" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P495" s="14"/>
+    </row>
+    <row r="496" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P496" s="14"/>
+    </row>
+    <row r="497" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P497" s="14"/>
+    </row>
+    <row r="498" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P498" s="14"/>
+    </row>
+    <row r="499" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P499" s="14"/>
+    </row>
+    <row r="500" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P500" s="14"/>
+    </row>
+    <row r="501" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P501" s="14"/>
+    </row>
+    <row r="502" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P502" s="14"/>
+    </row>
+    <row r="503" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P503" s="14"/>
+    </row>
+    <row r="504" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P504" s="14"/>
+    </row>
+    <row r="505" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P505" s="14"/>
+    </row>
+    <row r="506" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P506" s="14"/>
+    </row>
+    <row r="507" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P507" s="14"/>
+    </row>
+    <row r="508" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P508" s="14"/>
+    </row>
+    <row r="509" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P509" s="14"/>
+    </row>
+    <row r="510" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P510" s="14"/>
+    </row>
+    <row r="511" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P511" s="14"/>
+    </row>
+    <row r="512" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P512" s="14"/>
+    </row>
+    <row r="513" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P513" s="14"/>
+    </row>
+    <row r="514" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P514" s="14"/>
+    </row>
+    <row r="515" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P515" s="14"/>
+    </row>
+    <row r="516" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P516" s="14"/>
+    </row>
+    <row r="517" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P517" s="14"/>
+    </row>
+    <row r="518" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P518" s="14"/>
+    </row>
+    <row r="519" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P519" s="14"/>
+    </row>
+    <row r="520" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P520" s="14"/>
+    </row>
+    <row r="521" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P521" s="14"/>
+    </row>
+    <row r="522" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P522" s="14"/>
+    </row>
+    <row r="523" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P523" s="14"/>
+    </row>
+    <row r="524" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P524" s="14"/>
+    </row>
+    <row r="525" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P525" s="14"/>
+    </row>
+    <row r="526" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P526" s="14"/>
+    </row>
+    <row r="527" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P527" s="14"/>
+    </row>
+    <row r="528" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P528" s="14"/>
+    </row>
+    <row r="529" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P529" s="14"/>
+    </row>
+    <row r="530" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P530" s="14"/>
+    </row>
+    <row r="531" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P531" s="14"/>
+    </row>
+    <row r="532" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P532" s="14"/>
+    </row>
+    <row r="533" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P533" s="14"/>
+    </row>
+    <row r="534" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P534" s="14"/>
+    </row>
+    <row r="535" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P535" s="14"/>
+    </row>
+    <row r="536" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P536" s="14"/>
+    </row>
+    <row r="537" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P537" s="14"/>
+    </row>
+    <row r="538" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P538" s="14"/>
+    </row>
+    <row r="539" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P539" s="14"/>
+    </row>
+    <row r="540" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P540" s="14"/>
+    </row>
+    <row r="541" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P541" s="14"/>
+    </row>
+    <row r="542" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P542" s="14"/>
+    </row>
+    <row r="543" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P543" s="14"/>
+    </row>
+    <row r="544" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P544" s="14"/>
+    </row>
+    <row r="545" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P545" s="14"/>
+    </row>
+    <row r="546" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P546" s="14"/>
+    </row>
+    <row r="547" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P547" s="14"/>
+    </row>
+    <row r="548" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P548" s="14"/>
+    </row>
+    <row r="549" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P549" s="14"/>
+    </row>
+    <row r="550" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P550" s="14"/>
+    </row>
+    <row r="551" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P551" s="14"/>
+    </row>
+    <row r="552" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P552" s="14"/>
+    </row>
+    <row r="553" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P553" s="14"/>
+    </row>
+    <row r="554" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P554" s="14"/>
+    </row>
+    <row r="555" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P555" s="14"/>
+    </row>
+    <row r="556" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P556" s="14"/>
+    </row>
+    <row r="557" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P557" s="14"/>
+    </row>
+    <row r="558" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P558" s="14"/>
+    </row>
+    <row r="559" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P559" s="14"/>
+    </row>
+    <row r="560" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P560" s="14"/>
+    </row>
+    <row r="561" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P561" s="14"/>
+    </row>
+    <row r="562" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P562" s="14"/>
+    </row>
+    <row r="563" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P563" s="14"/>
+    </row>
+    <row r="564" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P564" s="14"/>
+    </row>
+    <row r="565" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P565" s="14"/>
+    </row>
+    <row r="566" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P566" s="14"/>
+    </row>
+    <row r="567" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P567" s="14"/>
+    </row>
+    <row r="568" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P568" s="14"/>
+    </row>
+    <row r="569" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P569" s="14"/>
+    </row>
+    <row r="570" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P570" s="14"/>
+    </row>
+    <row r="571" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P571" s="14"/>
+    </row>
+    <row r="572" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P572" s="14"/>
+    </row>
+    <row r="573" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P573" s="14"/>
+    </row>
+    <row r="574" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P574" s="14"/>
+    </row>
+    <row r="575" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P575" s="14"/>
+    </row>
+    <row r="576" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P576" s="14"/>
+    </row>
+    <row r="577" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P577" s="14"/>
+    </row>
+    <row r="578" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P578" s="14"/>
+    </row>
+    <row r="579" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P579" s="14"/>
+    </row>
+    <row r="580" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P580" s="14"/>
+    </row>
+    <row r="581" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P581" s="14"/>
+    </row>
+    <row r="582" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P582" s="14"/>
+    </row>
+    <row r="583" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P583" s="14"/>
+    </row>
+    <row r="584" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P584" s="14"/>
+    </row>
+    <row r="585" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P585" s="14"/>
+    </row>
+    <row r="586" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P586" s="14"/>
+    </row>
+    <row r="587" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P587" s="14"/>
+    </row>
+    <row r="588" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P588" s="14"/>
+    </row>
+    <row r="589" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P589" s="14"/>
+    </row>
+    <row r="590" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P590" s="14"/>
+    </row>
+    <row r="591" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P591" s="14"/>
+    </row>
+    <row r="592" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P592" s="14"/>
+    </row>
+    <row r="593" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P593" s="14"/>
+    </row>
+    <row r="594" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P594" s="14"/>
+    </row>
+    <row r="595" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P595" s="14"/>
+    </row>
+    <row r="596" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P596" s="14"/>
+    </row>
+    <row r="597" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P597" s="14"/>
+    </row>
+    <row r="598" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P598" s="14"/>
+    </row>
+    <row r="599" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P599" s="14"/>
+    </row>
+    <row r="600" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P600" s="14"/>
+    </row>
+    <row r="601" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P601" s="14"/>
+    </row>
+    <row r="602" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P602" s="14"/>
+    </row>
+    <row r="603" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P603" s="14"/>
+    </row>
+    <row r="604" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P604" s="14"/>
+    </row>
+    <row r="605" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P605" s="14"/>
+    </row>
+    <row r="606" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P606" s="14"/>
+    </row>
+    <row r="607" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P607" s="14"/>
+    </row>
+    <row r="608" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P608" s="14"/>
+    </row>
+    <row r="609" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P609" s="14"/>
+    </row>
+    <row r="610" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P610" s="14"/>
+    </row>
+    <row r="611" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P611" s="14"/>
+    </row>
+    <row r="612" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P612" s="14"/>
+    </row>
+    <row r="613" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P613" s="14"/>
+    </row>
+    <row r="614" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P614" s="14"/>
+    </row>
+    <row r="615" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P615" s="14"/>
+    </row>
+    <row r="616" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P616" s="14"/>
+    </row>
+    <row r="617" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P617" s="14"/>
+    </row>
+    <row r="618" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P618" s="14"/>
+    </row>
+    <row r="619" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P619" s="14"/>
+    </row>
+    <row r="620" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P620" s="14"/>
+    </row>
+    <row r="621" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P621" s="14"/>
+    </row>
+    <row r="622" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P622" s="14"/>
+    </row>
+    <row r="623" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P623" s="14"/>
+    </row>
+    <row r="624" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P624" s="14"/>
+    </row>
+    <row r="625" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P625" s="14"/>
+    </row>
+    <row r="626" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P626" s="14"/>
+    </row>
+    <row r="627" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P627" s="14"/>
+    </row>
+    <row r="628" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P628" s="14"/>
+    </row>
+    <row r="629" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P629" s="14"/>
+    </row>
+    <row r="630" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P630" s="14"/>
+    </row>
+    <row r="631" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P631" s="14"/>
+    </row>
+    <row r="632" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P632" s="14"/>
+    </row>
+    <row r="633" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P633" s="14"/>
+    </row>
+    <row r="634" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P634" s="14"/>
+    </row>
+    <row r="635" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P635" s="14"/>
+    </row>
+    <row r="636" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P636" s="14"/>
+    </row>
+    <row r="637" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P637" s="14"/>
+    </row>
+    <row r="638" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P638" s="14"/>
+    </row>
+    <row r="639" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P639" s="14"/>
+    </row>
+    <row r="640" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P640" s="14"/>
+    </row>
+    <row r="641" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P641" s="14"/>
+    </row>
+    <row r="642" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P642" s="14"/>
+    </row>
+    <row r="643" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P643" s="14"/>
+    </row>
+    <row r="644" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P644" s="14"/>
+    </row>
+    <row r="645" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P645" s="14"/>
+    </row>
+    <row r="646" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P646" s="14"/>
+    </row>
+    <row r="647" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P647" s="14"/>
+    </row>
+    <row r="648" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P648" s="14"/>
+    </row>
+    <row r="649" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P649" s="14"/>
+    </row>
+    <row r="650" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P650" s="14"/>
+    </row>
+    <row r="651" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P651" s="14"/>
+    </row>
+    <row r="652" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P652" s="14"/>
+    </row>
+    <row r="653" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P653" s="14"/>
+    </row>
+    <row r="654" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P654" s="14"/>
+    </row>
+    <row r="655" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P655" s="14"/>
+    </row>
+    <row r="656" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P656" s="14"/>
+    </row>
+    <row r="657" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P657" s="14"/>
+    </row>
+    <row r="658" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P658" s="14"/>
+    </row>
+    <row r="659" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P659" s="14"/>
+    </row>
+    <row r="660" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P660" s="14"/>
+    </row>
+    <row r="661" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P661" s="14"/>
+    </row>
+    <row r="662" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P662" s="14"/>
+    </row>
+    <row r="663" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P663" s="14"/>
+    </row>
+    <row r="664" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P664" s="14"/>
+    </row>
+    <row r="665" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P665" s="14"/>
+    </row>
+    <row r="666" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P666" s="14"/>
+    </row>
+    <row r="667" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P667" s="14"/>
+    </row>
+    <row r="668" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P668" s="14"/>
+    </row>
+    <row r="669" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P669" s="14"/>
+    </row>
+    <row r="670" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P670" s="14"/>
+    </row>
+    <row r="671" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P671" s="14"/>
+    </row>
+    <row r="672" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P672" s="14"/>
+    </row>
+    <row r="673" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P673" s="14"/>
+    </row>
+    <row r="674" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P674" s="14"/>
+    </row>
+    <row r="675" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P675" s="14"/>
+    </row>
+    <row r="676" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P676" s="14"/>
+    </row>
+    <row r="677" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P677" s="14"/>
+    </row>
+    <row r="678" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P678" s="14"/>
+    </row>
+    <row r="679" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P679" s="14"/>
+    </row>
+    <row r="680" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P680" s="14"/>
+    </row>
+    <row r="681" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P681" s="14"/>
+    </row>
+    <row r="682" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P682" s="14"/>
+    </row>
+    <row r="683" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P683" s="14"/>
+    </row>
+    <row r="684" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P684" s="14"/>
+    </row>
+    <row r="685" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P685" s="14"/>
+    </row>
+    <row r="686" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P686" s="14"/>
+    </row>
+    <row r="687" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P687" s="14"/>
+    </row>
+    <row r="688" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P688" s="14"/>
+    </row>
+    <row r="689" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P689" s="14"/>
+    </row>
+    <row r="690" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P690" s="14"/>
+    </row>
+    <row r="691" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P691" s="14"/>
+    </row>
+    <row r="692" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P692" s="14"/>
+    </row>
+    <row r="693" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P693" s="14"/>
+    </row>
+    <row r="694" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P694" s="14"/>
+    </row>
+    <row r="695" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P695" s="14"/>
+    </row>
+    <row r="696" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P696" s="14"/>
+    </row>
+    <row r="697" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P697" s="14"/>
+    </row>
+    <row r="698" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P698" s="14"/>
+    </row>
+    <row r="699" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P699" s="14"/>
+    </row>
+    <row r="700" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P700" s="14"/>
+    </row>
+    <row r="701" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P701" s="14"/>
+    </row>
+    <row r="702" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P702" s="14"/>
+    </row>
+    <row r="703" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P703" s="14"/>
+    </row>
+    <row r="704" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P704" s="14"/>
+    </row>
+    <row r="705" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P705" s="14"/>
+    </row>
+    <row r="706" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P706" s="14"/>
+    </row>
+    <row r="707" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P707" s="14"/>
+    </row>
+    <row r="708" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P708" s="14"/>
+    </row>
+    <row r="709" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P709" s="14"/>
+    </row>
+    <row r="710" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P710" s="14"/>
+    </row>
+    <row r="711" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P711" s="14"/>
+    </row>
+    <row r="712" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P712" s="14"/>
+    </row>
+    <row r="713" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P713" s="14"/>
+    </row>
+    <row r="714" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P714" s="14"/>
+    </row>
+    <row r="715" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P715" s="14"/>
+    </row>
+    <row r="716" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P716" s="14"/>
+    </row>
+    <row r="717" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P717" s="14"/>
+    </row>
+    <row r="718" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P718" s="14"/>
+    </row>
+    <row r="719" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P719" s="14"/>
+    </row>
+    <row r="720" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P720" s="14"/>
+    </row>
+    <row r="721" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P721" s="14"/>
+    </row>
+    <row r="722" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P722" s="14"/>
+    </row>
+    <row r="723" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P723" s="14"/>
+    </row>
+    <row r="724" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P724" s="14"/>
+    </row>
+    <row r="725" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P725" s="14"/>
+    </row>
+    <row r="726" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P726" s="14"/>
+    </row>
+    <row r="727" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P727" s="14"/>
+    </row>
+    <row r="728" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P728" s="14"/>
+    </row>
+    <row r="729" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P729" s="14"/>
+    </row>
+    <row r="730" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P730" s="14"/>
+    </row>
+    <row r="731" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P731" s="14"/>
+    </row>
+    <row r="732" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P732" s="14"/>
+    </row>
+    <row r="733" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P733" s="14"/>
+    </row>
+    <row r="734" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P734" s="14"/>
+    </row>
+    <row r="735" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P735" s="14"/>
+    </row>
+    <row r="736" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P736" s="14"/>
+    </row>
+    <row r="737" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P737" s="14"/>
+    </row>
+    <row r="738" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P738" s="14"/>
+    </row>
+    <row r="739" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P739" s="14"/>
+    </row>
+    <row r="740" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P740" s="14"/>
+    </row>
+    <row r="741" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P741" s="14"/>
+    </row>
+    <row r="742" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P742" s="14"/>
+    </row>
+    <row r="743" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P743" s="14"/>
+    </row>
+    <row r="744" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P744" s="14"/>
+    </row>
+    <row r="745" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P745" s="14"/>
+    </row>
+    <row r="746" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P746" s="14"/>
+    </row>
+    <row r="747" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P747" s="14"/>
+    </row>
+    <row r="748" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P748" s="14"/>
+    </row>
+    <row r="749" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P749" s="14"/>
+    </row>
+    <row r="750" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P750" s="14"/>
+    </row>
+    <row r="751" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P751" s="14"/>
+    </row>
+    <row r="752" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P752" s="14"/>
+    </row>
+    <row r="753" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P753" s="14"/>
+    </row>
+    <row r="754" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P754" s="14"/>
+    </row>
+    <row r="755" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P755" s="14"/>
+    </row>
+    <row r="756" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P756" s="14"/>
+    </row>
+    <row r="757" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P757" s="14"/>
+    </row>
+    <row r="758" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P758" s="14"/>
+    </row>
+    <row r="759" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P759" s="14"/>
+    </row>
+    <row r="760" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P760" s="14"/>
+    </row>
+    <row r="761" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P761" s="14"/>
+    </row>
+    <row r="762" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P762" s="14"/>
+    </row>
+    <row r="763" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P763" s="14"/>
+    </row>
+    <row r="764" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P764" s="14"/>
+    </row>
+    <row r="765" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P765" s="14"/>
+    </row>
+    <row r="766" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P766" s="14"/>
+    </row>
+    <row r="767" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P767" s="14"/>
+    </row>
+    <row r="768" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P768" s="14"/>
+    </row>
+    <row r="769" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P769" s="14"/>
+    </row>
+    <row r="770" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P770" s="14"/>
+    </row>
+    <row r="771" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P771" s="14"/>
+    </row>
+    <row r="772" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P772" s="14"/>
+    </row>
+    <row r="773" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P773" s="14"/>
+    </row>
+    <row r="774" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P774" s="14"/>
+    </row>
+    <row r="775" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P775" s="14"/>
+    </row>
+    <row r="776" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P776" s="14"/>
+    </row>
+    <row r="777" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P777" s="14"/>
+    </row>
+    <row r="778" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P778" s="14"/>
+    </row>
+    <row r="779" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P779" s="14"/>
+    </row>
+    <row r="780" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P780" s="14"/>
+    </row>
+    <row r="781" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P781" s="14"/>
+    </row>
+    <row r="782" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P782" s="14"/>
+    </row>
+    <row r="783" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P783" s="14"/>
+    </row>
+    <row r="784" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P784" s="14"/>
+    </row>
+    <row r="785" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P785" s="14"/>
+    </row>
+    <row r="786" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P786" s="14"/>
+    </row>
+    <row r="787" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P787" s="14"/>
+    </row>
+    <row r="788" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P788" s="14"/>
+    </row>
+    <row r="789" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P789" s="14"/>
+    </row>
+    <row r="790" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P790" s="14"/>
+    </row>
+    <row r="791" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P791" s="14"/>
+    </row>
+    <row r="792" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P792" s="14"/>
+    </row>
+    <row r="793" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P793" s="14"/>
+    </row>
+    <row r="794" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P794" s="14"/>
+    </row>
+    <row r="795" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P795" s="14"/>
+    </row>
+    <row r="796" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P796" s="14"/>
+    </row>
+    <row r="797" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P797" s="14"/>
+    </row>
+    <row r="798" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P798" s="14"/>
+    </row>
+    <row r="799" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P799" s="14"/>
+    </row>
+    <row r="800" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P800" s="14"/>
+    </row>
+    <row r="801" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P801" s="14"/>
+    </row>
+    <row r="802" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P802" s="14"/>
+    </row>
+    <row r="803" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P803" s="14"/>
+    </row>
+    <row r="804" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P804" s="14"/>
+    </row>
+    <row r="805" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P805" s="14"/>
+    </row>
+    <row r="806" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P806" s="14"/>
+    </row>
+    <row r="807" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P807" s="14"/>
+    </row>
+    <row r="808" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P808" s="14"/>
+    </row>
+    <row r="809" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P809" s="14"/>
+    </row>
+    <row r="810" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P810" s="14"/>
+    </row>
+    <row r="811" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P811" s="14"/>
+    </row>
+    <row r="812" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P812" s="14"/>
+    </row>
+    <row r="813" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P813" s="14"/>
+    </row>
+    <row r="814" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P814" s="14"/>
+    </row>
+    <row r="815" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P815" s="14"/>
+    </row>
+    <row r="816" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P816" s="14"/>
+    </row>
+    <row r="817" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P817" s="14"/>
+    </row>
+    <row r="818" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P818" s="14"/>
+    </row>
+    <row r="819" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P819" s="14"/>
+    </row>
+    <row r="820" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P820" s="14"/>
+    </row>
+    <row r="821" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P821" s="14"/>
+    </row>
+    <row r="822" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P822" s="14"/>
+    </row>
+    <row r="823" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P823" s="14"/>
+    </row>
+    <row r="824" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P824" s="14"/>
+    </row>
+    <row r="825" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P825" s="14"/>
+    </row>
+    <row r="826" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P826" s="14"/>
+    </row>
+    <row r="827" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P827" s="14"/>
+    </row>
+    <row r="828" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P828" s="14"/>
+    </row>
+    <row r="829" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P829" s="14"/>
+    </row>
+    <row r="830" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P830" s="14"/>
+    </row>
+    <row r="831" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P831" s="14"/>
+    </row>
+    <row r="832" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P832" s="14"/>
+    </row>
+    <row r="833" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P833" s="14"/>
+    </row>
+    <row r="834" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P834" s="14"/>
+    </row>
+    <row r="835" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P835" s="14"/>
+    </row>
+    <row r="836" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P836" s="14"/>
+    </row>
+    <row r="837" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P837" s="14"/>
+    </row>
+    <row r="838" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P838" s="14"/>
+    </row>
+    <row r="839" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P839" s="14"/>
+    </row>
+    <row r="840" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P840" s="14"/>
+    </row>
+    <row r="841" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P841" s="14"/>
+    </row>
+    <row r="842" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P842" s="14"/>
+    </row>
+    <row r="843" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P843" s="14"/>
+    </row>
+    <row r="844" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P844" s="14"/>
+    </row>
+    <row r="845" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P845" s="14"/>
+    </row>
+    <row r="846" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P846" s="14"/>
+    </row>
+    <row r="847" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P847" s="14"/>
+    </row>
+    <row r="848" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P848" s="14"/>
+    </row>
+    <row r="849" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P849" s="14"/>
+    </row>
+    <row r="850" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P850" s="14"/>
+    </row>
+    <row r="851" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P851" s="14"/>
+    </row>
+    <row r="852" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P852" s="14"/>
+    </row>
+    <row r="853" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P853" s="14"/>
+    </row>
+    <row r="854" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P854" s="14"/>
+    </row>
+    <row r="855" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P855" s="14"/>
+    </row>
+    <row r="856" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P856" s="14"/>
+    </row>
+    <row r="857" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P857" s="14"/>
+    </row>
+    <row r="858" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P858" s="14"/>
+    </row>
+    <row r="859" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P859" s="14"/>
+    </row>
+    <row r="860" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P860" s="14"/>
+    </row>
+    <row r="861" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P861" s="14"/>
+    </row>
+    <row r="862" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P862" s="14"/>
+    </row>
+    <row r="863" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P863" s="14"/>
+    </row>
+    <row r="864" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P864" s="14"/>
+    </row>
+    <row r="865" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P865" s="14"/>
+    </row>
+    <row r="866" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P866" s="14"/>
+    </row>
+    <row r="867" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P867" s="14"/>
+    </row>
+    <row r="868" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P868" s="14"/>
+    </row>
+    <row r="869" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P869" s="14"/>
+    </row>
+    <row r="870" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P870" s="14"/>
+    </row>
+    <row r="871" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P871" s="14"/>
+    </row>
+    <row r="872" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P872" s="14"/>
+    </row>
+    <row r="873" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P873" s="14"/>
+    </row>
+    <row r="874" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P874" s="14"/>
+    </row>
+    <row r="875" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P875" s="14"/>
+    </row>
+    <row r="876" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P876" s="14"/>
+    </row>
+    <row r="877" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P877" s="14"/>
+    </row>
+    <row r="878" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P878" s="14"/>
+    </row>
+    <row r="879" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P879" s="14"/>
+    </row>
+    <row r="880" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P880" s="14"/>
+    </row>
+    <row r="881" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P881" s="14"/>
+    </row>
+    <row r="882" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P882" s="14"/>
+    </row>
+    <row r="883" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P883" s="14"/>
+    </row>
+    <row r="884" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P884" s="14"/>
+    </row>
+    <row r="885" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P885" s="14"/>
+    </row>
+    <row r="886" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P886" s="14"/>
+    </row>
+    <row r="887" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P887" s="14"/>
+    </row>
+    <row r="888" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P888" s="14"/>
+    </row>
+    <row r="889" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P889" s="14"/>
+    </row>
+    <row r="890" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P890" s="14"/>
+    </row>
+    <row r="891" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P891" s="14"/>
+    </row>
+    <row r="892" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P892" s="14"/>
+    </row>
+    <row r="893" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P893" s="14"/>
+    </row>
+    <row r="894" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P894" s="14"/>
+    </row>
+    <row r="895" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P895" s="14"/>
+    </row>
+    <row r="896" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P896" s="14"/>
+    </row>
+    <row r="897" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P897" s="14"/>
+    </row>
+    <row r="898" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P898" s="14"/>
+    </row>
+    <row r="899" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P899" s="14"/>
+    </row>
+    <row r="900" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P900" s="14"/>
+    </row>
+    <row r="901" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P901" s="14"/>
+    </row>
+    <row r="902" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P902" s="14"/>
+    </row>
+    <row r="903" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P903" s="14"/>
+    </row>
+    <row r="904" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P904" s="14"/>
+    </row>
+    <row r="905" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P905" s="14"/>
+    </row>
+    <row r="906" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P906" s="14"/>
+    </row>
+    <row r="907" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P907" s="14"/>
+    </row>
+    <row r="908" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P908" s="14"/>
+    </row>
+    <row r="909" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P909" s="14"/>
+    </row>
+    <row r="910" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P910" s="14"/>
+    </row>
+    <row r="911" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P911" s="14"/>
+    </row>
+    <row r="912" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P912" s="14"/>
+    </row>
+    <row r="913" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P913" s="14"/>
+    </row>
+    <row r="914" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P914" s="14"/>
+    </row>
+    <row r="915" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P915" s="14"/>
+    </row>
+    <row r="916" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P916" s="14"/>
+    </row>
+    <row r="917" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P917" s="14"/>
+    </row>
+    <row r="918" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P918" s="14"/>
+    </row>
+    <row r="919" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P919" s="14"/>
+    </row>
+    <row r="920" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P920" s="14"/>
+    </row>
+    <row r="921" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P921" s="14"/>
+    </row>
+    <row r="922" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P922" s="14"/>
+    </row>
+    <row r="923" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P923" s="14"/>
+    </row>
+    <row r="924" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P924" s="14"/>
+    </row>
+    <row r="925" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P925" s="14"/>
+    </row>
+    <row r="926" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P926" s="14"/>
+    </row>
+    <row r="927" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P927" s="14"/>
+    </row>
+    <row r="928" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P928" s="14"/>
+    </row>
+    <row r="929" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P929" s="14"/>
+    </row>
+    <row r="930" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P930" s="14"/>
+    </row>
+    <row r="931" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P931" s="14"/>
+    </row>
+    <row r="932" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P932" s="14"/>
+    </row>
+    <row r="933" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P933" s="14"/>
+    </row>
+    <row r="934" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P934" s="14"/>
+    </row>
+    <row r="935" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P935" s="14"/>
+    </row>
+    <row r="936" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P936" s="14"/>
+    </row>
+    <row r="937" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P937" s="14"/>
+    </row>
+    <row r="938" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P938" s="14"/>
+    </row>
+    <row r="939" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P939" s="14"/>
+    </row>
+    <row r="940" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P940" s="14"/>
+    </row>
+    <row r="941" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P941" s="14"/>
+    </row>
+    <row r="942" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P942" s="14"/>
+    </row>
+    <row r="943" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P943" s="14"/>
+    </row>
+    <row r="944" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P944" s="14"/>
+    </row>
+    <row r="945" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P945" s="14"/>
+    </row>
+    <row r="946" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P946" s="14"/>
+    </row>
+    <row r="947" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P947" s="14"/>
+    </row>
+    <row r="948" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P948" s="14"/>
+    </row>
+    <row r="949" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P949" s="14"/>
+    </row>
+    <row r="950" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P950" s="14"/>
+    </row>
+    <row r="951" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P951" s="14"/>
+    </row>
+    <row r="952" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P952" s="14"/>
+    </row>
+    <row r="953" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P953" s="14"/>
+    </row>
+    <row r="954" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P954" s="14"/>
+    </row>
+    <row r="955" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P955" s="14"/>
+    </row>
+    <row r="956" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P956" s="14"/>
+    </row>
+    <row r="957" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P957" s="14"/>
+    </row>
+    <row r="958" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P958" s="14"/>
+    </row>
+    <row r="959" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P959" s="14"/>
+    </row>
+    <row r="960" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P960" s="14"/>
+    </row>
+    <row r="961" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P961" s="14"/>
+    </row>
+    <row r="962" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P962" s="14"/>
+    </row>
+    <row r="963" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P963" s="14"/>
+    </row>
+    <row r="964" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P964" s="14"/>
+    </row>
+    <row r="965" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P965" s="14"/>
+    </row>
+    <row r="966" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P966" s="14"/>
+    </row>
+    <row r="967" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P967" s="14"/>
+    </row>
+    <row r="968" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P968" s="14"/>
+    </row>
+    <row r="969" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P969" s="14"/>
+    </row>
+    <row r="970" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P970" s="14"/>
+    </row>
+    <row r="971" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P971" s="14"/>
+    </row>
+    <row r="972" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P972" s="14"/>
+    </row>
+    <row r="973" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P973" s="14"/>
+    </row>
+    <row r="974" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P974" s="14"/>
+    </row>
+    <row r="975" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P975" s="14"/>
+    </row>
+    <row r="976" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P976" s="14"/>
+    </row>
+    <row r="977" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P977" s="14"/>
+    </row>
+    <row r="978" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P978" s="14"/>
+    </row>
+    <row r="979" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P979" s="14"/>
+    </row>
+    <row r="980" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P980" s="14"/>
+    </row>
+    <row r="981" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P981" s="14"/>
+    </row>
+    <row r="982" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P982" s="14"/>
+    </row>
+    <row r="983" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P983" s="14"/>
+    </row>
+    <row r="984" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P984" s="14"/>
+    </row>
+    <row r="985" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P985" s="14"/>
+    </row>
+    <row r="986" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P986" s="14"/>
+    </row>
+    <row r="987" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P987" s="14"/>
+    </row>
+    <row r="988" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P988" s="14"/>
+    </row>
+    <row r="989" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P989" s="14"/>
+    </row>
+    <row r="990" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P990" s="14"/>
+    </row>
+    <row r="991" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P991" s="14"/>
+    </row>
+    <row r="992" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P992" s="14"/>
+    </row>
+    <row r="993" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P993" s="14"/>
+    </row>
+    <row r="994" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P994" s="14"/>
+    </row>
+    <row r="995" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P995" s="14"/>
+    </row>
+    <row r="996" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P996" s="14"/>
+    </row>
+    <row r="997" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P997" s="14"/>
+    </row>
+    <row r="998" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P998" s="14"/>
+    </row>
+    <row r="999" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P999" s="14"/>
+    </row>
+    <row r="1000" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1000" s="14"/>
+    </row>
+    <row r="1001" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1001" s="14"/>
+    </row>
+    <row r="1002" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1002" s="14"/>
+    </row>
+    <row r="1003" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1003" s="14"/>
+    </row>
+    <row r="1004" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1004" s="14"/>
+    </row>
+    <row r="1005" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1005" s="14"/>
+    </row>
+    <row r="1006" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1006" s="14"/>
+    </row>
+    <row r="1007" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1007" s="14"/>
+    </row>
+    <row r="1008" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1008" s="14"/>
+    </row>
+    <row r="1009" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1009" s="14"/>
+    </row>
+    <row r="1010" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1010" s="14"/>
+    </row>
+    <row r="1011" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1011" s="14"/>
+    </row>
+    <row r="1012" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1012" s="14"/>
+    </row>
+    <row r="1013" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1013" s="14"/>
+    </row>
+    <row r="1014" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1014" s="14"/>
+    </row>
+    <row r="1015" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1015" s="14"/>
+    </row>
+    <row r="1016" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1016" s="14"/>
+    </row>
+    <row r="1017" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1017" s="14"/>
+    </row>
+    <row r="1018" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1018" s="14"/>
+    </row>
+    <row r="1019" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1019" s="14"/>
+    </row>
+    <row r="1020" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1020" s="14"/>
+    </row>
+    <row r="1021" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1021" s="14"/>
+    </row>
+    <row r="1022" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1022" s="14"/>
+    </row>
+    <row r="1023" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1023" s="14"/>
+    </row>
+    <row r="1024" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1024" s="14"/>
+    </row>
+    <row r="1025" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1025" s="14"/>
+    </row>
+    <row r="1026" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1026" s="14"/>
+    </row>
+    <row r="1027" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1027" s="14"/>
+    </row>
+    <row r="1028" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1028" s="14"/>
+    </row>
+    <row r="1029" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1029" s="14"/>
+    </row>
+    <row r="1030" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1030" s="14"/>
+    </row>
+    <row r="1031" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1031" s="14"/>
+    </row>
+    <row r="1032" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1032" s="14"/>
+    </row>
+    <row r="1033" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1033" s="14"/>
+    </row>
+    <row r="1034" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1034" s="14"/>
+    </row>
+    <row r="1035" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1035" s="14"/>
+    </row>
+    <row r="1036" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1036" s="14"/>
+    </row>
+    <row r="1037" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1037" s="14"/>
+    </row>
+    <row r="1038" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1038" s="14"/>
+    </row>
+    <row r="1039" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1039" s="14"/>
+    </row>
+    <row r="1040" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1040" s="14"/>
+    </row>
+    <row r="1041" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1041" s="14"/>
+    </row>
+    <row r="1042" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1042" s="14"/>
+    </row>
+    <row r="1043" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1043" s="14"/>
+    </row>
+    <row r="1044" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1044" s="14"/>
+    </row>
+    <row r="1045" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1045" s="14"/>
+    </row>
+    <row r="1046" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1046" s="14"/>
+    </row>
+    <row r="1047" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1047" s="14"/>
+    </row>
+    <row r="1048" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1048" s="14"/>
+    </row>
+    <row r="1049" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1049" s="14"/>
+    </row>
+    <row r="1050" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1050" s="14"/>
+    </row>
+    <row r="1051" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1051" s="14"/>
+    </row>
+    <row r="1052" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1052" s="14"/>
+    </row>
+    <row r="1053" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1053" s="14"/>
+    </row>
+    <row r="1054" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1054" s="14"/>
+    </row>
+    <row r="1055" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1055" s="14"/>
+    </row>
+    <row r="1056" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1056" s="14"/>
+    </row>
+    <row r="1057" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1057" s="14"/>
+    </row>
+    <row r="1058" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1058" s="14"/>
+    </row>
+    <row r="1059" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1059" s="14"/>
+    </row>
+    <row r="1060" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1060" s="14"/>
+    </row>
+    <row r="1061" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1061" s="14"/>
+    </row>
+    <row r="1062" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1062" s="14"/>
+    </row>
+    <row r="1063" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1063" s="14"/>
+    </row>
+    <row r="1064" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1064" s="14"/>
+    </row>
+    <row r="1065" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1065" s="14"/>
+    </row>
+    <row r="1066" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1066" s="14"/>
+    </row>
+    <row r="1067" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1067" s="14"/>
+    </row>
+    <row r="1068" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1068" s="14"/>
+    </row>
+    <row r="1069" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1069" s="14"/>
+    </row>
+    <row r="1070" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1070" s="14"/>
+    </row>
+    <row r="1071" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1071" s="14"/>
+    </row>
+    <row r="1072" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1072" s="14"/>
+    </row>
+    <row r="1073" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1073" s="14"/>
+    </row>
+    <row r="1074" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1074" s="14"/>
+    </row>
+    <row r="1075" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1075" s="14"/>
+    </row>
+    <row r="1076" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1076" s="14"/>
+    </row>
+    <row r="1077" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1077" s="14"/>
+    </row>
+    <row r="1078" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1078" s="14"/>
+    </row>
+    <row r="1079" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1079" s="14"/>
+    </row>
+    <row r="1080" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1080" s="14"/>
+    </row>
+    <row r="1081" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1081" s="14"/>
+    </row>
+    <row r="1082" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1082" s="14"/>
+    </row>
+    <row r="1083" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1083" s="14"/>
+    </row>
+    <row r="1084" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1084" s="14"/>
+    </row>
+    <row r="1085" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1085" s="14"/>
+    </row>
+    <row r="1086" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1086" s="14"/>
+    </row>
+    <row r="1087" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1087" s="14"/>
+    </row>
+    <row r="1088" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1088" s="14"/>
+    </row>
+    <row r="1089" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1089" s="14"/>
+    </row>
+    <row r="1090" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="P1090" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:W1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/modules/report/dailyreport.xlsx
+++ b/modules/report/dailyreport.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\baocao\modules\report\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="12315"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Total by DSA" sheetId="4" r:id="rId2"/>
     <sheet name="Total by DSS" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="28">
   <si>
     <t>TT</t>
   </si>
@@ -92,11 +97,20 @@
   <si>
     <t>Smartpos</t>
   </si>
+  <si>
+    <t>TK VP Bank</t>
+  </si>
+  <si>
+    <t>SFC</t>
+  </si>
+  <si>
+    <t>Fullpaid</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="dd\/mm"/>
@@ -235,7 +249,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -399,6 +413,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -406,7 +442,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -497,7 +533,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,6 +566,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -560,7 +617,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,7 +652,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -804,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z1055"/>
+  <dimension ref="A1:AD1055"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W7" sqref="W7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -818,46 +875,50 @@
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.5703125" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="25" max="29" width="8.5703125" customWidth="1"/>
+    <col min="30" max="30" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-    </row>
-    <row r="2" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="33"/>
+      <c r="AA1" s="33"/>
+      <c r="AB1" s="33"/>
+      <c r="AC1" s="33"/>
+    </row>
+    <row r="2" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F2" s="29">
         <f>SUBTOTAL(109,F$6:F$6100)</f>
         <v>0</v>
       </c>
       <c r="G2" s="29">
-        <f t="shared" ref="G2:Y2" si="0">SUBTOTAL(109,G$6:G$6100)</f>
+        <f t="shared" ref="G2:AC2" si="0">SUBTOTAL(109,G$6:G$6100)</f>
         <v>0</v>
       </c>
       <c r="H2" s="29">
@@ -932,8 +993,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:26" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z2" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -954,8 +1031,12 @@
       <c r="W3" s="7"/>
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
-    </row>
-    <row r="4" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z3" s="7"/>
+      <c r="AA3" s="7"/>
+      <c r="AB3" s="7"/>
+      <c r="AC3" s="7"/>
+    </row>
+    <row r="4" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -999,11 +1080,19 @@
         <v>24</v>
       </c>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="8" t="s">
+      <c r="Z4" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -1079,39 +1168,51 @@
       <c r="Y5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="2"/>
-    </row>
-    <row r="6" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC5" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD5" s="2"/>
+    </row>
+    <row r="6" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:30" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4232,8 +4333,10 @@
       <c r="P1055" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:Y1"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -4242,10 +4345,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y1090"/>
+  <dimension ref="A1:AC1090"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4259,40 +4362,40 @@
     <col min="16" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:29" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33"/>
-    </row>
-    <row r="2" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+    </row>
+    <row r="2" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F2" s="29">
         <f>SUBTOTAL(109,F$6:F$6100)</f>
         <v>0</v>
       </c>
       <c r="G2" s="29">
-        <f t="shared" ref="G2:Y2" si="0">SUBTOTAL(109,G$6:G$6100)</f>
+        <f t="shared" ref="G2:AC2" si="0">SUBTOTAL(109,G$6:G$6100)</f>
         <v>0</v>
       </c>
       <c r="H2" s="29">
@@ -4367,8 +4470,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:25" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z2" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB2" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC2" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
@@ -4390,7 +4509,7 @@
       <c r="X3" s="7"/>
       <c r="Y3" s="7"/>
     </row>
-    <row r="4" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -4434,8 +4553,16 @@
         <v>24</v>
       </c>
       <c r="Y4" s="4"/>
-    </row>
-    <row r="5" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z4" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA4" s="37"/>
+      <c r="AB4" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC4" s="40"/>
+    </row>
+    <row r="5" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -4511,38 +4638,50 @@
       <c r="Y5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC5" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P6" s="9"/>
     </row>
-    <row r="7" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P7" s="9"/>
     </row>
-    <row r="8" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P8" s="9"/>
     </row>
-    <row r="9" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P9" s="9"/>
     </row>
-    <row r="10" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P10" s="9"/>
     </row>
-    <row r="11" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P11" s="9"/>
     </row>
-    <row r="12" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P12" s="9"/>
     </row>
-    <row r="13" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P13" s="9"/>
     </row>
-    <row r="14" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P14" s="9"/>
     </row>
-    <row r="15" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P15" s="9"/>
     </row>
-    <row r="16" spans="1:25" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="P16" s="9"/>
     </row>
     <row r="17" spans="16:16" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7768,8 +7907,10 @@
       <c r="P1090" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:W1"/>
+    <mergeCell ref="Z4:AA4"/>
+    <mergeCell ref="AB4:AC4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -7778,10 +7919,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W1090"/>
+  <dimension ref="A1:AA1090"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:U1"/>
+      <selection activeCell="W3" sqref="W3:AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7796,32 +7937,32 @@
     <col min="15" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-    </row>
-    <row r="2" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+    </row>
+    <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
@@ -7844,9 +7985,9 @@
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
     </row>
-    <row r="3" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D3" s="31">
-        <f t="shared" ref="D3:W3" si="0">SUBTOTAL(109,D$6:D$6100)</f>
+        <f t="shared" ref="D3:AA3" si="0">SUBTOTAL(109,D$6:D$6100)</f>
         <v>0</v>
       </c>
       <c r="E3" s="31">
@@ -7925,8 +8066,24 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X3" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z3" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="17"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -7968,8 +8125,16 @@
         <v>24</v>
       </c>
       <c r="W4" s="19"/>
-    </row>
-    <row r="5" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X4" s="38" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="37"/>
+      <c r="Z4" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA4" s="40"/>
+    </row>
+    <row r="5" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
         <v>0</v>
       </c>
@@ -8039,8 +8204,20 @@
       <c r="W5" s="24" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AA5" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="25" t="str">
         <f>IF(B6="","",SUBTOTAL(3,$B$6:B6))</f>
         <v/>
@@ -8127,7 +8304,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="str">
         <f>IF(B7="","",SUBTOTAL(3,$B$6:B7))</f>
         <v/>
@@ -8214,7 +8391,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="str">
         <f>IF(B8="","",SUBTOTAL(3,$B$6:B8))</f>
         <v/>
@@ -8301,7 +8478,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="str">
         <f>IF(B9="","",SUBTOTAL(3,$B$6:B9))</f>
         <v/>
@@ -8388,7 +8565,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="str">
         <f>IF(B10="","",SUBTOTAL(3,$B$6:B10))</f>
         <v/>
@@ -8475,7 +8652,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="str">
         <f>IF(B11="","",SUBTOTAL(3,$B$6:B11))</f>
         <v/>
@@ -8562,7 +8739,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="str">
         <f>IF(B12="","",SUBTOTAL(3,$B$6:B12))</f>
         <v/>
@@ -8649,7 +8826,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="str">
         <f>IF(B13="","",SUBTOTAL(3,$B$6:B13))</f>
         <v/>
@@ -8736,7 +8913,7 @@
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="str">
         <f>IF(B14="","",SUBTOTAL(3,$B$6:B14))</f>
         <v/>
@@ -8822,7 +8999,7 @@
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="str">
         <f>IF(B15="","",SUBTOTAL(3,$B$6:B15))</f>
         <v/>
@@ -8908,7 +9085,7 @@
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="str">
         <f>IF(B16="","",SUBTOTAL(3,$B$6:B16))</f>
         <v/>
@@ -15040,8 +15217,10 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:U1"/>
+    <mergeCell ref="X4:Y4"/>
+    <mergeCell ref="Z4:AA4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/modules/report/dailyreport.xlsx
+++ b/modules/report/dailyreport.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="12315"/>
+    <workbookView xWindow="720" yWindow="390" windowWidth="27555" windowHeight="12315" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Report Detail" sheetId="1" r:id="rId1"/>
@@ -533,25 +533,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -863,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD1055"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -880,33 +880,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
-      <c r="X1" s="34"/>
-      <c r="Y1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
       <c r="Z1" s="33"/>
       <c r="AA1" s="33"/>
       <c r="AB1" s="33"/>
@@ -1080,14 +1080,14 @@
         <v>24</v>
       </c>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="38" t="s">
+      <c r="Z4" s="36" t="s">
         <v>25</v>
       </c>
       <c r="AA4" s="37"/>
-      <c r="AB4" s="39" t="s">
+      <c r="AB4" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="AC4" s="40"/>
+      <c r="AC4" s="39"/>
       <c r="AD4" s="8" t="s">
         <v>13</v>
       </c>
@@ -1174,10 +1174,10 @@
       <c r="AA5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AB5" s="36" t="s">
+      <c r="AB5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AC5" s="36" t="s">
+      <c r="AC5" s="34" t="s">
         <v>27</v>
       </c>
       <c r="AD5" s="2"/>
@@ -4363,31 +4363,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34"/>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34"/>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="34"/>
-      <c r="W1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
     </row>
     <row r="2" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F2" s="29">
@@ -4553,14 +4553,14 @@
         <v>24</v>
       </c>
       <c r="Y4" s="4"/>
-      <c r="Z4" s="38" t="s">
+      <c r="Z4" s="36" t="s">
         <v>25</v>
       </c>
       <c r="AA4" s="37"/>
-      <c r="AB4" s="39" t="s">
+      <c r="AB4" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="AC4" s="40"/>
+      <c r="AC4" s="39"/>
     </row>
     <row r="5" spans="1:29" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
@@ -4644,10 +4644,10 @@
       <c r="AA5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AB5" s="36" t="s">
+      <c r="AB5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AC5" s="36" t="s">
+      <c r="AC5" s="34" t="s">
         <v>27</v>
       </c>
     </row>
@@ -7921,8 +7921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA1090"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="W3" sqref="W3:AA3"/>
+    <sheetView tabSelected="1" topLeftCell="J42" workbookViewId="0">
+      <selection activeCell="AA51" sqref="AA51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7938,29 +7938,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="40"/>
+      <c r="Q1" s="40"/>
+      <c r="R1" s="40"/>
+      <c r="S1" s="40"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="40"/>
     </row>
     <row r="2" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
@@ -8125,14 +8125,14 @@
         <v>24</v>
       </c>
       <c r="W4" s="19"/>
-      <c r="X4" s="38" t="s">
+      <c r="X4" s="36" t="s">
         <v>25</v>
       </c>
       <c r="Y4" s="37"/>
-      <c r="Z4" s="39" t="s">
+      <c r="Z4" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="AA4" s="40"/>
+      <c r="AA4" s="39"/>
     </row>
     <row r="5" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
@@ -8210,10 +8210,10 @@
       <c r="Y5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Z5" s="36" t="s">
+      <c r="Z5" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="AA5" s="36" t="s">
+      <c r="AA5" s="34" t="s">
         <v>27</v>
       </c>
     </row>
@@ -8303,6 +8303,22 @@
         <f>IF(ISBLANK($B6),"",SUMIF('Total by DSA'!$B$5:$B$144,$B6,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
+      <c r="X6" s="13" t="str">
+        <f>IF(ISBLANK($B6),"",SUMIF('Total by DSA'!$B$5:$B$144,$B6,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y6" s="13" t="str">
+        <f>IF(ISBLANK($B6),"",SUMIF('Total by DSA'!$B$5:$B$144,$B6,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z6" s="13" t="str">
+        <f>IF(ISBLANK($B6),"",SUMIF('Total by DSA'!$B$5:$B$144,$B6,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA6" s="13" t="str">
+        <f>IF(ISBLANK($B6),"",SUMIF('Total by DSA'!$B$5:$B$144,$B6,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="str">
@@ -8390,6 +8406,22 @@
         <f>IF(ISBLANK($B7),"",SUMIF('Total by DSA'!$B$5:$B$144,$B7,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
+      <c r="X7" s="13" t="str">
+        <f>IF(ISBLANK($B7),"",SUMIF('Total by DSA'!$B$5:$B$144,$B7,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y7" s="13" t="str">
+        <f>IF(ISBLANK($B7),"",SUMIF('Total by DSA'!$B$5:$B$144,$B7,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z7" s="13" t="str">
+        <f>IF(ISBLANK($B7),"",SUMIF('Total by DSA'!$B$5:$B$144,$B7,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA7" s="13" t="str">
+        <f>IF(ISBLANK($B7),"",SUMIF('Total by DSA'!$B$5:$B$144,$B7,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="25" t="str">
@@ -8477,6 +8509,22 @@
         <f>IF(ISBLANK($B8),"",SUMIF('Total by DSA'!$B$5:$B$144,$B8,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
+      <c r="X8" s="13" t="str">
+        <f>IF(ISBLANK($B8),"",SUMIF('Total by DSA'!$B$5:$B$144,$B8,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y8" s="13" t="str">
+        <f>IF(ISBLANK($B8),"",SUMIF('Total by DSA'!$B$5:$B$144,$B8,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z8" s="13" t="str">
+        <f>IF(ISBLANK($B8),"",SUMIF('Total by DSA'!$B$5:$B$144,$B8,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA8" s="13" t="str">
+        <f>IF(ISBLANK($B8),"",SUMIF('Total by DSA'!$B$5:$B$144,$B8,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="25" t="str">
@@ -8564,6 +8612,22 @@
         <f>IF(ISBLANK($B9),"",SUMIF('Total by DSA'!$B$5:$B$144,$B9,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
+      <c r="X9" s="13" t="str">
+        <f>IF(ISBLANK($B9),"",SUMIF('Total by DSA'!$B$5:$B$144,$B9,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y9" s="13" t="str">
+        <f>IF(ISBLANK($B9),"",SUMIF('Total by DSA'!$B$5:$B$144,$B9,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z9" s="13" t="str">
+        <f>IF(ISBLANK($B9),"",SUMIF('Total by DSA'!$B$5:$B$144,$B9,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA9" s="13" t="str">
+        <f>IF(ISBLANK($B9),"",SUMIF('Total by DSA'!$B$5:$B$144,$B9,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="str">
@@ -8651,6 +8715,22 @@
         <f>IF(ISBLANK($B10),"",SUMIF('Total by DSA'!$B$5:$B$144,$B10,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
+      <c r="X10" s="13" t="str">
+        <f>IF(ISBLANK($B10),"",SUMIF('Total by DSA'!$B$5:$B$144,$B10,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y10" s="13" t="str">
+        <f>IF(ISBLANK($B10),"",SUMIF('Total by DSA'!$B$5:$B$144,$B10,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z10" s="13" t="str">
+        <f>IF(ISBLANK($B10),"",SUMIF('Total by DSA'!$B$5:$B$144,$B10,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA10" s="13" t="str">
+        <f>IF(ISBLANK($B10),"",SUMIF('Total by DSA'!$B$5:$B$144,$B10,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="str">
@@ -8738,6 +8818,22 @@
         <f>IF(ISBLANK($B11),"",SUMIF('Total by DSA'!$B$5:$B$144,$B11,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
+      <c r="X11" s="13" t="str">
+        <f>IF(ISBLANK($B11),"",SUMIF('Total by DSA'!$B$5:$B$144,$B11,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y11" s="13" t="str">
+        <f>IF(ISBLANK($B11),"",SUMIF('Total by DSA'!$B$5:$B$144,$B11,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z11" s="13" t="str">
+        <f>IF(ISBLANK($B11),"",SUMIF('Total by DSA'!$B$5:$B$144,$B11,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA11" s="13" t="str">
+        <f>IF(ISBLANK($B11),"",SUMIF('Total by DSA'!$B$5:$B$144,$B11,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="str">
@@ -8825,6 +8921,22 @@
         <f>IF(ISBLANK($B12),"",SUMIF('Total by DSA'!$B$5:$B$144,$B12,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
+      <c r="X12" s="13" t="str">
+        <f>IF(ISBLANK($B12),"",SUMIF('Total by DSA'!$B$5:$B$144,$B12,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y12" s="13" t="str">
+        <f>IF(ISBLANK($B12),"",SUMIF('Total by DSA'!$B$5:$B$144,$B12,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z12" s="13" t="str">
+        <f>IF(ISBLANK($B12),"",SUMIF('Total by DSA'!$B$5:$B$144,$B12,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA12" s="13" t="str">
+        <f>IF(ISBLANK($B12),"",SUMIF('Total by DSA'!$B$5:$B$144,$B12,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="str">
@@ -8912,6 +9024,22 @@
         <f>IF(ISBLANK($B13),"",SUMIF('Total by DSA'!$B$5:$B$144,$B13,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
+      <c r="X13" s="13" t="str">
+        <f>IF(ISBLANK($B13),"",SUMIF('Total by DSA'!$B$5:$B$144,$B13,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y13" s="13" t="str">
+        <f>IF(ISBLANK($B13),"",SUMIF('Total by DSA'!$B$5:$B$144,$B13,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z13" s="13" t="str">
+        <f>IF(ISBLANK($B13),"",SUMIF('Total by DSA'!$B$5:$B$144,$B13,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA13" s="13" t="str">
+        <f>IF(ISBLANK($B13),"",SUMIF('Total by DSA'!$B$5:$B$144,$B13,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="str">
@@ -8998,6 +9126,22 @@
         <f>IF(ISBLANK($B14),"",SUMIF('Total by DSA'!$B$5:$B$144,$B14,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
+      <c r="X14" s="13" t="str">
+        <f>IF(ISBLANK($B14),"",SUMIF('Total by DSA'!$B$5:$B$144,$B14,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y14" s="13" t="str">
+        <f>IF(ISBLANK($B14),"",SUMIF('Total by DSA'!$B$5:$B$144,$B14,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z14" s="13" t="str">
+        <f>IF(ISBLANK($B14),"",SUMIF('Total by DSA'!$B$5:$B$144,$B14,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA14" s="13" t="str">
+        <f>IF(ISBLANK($B14),"",SUMIF('Total by DSA'!$B$5:$B$144,$B14,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="str">
@@ -9084,6 +9228,22 @@
         <f>IF(ISBLANK($B15),"",SUMIF('Total by DSA'!$B$5:$B$144,$B15,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
+      <c r="X15" s="13" t="str">
+        <f>IF(ISBLANK($B15),"",SUMIF('Total by DSA'!$B$5:$B$144,$B15,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y15" s="13" t="str">
+        <f>IF(ISBLANK($B15),"",SUMIF('Total by DSA'!$B$5:$B$144,$B15,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z15" s="13" t="str">
+        <f>IF(ISBLANK($B15),"",SUMIF('Total by DSA'!$B$5:$B$144,$B15,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA15" s="13" t="str">
+        <f>IF(ISBLANK($B15),"",SUMIF('Total by DSA'!$B$5:$B$144,$B15,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="str">
@@ -9170,8 +9330,24 @@
         <f>IF(ISBLANK($B16),"",SUMIF('Total by DSA'!$B$5:$B$144,$B16,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="17" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X16" s="13" t="str">
+        <f>IF(ISBLANK($B16),"",SUMIF('Total by DSA'!$B$5:$B$144,$B16,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y16" s="13" t="str">
+        <f>IF(ISBLANK($B16),"",SUMIF('Total by DSA'!$B$5:$B$144,$B16,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z16" s="13" t="str">
+        <f>IF(ISBLANK($B16),"",SUMIF('Total by DSA'!$B$5:$B$144,$B16,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA16" s="13" t="str">
+        <f>IF(ISBLANK($B16),"",SUMIF('Total by DSA'!$B$5:$B$144,$B16,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="str">
         <f>IF(B17="","",SUBTOTAL(3,$B$6:B17))</f>
         <v/>
@@ -9256,8 +9432,24 @@
         <f>IF(ISBLANK($B17),"",SUMIF('Total by DSA'!$B$5:$B$144,$B17,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="18" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X17" s="13" t="str">
+        <f>IF(ISBLANK($B17),"",SUMIF('Total by DSA'!$B$5:$B$144,$B17,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y17" s="13" t="str">
+        <f>IF(ISBLANK($B17),"",SUMIF('Total by DSA'!$B$5:$B$144,$B17,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z17" s="13" t="str">
+        <f>IF(ISBLANK($B17),"",SUMIF('Total by DSA'!$B$5:$B$144,$B17,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA17" s="13" t="str">
+        <f>IF(ISBLANK($B17),"",SUMIF('Total by DSA'!$B$5:$B$144,$B17,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="str">
         <f>IF(B18="","",SUBTOTAL(3,$B$6:B18))</f>
         <v/>
@@ -9342,8 +9534,24 @@
         <f>IF(ISBLANK($B18),"",SUMIF('Total by DSA'!$B$5:$B$144,$B18,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="19" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X18" s="13" t="str">
+        <f>IF(ISBLANK($B18),"",SUMIF('Total by DSA'!$B$5:$B$144,$B18,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y18" s="13" t="str">
+        <f>IF(ISBLANK($B18),"",SUMIF('Total by DSA'!$B$5:$B$144,$B18,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z18" s="13" t="str">
+        <f>IF(ISBLANK($B18),"",SUMIF('Total by DSA'!$B$5:$B$144,$B18,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA18" s="13" t="str">
+        <f>IF(ISBLANK($B18),"",SUMIF('Total by DSA'!$B$5:$B$144,$B18,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="str">
         <f>IF(B19="","",SUBTOTAL(3,$B$6:B19))</f>
         <v/>
@@ -9428,8 +9636,24 @@
         <f>IF(ISBLANK($B19),"",SUMIF('Total by DSA'!$B$5:$B$144,$B19,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="20" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X19" s="13" t="str">
+        <f>IF(ISBLANK($B19),"",SUMIF('Total by DSA'!$B$5:$B$144,$B19,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y19" s="13" t="str">
+        <f>IF(ISBLANK($B19),"",SUMIF('Total by DSA'!$B$5:$B$144,$B19,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z19" s="13" t="str">
+        <f>IF(ISBLANK($B19),"",SUMIF('Total by DSA'!$B$5:$B$144,$B19,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA19" s="13" t="str">
+        <f>IF(ISBLANK($B19),"",SUMIF('Total by DSA'!$B$5:$B$144,$B19,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="str">
         <f>IF(B20="","",SUBTOTAL(3,$B$6:B20))</f>
         <v/>
@@ -9514,8 +9738,24 @@
         <f>IF(ISBLANK($B20),"",SUMIF('Total by DSA'!$B$5:$B$144,$B20,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="21" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X20" s="13" t="str">
+        <f>IF(ISBLANK($B20),"",SUMIF('Total by DSA'!$B$5:$B$144,$B20,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y20" s="13" t="str">
+        <f>IF(ISBLANK($B20),"",SUMIF('Total by DSA'!$B$5:$B$144,$B20,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z20" s="13" t="str">
+        <f>IF(ISBLANK($B20),"",SUMIF('Total by DSA'!$B$5:$B$144,$B20,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA20" s="13" t="str">
+        <f>IF(ISBLANK($B20),"",SUMIF('Total by DSA'!$B$5:$B$144,$B20,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="str">
         <f>IF(B21="","",SUBTOTAL(3,$B$6:B21))</f>
         <v/>
@@ -9600,8 +9840,24 @@
         <f>IF(ISBLANK($B21),"",SUMIF('Total by DSA'!$B$5:$B$144,$B21,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="22" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X21" s="13" t="str">
+        <f>IF(ISBLANK($B21),"",SUMIF('Total by DSA'!$B$5:$B$144,$B21,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y21" s="13" t="str">
+        <f>IF(ISBLANK($B21),"",SUMIF('Total by DSA'!$B$5:$B$144,$B21,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z21" s="13" t="str">
+        <f>IF(ISBLANK($B21),"",SUMIF('Total by DSA'!$B$5:$B$144,$B21,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA21" s="13" t="str">
+        <f>IF(ISBLANK($B21),"",SUMIF('Total by DSA'!$B$5:$B$144,$B21,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="str">
         <f>IF(B22="","",SUBTOTAL(3,$B$6:B22))</f>
         <v/>
@@ -9686,8 +9942,24 @@
         <f>IF(ISBLANK($B22),"",SUMIF('Total by DSA'!$B$5:$B$144,$B22,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="23" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X22" s="13" t="str">
+        <f>IF(ISBLANK($B22),"",SUMIF('Total by DSA'!$B$5:$B$144,$B22,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y22" s="13" t="str">
+        <f>IF(ISBLANK($B22),"",SUMIF('Total by DSA'!$B$5:$B$144,$B22,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z22" s="13" t="str">
+        <f>IF(ISBLANK($B22),"",SUMIF('Total by DSA'!$B$5:$B$144,$B22,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA22" s="13" t="str">
+        <f>IF(ISBLANK($B22),"",SUMIF('Total by DSA'!$B$5:$B$144,$B22,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="str">
         <f>IF(B23="","",SUBTOTAL(3,$B$6:B23))</f>
         <v/>
@@ -9772,8 +10044,24 @@
         <f>IF(ISBLANK($B23),"",SUMIF('Total by DSA'!$B$5:$B$144,$B23,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="24" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X23" s="13" t="str">
+        <f>IF(ISBLANK($B23),"",SUMIF('Total by DSA'!$B$5:$B$144,$B23,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y23" s="13" t="str">
+        <f>IF(ISBLANK($B23),"",SUMIF('Total by DSA'!$B$5:$B$144,$B23,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z23" s="13" t="str">
+        <f>IF(ISBLANK($B23),"",SUMIF('Total by DSA'!$B$5:$B$144,$B23,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA23" s="13" t="str">
+        <f>IF(ISBLANK($B23),"",SUMIF('Total by DSA'!$B$5:$B$144,$B23,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="str">
         <f>IF(B24="","",SUBTOTAL(3,$B$6:B24))</f>
         <v/>
@@ -9858,8 +10146,24 @@
         <f>IF(ISBLANK($B24),"",SUMIF('Total by DSA'!$B$5:$B$144,$B24,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X24" s="13" t="str">
+        <f>IF(ISBLANK($B24),"",SUMIF('Total by DSA'!$B$5:$B$144,$B24,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y24" s="13" t="str">
+        <f>IF(ISBLANK($B24),"",SUMIF('Total by DSA'!$B$5:$B$144,$B24,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z24" s="13" t="str">
+        <f>IF(ISBLANK($B24),"",SUMIF('Total by DSA'!$B$5:$B$144,$B24,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA24" s="13" t="str">
+        <f>IF(ISBLANK($B24),"",SUMIF('Total by DSA'!$B$5:$B$144,$B24,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="str">
         <f>IF(B25="","",SUBTOTAL(3,$B$6:B25))</f>
         <v/>
@@ -9944,8 +10248,24 @@
         <f>IF(ISBLANK($B25),"",SUMIF('Total by DSA'!$B$5:$B$144,$B25,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="26" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X25" s="13" t="str">
+        <f>IF(ISBLANK($B25),"",SUMIF('Total by DSA'!$B$5:$B$144,$B25,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y25" s="13" t="str">
+        <f>IF(ISBLANK($B25),"",SUMIF('Total by DSA'!$B$5:$B$144,$B25,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z25" s="13" t="str">
+        <f>IF(ISBLANK($B25),"",SUMIF('Total by DSA'!$B$5:$B$144,$B25,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA25" s="13" t="str">
+        <f>IF(ISBLANK($B25),"",SUMIF('Total by DSA'!$B$5:$B$144,$B25,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="str">
         <f>IF(B26="","",SUBTOTAL(3,$B$6:B26))</f>
         <v/>
@@ -10030,8 +10350,24 @@
         <f>IF(ISBLANK($B26),"",SUMIF('Total by DSA'!$B$5:$B$144,$B26,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="27" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X26" s="13" t="str">
+        <f>IF(ISBLANK($B26),"",SUMIF('Total by DSA'!$B$5:$B$144,$B26,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y26" s="13" t="str">
+        <f>IF(ISBLANK($B26),"",SUMIF('Total by DSA'!$B$5:$B$144,$B26,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z26" s="13" t="str">
+        <f>IF(ISBLANK($B26),"",SUMIF('Total by DSA'!$B$5:$B$144,$B26,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA26" s="13" t="str">
+        <f>IF(ISBLANK($B26),"",SUMIF('Total by DSA'!$B$5:$B$144,$B26,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="str">
         <f>IF(B27="","",SUBTOTAL(3,$B$6:B27))</f>
         <v/>
@@ -10116,8 +10452,24 @@
         <f>IF(ISBLANK($B27),"",SUMIF('Total by DSA'!$B$5:$B$144,$B27,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="28" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X27" s="13" t="str">
+        <f>IF(ISBLANK($B27),"",SUMIF('Total by DSA'!$B$5:$B$144,$B27,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y27" s="13" t="str">
+        <f>IF(ISBLANK($B27),"",SUMIF('Total by DSA'!$B$5:$B$144,$B27,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z27" s="13" t="str">
+        <f>IF(ISBLANK($B27),"",SUMIF('Total by DSA'!$B$5:$B$144,$B27,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA27" s="13" t="str">
+        <f>IF(ISBLANK($B27),"",SUMIF('Total by DSA'!$B$5:$B$144,$B27,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="str">
         <f>IF(B28="","",SUBTOTAL(3,$B$6:B28))</f>
         <v/>
@@ -10202,8 +10554,24 @@
         <f>IF(ISBLANK($B28),"",SUMIF('Total by DSA'!$B$5:$B$144,$B28,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="29" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X28" s="13" t="str">
+        <f>IF(ISBLANK($B28),"",SUMIF('Total by DSA'!$B$5:$B$144,$B28,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y28" s="13" t="str">
+        <f>IF(ISBLANK($B28),"",SUMIF('Total by DSA'!$B$5:$B$144,$B28,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z28" s="13" t="str">
+        <f>IF(ISBLANK($B28),"",SUMIF('Total by DSA'!$B$5:$B$144,$B28,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA28" s="13" t="str">
+        <f>IF(ISBLANK($B28),"",SUMIF('Total by DSA'!$B$5:$B$144,$B28,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="str">
         <f>IF(B29="","",SUBTOTAL(3,$B$6:B29))</f>
         <v/>
@@ -10288,8 +10656,24 @@
         <f>IF(ISBLANK($B29),"",SUMIF('Total by DSA'!$B$5:$B$144,$B29,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="30" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X29" s="13" t="str">
+        <f>IF(ISBLANK($B29),"",SUMIF('Total by DSA'!$B$5:$B$144,$B29,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y29" s="13" t="str">
+        <f>IF(ISBLANK($B29),"",SUMIF('Total by DSA'!$B$5:$B$144,$B29,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z29" s="13" t="str">
+        <f>IF(ISBLANK($B29),"",SUMIF('Total by DSA'!$B$5:$B$144,$B29,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA29" s="13" t="str">
+        <f>IF(ISBLANK($B29),"",SUMIF('Total by DSA'!$B$5:$B$144,$B29,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="str">
         <f>IF(B30="","",SUBTOTAL(3,$B$6:B30))</f>
         <v/>
@@ -10374,8 +10758,24 @@
         <f>IF(ISBLANK($B30),"",SUMIF('Total by DSA'!$B$5:$B$144,$B30,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="31" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X30" s="13" t="str">
+        <f>IF(ISBLANK($B30),"",SUMIF('Total by DSA'!$B$5:$B$144,$B30,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y30" s="13" t="str">
+        <f>IF(ISBLANK($B30),"",SUMIF('Total by DSA'!$B$5:$B$144,$B30,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z30" s="13" t="str">
+        <f>IF(ISBLANK($B30),"",SUMIF('Total by DSA'!$B$5:$B$144,$B30,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA30" s="13" t="str">
+        <f>IF(ISBLANK($B30),"",SUMIF('Total by DSA'!$B$5:$B$144,$B30,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="str">
         <f>IF(B31="","",SUBTOTAL(3,$B$6:B31))</f>
         <v/>
@@ -10460,8 +10860,24 @@
         <f>IF(ISBLANK($B31),"",SUMIF('Total by DSA'!$B$5:$B$144,$B31,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="32" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X31" s="13" t="str">
+        <f>IF(ISBLANK($B31),"",SUMIF('Total by DSA'!$B$5:$B$144,$B31,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y31" s="13" t="str">
+        <f>IF(ISBLANK($B31),"",SUMIF('Total by DSA'!$B$5:$B$144,$B31,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z31" s="13" t="str">
+        <f>IF(ISBLANK($B31),"",SUMIF('Total by DSA'!$B$5:$B$144,$B31,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA31" s="13" t="str">
+        <f>IF(ISBLANK($B31),"",SUMIF('Total by DSA'!$B$5:$B$144,$B31,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="str">
         <f>IF(B32="","",SUBTOTAL(3,$B$6:B32))</f>
         <v/>
@@ -10546,8 +10962,24 @@
         <f>IF(ISBLANK($B32),"",SUMIF('Total by DSA'!$B$5:$B$144,$B32,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="33" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X32" s="13" t="str">
+        <f>IF(ISBLANK($B32),"",SUMIF('Total by DSA'!$B$5:$B$144,$B32,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y32" s="13" t="str">
+        <f>IF(ISBLANK($B32),"",SUMIF('Total by DSA'!$B$5:$B$144,$B32,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z32" s="13" t="str">
+        <f>IF(ISBLANK($B32),"",SUMIF('Total by DSA'!$B$5:$B$144,$B32,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA32" s="13" t="str">
+        <f>IF(ISBLANK($B32),"",SUMIF('Total by DSA'!$B$5:$B$144,$B32,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="str">
         <f>IF(B33="","",SUBTOTAL(3,$B$6:B33))</f>
         <v/>
@@ -10632,8 +11064,24 @@
         <f>IF(ISBLANK($B33),"",SUMIF('Total by DSA'!$B$5:$B$144,$B33,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="34" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X33" s="13" t="str">
+        <f>IF(ISBLANK($B33),"",SUMIF('Total by DSA'!$B$5:$B$144,$B33,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y33" s="13" t="str">
+        <f>IF(ISBLANK($B33),"",SUMIF('Total by DSA'!$B$5:$B$144,$B33,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z33" s="13" t="str">
+        <f>IF(ISBLANK($B33),"",SUMIF('Total by DSA'!$B$5:$B$144,$B33,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA33" s="13" t="str">
+        <f>IF(ISBLANK($B33),"",SUMIF('Total by DSA'!$B$5:$B$144,$B33,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="str">
         <f>IF(B34="","",SUBTOTAL(3,$B$6:B34))</f>
         <v/>
@@ -10718,8 +11166,24 @@
         <f>IF(ISBLANK($B34),"",SUMIF('Total by DSA'!$B$5:$B$144,$B34,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X34" s="13" t="str">
+        <f>IF(ISBLANK($B34),"",SUMIF('Total by DSA'!$B$5:$B$144,$B34,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y34" s="13" t="str">
+        <f>IF(ISBLANK($B34),"",SUMIF('Total by DSA'!$B$5:$B$144,$B34,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z34" s="13" t="str">
+        <f>IF(ISBLANK($B34),"",SUMIF('Total by DSA'!$B$5:$B$144,$B34,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA34" s="13" t="str">
+        <f>IF(ISBLANK($B34),"",SUMIF('Total by DSA'!$B$5:$B$144,$B34,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="str">
         <f>IF(B35="","",SUBTOTAL(3,$B$6:B35))</f>
         <v/>
@@ -10804,8 +11268,24 @@
         <f>IF(ISBLANK($B35),"",SUMIF('Total by DSA'!$B$5:$B$144,$B35,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="36" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X35" s="13" t="str">
+        <f>IF(ISBLANK($B35),"",SUMIF('Total by DSA'!$B$5:$B$144,$B35,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y35" s="13" t="str">
+        <f>IF(ISBLANK($B35),"",SUMIF('Total by DSA'!$B$5:$B$144,$B35,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z35" s="13" t="str">
+        <f>IF(ISBLANK($B35),"",SUMIF('Total by DSA'!$B$5:$B$144,$B35,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA35" s="13" t="str">
+        <f>IF(ISBLANK($B35),"",SUMIF('Total by DSA'!$B$5:$B$144,$B35,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="str">
         <f>IF(B36="","",SUBTOTAL(3,$B$6:B36))</f>
         <v/>
@@ -10890,8 +11370,24 @@
         <f>IF(ISBLANK($B36),"",SUMIF('Total by DSA'!$B$5:$B$144,$B36,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X36" s="13" t="str">
+        <f>IF(ISBLANK($B36),"",SUMIF('Total by DSA'!$B$5:$B$144,$B36,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y36" s="13" t="str">
+        <f>IF(ISBLANK($B36),"",SUMIF('Total by DSA'!$B$5:$B$144,$B36,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z36" s="13" t="str">
+        <f>IF(ISBLANK($B36),"",SUMIF('Total by DSA'!$B$5:$B$144,$B36,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA36" s="13" t="str">
+        <f>IF(ISBLANK($B36),"",SUMIF('Total by DSA'!$B$5:$B$144,$B36,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="str">
         <f>IF(B37="","",SUBTOTAL(3,$B$6:B37))</f>
         <v/>
@@ -10976,8 +11472,24 @@
         <f>IF(ISBLANK($B37),"",SUMIF('Total by DSA'!$B$5:$B$144,$B37,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="38" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X37" s="13" t="str">
+        <f>IF(ISBLANK($B37),"",SUMIF('Total by DSA'!$B$5:$B$144,$B37,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y37" s="13" t="str">
+        <f>IF(ISBLANK($B37),"",SUMIF('Total by DSA'!$B$5:$B$144,$B37,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z37" s="13" t="str">
+        <f>IF(ISBLANK($B37),"",SUMIF('Total by DSA'!$B$5:$B$144,$B37,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA37" s="13" t="str">
+        <f>IF(ISBLANK($B37),"",SUMIF('Total by DSA'!$B$5:$B$144,$B37,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="str">
         <f>IF(B38="","",SUBTOTAL(3,$B$6:B38))</f>
         <v/>
@@ -11062,8 +11574,24 @@
         <f>IF(ISBLANK($B38),"",SUMIF('Total by DSA'!$B$5:$B$144,$B38,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="39" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X38" s="13" t="str">
+        <f>IF(ISBLANK($B38),"",SUMIF('Total by DSA'!$B$5:$B$144,$B38,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y38" s="13" t="str">
+        <f>IF(ISBLANK($B38),"",SUMIF('Total by DSA'!$B$5:$B$144,$B38,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z38" s="13" t="str">
+        <f>IF(ISBLANK($B38),"",SUMIF('Total by DSA'!$B$5:$B$144,$B38,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA38" s="13" t="str">
+        <f>IF(ISBLANK($B38),"",SUMIF('Total by DSA'!$B$5:$B$144,$B38,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="str">
         <f>IF(B39="","",SUBTOTAL(3,$B$6:B39))</f>
         <v/>
@@ -11148,8 +11676,24 @@
         <f>IF(ISBLANK($B39),"",SUMIF('Total by DSA'!$B$5:$B$144,$B39,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="40" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X39" s="13" t="str">
+        <f>IF(ISBLANK($B39),"",SUMIF('Total by DSA'!$B$5:$B$144,$B39,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y39" s="13" t="str">
+        <f>IF(ISBLANK($B39),"",SUMIF('Total by DSA'!$B$5:$B$144,$B39,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z39" s="13" t="str">
+        <f>IF(ISBLANK($B39),"",SUMIF('Total by DSA'!$B$5:$B$144,$B39,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA39" s="13" t="str">
+        <f>IF(ISBLANK($B39),"",SUMIF('Total by DSA'!$B$5:$B$144,$B39,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="str">
         <f>IF(B40="","",SUBTOTAL(3,$B$6:B40))</f>
         <v/>
@@ -11234,8 +11778,24 @@
         <f>IF(ISBLANK($B40),"",SUMIF('Total by DSA'!$B$5:$B$144,$B40,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="41" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X40" s="13" t="str">
+        <f>IF(ISBLANK($B40),"",SUMIF('Total by DSA'!$B$5:$B$144,$B40,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y40" s="13" t="str">
+        <f>IF(ISBLANK($B40),"",SUMIF('Total by DSA'!$B$5:$B$144,$B40,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z40" s="13" t="str">
+        <f>IF(ISBLANK($B40),"",SUMIF('Total by DSA'!$B$5:$B$144,$B40,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA40" s="13" t="str">
+        <f>IF(ISBLANK($B40),"",SUMIF('Total by DSA'!$B$5:$B$144,$B40,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="str">
         <f>IF(B41="","",SUBTOTAL(3,$B$6:B41))</f>
         <v/>
@@ -11320,8 +11880,24 @@
         <f>IF(ISBLANK($B41),"",SUMIF('Total by DSA'!$B$5:$B$144,$B41,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="42" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X41" s="13" t="str">
+        <f>IF(ISBLANK($B41),"",SUMIF('Total by DSA'!$B$5:$B$144,$B41,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y41" s="13" t="str">
+        <f>IF(ISBLANK($B41),"",SUMIF('Total by DSA'!$B$5:$B$144,$B41,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z41" s="13" t="str">
+        <f>IF(ISBLANK($B41),"",SUMIF('Total by DSA'!$B$5:$B$144,$B41,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA41" s="13" t="str">
+        <f>IF(ISBLANK($B41),"",SUMIF('Total by DSA'!$B$5:$B$144,$B41,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="str">
         <f>IF(B42="","",SUBTOTAL(3,$B$6:B42))</f>
         <v/>
@@ -11406,8 +11982,24 @@
         <f>IF(ISBLANK($B42),"",SUMIF('Total by DSA'!$B$5:$B$144,$B42,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="43" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X42" s="13" t="str">
+        <f>IF(ISBLANK($B42),"",SUMIF('Total by DSA'!$B$5:$B$144,$B42,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y42" s="13" t="str">
+        <f>IF(ISBLANK($B42),"",SUMIF('Total by DSA'!$B$5:$B$144,$B42,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z42" s="13" t="str">
+        <f>IF(ISBLANK($B42),"",SUMIF('Total by DSA'!$B$5:$B$144,$B42,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA42" s="13" t="str">
+        <f>IF(ISBLANK($B42),"",SUMIF('Total by DSA'!$B$5:$B$144,$B42,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="str">
         <f>IF(B43="","",SUBTOTAL(3,$B$6:B43))</f>
         <v/>
@@ -11492,8 +12084,24 @@
         <f>IF(ISBLANK($B43),"",SUMIF('Total by DSA'!$B$5:$B$144,$B43,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="44" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X43" s="13" t="str">
+        <f>IF(ISBLANK($B43),"",SUMIF('Total by DSA'!$B$5:$B$144,$B43,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y43" s="13" t="str">
+        <f>IF(ISBLANK($B43),"",SUMIF('Total by DSA'!$B$5:$B$144,$B43,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z43" s="13" t="str">
+        <f>IF(ISBLANK($B43),"",SUMIF('Total by DSA'!$B$5:$B$144,$B43,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA43" s="13" t="str">
+        <f>IF(ISBLANK($B43),"",SUMIF('Total by DSA'!$B$5:$B$144,$B43,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="str">
         <f>IF(B44="","",SUBTOTAL(3,$B$6:B44))</f>
         <v/>
@@ -11578,8 +12186,24 @@
         <f>IF(ISBLANK($B44),"",SUMIF('Total by DSA'!$B$5:$B$144,$B44,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="45" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X44" s="13" t="str">
+        <f>IF(ISBLANK($B44),"",SUMIF('Total by DSA'!$B$5:$B$144,$B44,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y44" s="13" t="str">
+        <f>IF(ISBLANK($B44),"",SUMIF('Total by DSA'!$B$5:$B$144,$B44,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z44" s="13" t="str">
+        <f>IF(ISBLANK($B44),"",SUMIF('Total by DSA'!$B$5:$B$144,$B44,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA44" s="13" t="str">
+        <f>IF(ISBLANK($B44),"",SUMIF('Total by DSA'!$B$5:$B$144,$B44,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="str">
         <f>IF(B45="","",SUBTOTAL(3,$B$6:B45))</f>
         <v/>
@@ -11664,8 +12288,24 @@
         <f>IF(ISBLANK($B45),"",SUMIF('Total by DSA'!$B$5:$B$144,$B45,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="46" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X45" s="13" t="str">
+        <f>IF(ISBLANK($B45),"",SUMIF('Total by DSA'!$B$5:$B$144,$B45,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y45" s="13" t="str">
+        <f>IF(ISBLANK($B45),"",SUMIF('Total by DSA'!$B$5:$B$144,$B45,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z45" s="13" t="str">
+        <f>IF(ISBLANK($B45),"",SUMIF('Total by DSA'!$B$5:$B$144,$B45,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA45" s="13" t="str">
+        <f>IF(ISBLANK($B45),"",SUMIF('Total by DSA'!$B$5:$B$144,$B45,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="str">
         <f>IF(B46="","",SUBTOTAL(3,$B$6:B46))</f>
         <v/>
@@ -11750,8 +12390,24 @@
         <f>IF(ISBLANK($B46),"",SUMIF('Total by DSA'!$B$5:$B$144,$B46,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="47" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X46" s="13" t="str">
+        <f>IF(ISBLANK($B46),"",SUMIF('Total by DSA'!$B$5:$B$144,$B46,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y46" s="13" t="str">
+        <f>IF(ISBLANK($B46),"",SUMIF('Total by DSA'!$B$5:$B$144,$B46,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z46" s="13" t="str">
+        <f>IF(ISBLANK($B46),"",SUMIF('Total by DSA'!$B$5:$B$144,$B46,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA46" s="13" t="str">
+        <f>IF(ISBLANK($B46),"",SUMIF('Total by DSA'!$B$5:$B$144,$B46,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="str">
         <f>IF(B47="","",SUBTOTAL(3,$B$6:B47))</f>
         <v/>
@@ -11836,8 +12492,24 @@
         <f>IF(ISBLANK($B47),"",SUMIF('Total by DSA'!$B$5:$B$144,$B47,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="48" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X47" s="13" t="str">
+        <f>IF(ISBLANK($B47),"",SUMIF('Total by DSA'!$B$5:$B$144,$B47,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y47" s="13" t="str">
+        <f>IF(ISBLANK($B47),"",SUMIF('Total by DSA'!$B$5:$B$144,$B47,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z47" s="13" t="str">
+        <f>IF(ISBLANK($B47),"",SUMIF('Total by DSA'!$B$5:$B$144,$B47,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA47" s="13" t="str">
+        <f>IF(ISBLANK($B47),"",SUMIF('Total by DSA'!$B$5:$B$144,$B47,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="str">
         <f>IF(B48="","",SUBTOTAL(3,$B$6:B48))</f>
         <v/>
@@ -11922,8 +12594,24 @@
         <f>IF(ISBLANK($B48),"",SUMIF('Total by DSA'!$B$5:$B$144,$B48,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X48" s="13" t="str">
+        <f>IF(ISBLANK($B48),"",SUMIF('Total by DSA'!$B$5:$B$144,$B48,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y48" s="13" t="str">
+        <f>IF(ISBLANK($B48),"",SUMIF('Total by DSA'!$B$5:$B$144,$B48,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z48" s="13" t="str">
+        <f>IF(ISBLANK($B48),"",SUMIF('Total by DSA'!$B$5:$B$144,$B48,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA48" s="13" t="str">
+        <f>IF(ISBLANK($B48),"",SUMIF('Total by DSA'!$B$5:$B$144,$B48,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="str">
         <f>IF(B49="","",SUBTOTAL(3,$B$6:B49))</f>
         <v/>
@@ -12008,8 +12696,24 @@
         <f>IF(ISBLANK($B49),"",SUMIF('Total by DSA'!$B$5:$B$144,$B49,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X49" s="13" t="str">
+        <f>IF(ISBLANK($B49),"",SUMIF('Total by DSA'!$B$5:$B$144,$B49,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y49" s="13" t="str">
+        <f>IF(ISBLANK($B49),"",SUMIF('Total by DSA'!$B$5:$B$144,$B49,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z49" s="13" t="str">
+        <f>IF(ISBLANK($B49),"",SUMIF('Total by DSA'!$B$5:$B$144,$B49,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA49" s="13" t="str">
+        <f>IF(ISBLANK($B49),"",SUMIF('Total by DSA'!$B$5:$B$144,$B49,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="str">
         <f>IF(B50="","",SUBTOTAL(3,$B$6:B50))</f>
         <v/>
@@ -12094,143 +12798,655 @@
         <f>IF(ISBLANK($B50),"",SUMIF('Total by DSA'!$B$5:$B$144,$B50,'Total by DSA'!Y$5:Y$144))</f>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X50" s="13" t="str">
+        <f>IF(ISBLANK($B50),"",SUMIF('Total by DSA'!$B$5:$B$144,$B50,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y50" s="13" t="str">
+        <f>IF(ISBLANK($B50),"",SUMIF('Total by DSA'!$B$5:$B$144,$B50,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z50" s="13" t="str">
+        <f>IF(ISBLANK($B50),"",SUMIF('Total by DSA'!$B$5:$B$144,$B50,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA50" s="13" t="str">
+        <f>IF(ISBLANK($B50),"",SUMIF('Total by DSA'!$B$5:$B$144,$B50,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N51" s="28"/>
-    </row>
-    <row r="52" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X51" s="13" t="str">
+        <f>IF(ISBLANK($B51),"",SUMIF('Total by DSA'!$B$5:$B$144,$B51,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y51" s="13" t="str">
+        <f>IF(ISBLANK($B51),"",SUMIF('Total by DSA'!$B$5:$B$144,$B51,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z51" s="13" t="str">
+        <f>IF(ISBLANK($B51),"",SUMIF('Total by DSA'!$B$5:$B$144,$B51,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA51" s="13" t="str">
+        <f>IF(ISBLANK($B51),"",SUMIF('Total by DSA'!$B$5:$B$144,$B51,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N52" s="28"/>
-    </row>
-    <row r="53" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X52" s="13" t="str">
+        <f>IF(ISBLANK($B52),"",SUMIF('Total by DSA'!$B$5:$B$144,$B52,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y52" s="13" t="str">
+        <f>IF(ISBLANK($B52),"",SUMIF('Total by DSA'!$B$5:$B$144,$B52,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z52" s="13" t="str">
+        <f>IF(ISBLANK($B52),"",SUMIF('Total by DSA'!$B$5:$B$144,$B52,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA52" s="13" t="str">
+        <f>IF(ISBLANK($B52),"",SUMIF('Total by DSA'!$B$5:$B$144,$B52,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N53" s="28"/>
-    </row>
-    <row r="54" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X53" s="13" t="str">
+        <f>IF(ISBLANK($B53),"",SUMIF('Total by DSA'!$B$5:$B$144,$B53,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y53" s="13" t="str">
+        <f>IF(ISBLANK($B53),"",SUMIF('Total by DSA'!$B$5:$B$144,$B53,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z53" s="13" t="str">
+        <f>IF(ISBLANK($B53),"",SUMIF('Total by DSA'!$B$5:$B$144,$B53,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA53" s="13" t="str">
+        <f>IF(ISBLANK($B53),"",SUMIF('Total by DSA'!$B$5:$B$144,$B53,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N54" s="28"/>
-    </row>
-    <row r="55" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X54" s="13" t="str">
+        <f>IF(ISBLANK($B54),"",SUMIF('Total by DSA'!$B$5:$B$144,$B54,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y54" s="13" t="str">
+        <f>IF(ISBLANK($B54),"",SUMIF('Total by DSA'!$B$5:$B$144,$B54,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z54" s="13" t="str">
+        <f>IF(ISBLANK($B54),"",SUMIF('Total by DSA'!$B$5:$B$144,$B54,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA54" s="13" t="str">
+        <f>IF(ISBLANK($B54),"",SUMIF('Total by DSA'!$B$5:$B$144,$B54,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N55" s="28"/>
-    </row>
-    <row r="56" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X55" s="13" t="str">
+        <f>IF(ISBLANK($B55),"",SUMIF('Total by DSA'!$B$5:$B$144,$B55,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y55" s="13" t="str">
+        <f>IF(ISBLANK($B55),"",SUMIF('Total by DSA'!$B$5:$B$144,$B55,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z55" s="13" t="str">
+        <f>IF(ISBLANK($B55),"",SUMIF('Total by DSA'!$B$5:$B$144,$B55,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA55" s="13" t="str">
+        <f>IF(ISBLANK($B55),"",SUMIF('Total by DSA'!$B$5:$B$144,$B55,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N56" s="28"/>
-    </row>
-    <row r="57" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X56" s="13" t="str">
+        <f>IF(ISBLANK($B56),"",SUMIF('Total by DSA'!$B$5:$B$144,$B56,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y56" s="13" t="str">
+        <f>IF(ISBLANK($B56),"",SUMIF('Total by DSA'!$B$5:$B$144,$B56,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z56" s="13" t="str">
+        <f>IF(ISBLANK($B56),"",SUMIF('Total by DSA'!$B$5:$B$144,$B56,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA56" s="13" t="str">
+        <f>IF(ISBLANK($B56),"",SUMIF('Total by DSA'!$B$5:$B$144,$B56,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N57" s="28"/>
-    </row>
-    <row r="58" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X57" s="13" t="str">
+        <f>IF(ISBLANK($B57),"",SUMIF('Total by DSA'!$B$5:$B$144,$B57,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y57" s="13" t="str">
+        <f>IF(ISBLANK($B57),"",SUMIF('Total by DSA'!$B$5:$B$144,$B57,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z57" s="13" t="str">
+        <f>IF(ISBLANK($B57),"",SUMIF('Total by DSA'!$B$5:$B$144,$B57,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA57" s="13" t="str">
+        <f>IF(ISBLANK($B57),"",SUMIF('Total by DSA'!$B$5:$B$144,$B57,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N58" s="28"/>
-    </row>
-    <row r="59" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X58" s="13" t="str">
+        <f>IF(ISBLANK($B58),"",SUMIF('Total by DSA'!$B$5:$B$144,$B58,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y58" s="13" t="str">
+        <f>IF(ISBLANK($B58),"",SUMIF('Total by DSA'!$B$5:$B$144,$B58,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z58" s="13" t="str">
+        <f>IF(ISBLANK($B58),"",SUMIF('Total by DSA'!$B$5:$B$144,$B58,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA58" s="13" t="str">
+        <f>IF(ISBLANK($B58),"",SUMIF('Total by DSA'!$B$5:$B$144,$B58,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N59" s="28"/>
-    </row>
-    <row r="60" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X59" s="13" t="str">
+        <f>IF(ISBLANK($B59),"",SUMIF('Total by DSA'!$B$5:$B$144,$B59,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y59" s="13" t="str">
+        <f>IF(ISBLANK($B59),"",SUMIF('Total by DSA'!$B$5:$B$144,$B59,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z59" s="13" t="str">
+        <f>IF(ISBLANK($B59),"",SUMIF('Total by DSA'!$B$5:$B$144,$B59,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA59" s="13" t="str">
+        <f>IF(ISBLANK($B59),"",SUMIF('Total by DSA'!$B$5:$B$144,$B59,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N60" s="28"/>
-    </row>
-    <row r="61" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X60" s="13" t="str">
+        <f>IF(ISBLANK($B60),"",SUMIF('Total by DSA'!$B$5:$B$144,$B60,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y60" s="13" t="str">
+        <f>IF(ISBLANK($B60),"",SUMIF('Total by DSA'!$B$5:$B$144,$B60,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z60" s="13" t="str">
+        <f>IF(ISBLANK($B60),"",SUMIF('Total by DSA'!$B$5:$B$144,$B60,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA60" s="13" t="str">
+        <f>IF(ISBLANK($B60),"",SUMIF('Total by DSA'!$B$5:$B$144,$B60,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N61" s="28"/>
-    </row>
-    <row r="62" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X61" s="13" t="str">
+        <f>IF(ISBLANK($B61),"",SUMIF('Total by DSA'!$B$5:$B$144,$B61,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y61" s="13" t="str">
+        <f>IF(ISBLANK($B61),"",SUMIF('Total by DSA'!$B$5:$B$144,$B61,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z61" s="13" t="str">
+        <f>IF(ISBLANK($B61),"",SUMIF('Total by DSA'!$B$5:$B$144,$B61,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA61" s="13" t="str">
+        <f>IF(ISBLANK($B61),"",SUMIF('Total by DSA'!$B$5:$B$144,$B61,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N62" s="28"/>
-    </row>
-    <row r="63" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X62" s="13" t="str">
+        <f>IF(ISBLANK($B62),"",SUMIF('Total by DSA'!$B$5:$B$144,$B62,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y62" s="13" t="str">
+        <f>IF(ISBLANK($B62),"",SUMIF('Total by DSA'!$B$5:$B$144,$B62,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z62" s="13" t="str">
+        <f>IF(ISBLANK($B62),"",SUMIF('Total by DSA'!$B$5:$B$144,$B62,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA62" s="13" t="str">
+        <f>IF(ISBLANK($B62),"",SUMIF('Total by DSA'!$B$5:$B$144,$B62,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N63" s="28"/>
-    </row>
-    <row r="64" spans="1:23" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X63" s="13" t="str">
+        <f>IF(ISBLANK($B63),"",SUMIF('Total by DSA'!$B$5:$B$144,$B63,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y63" s="13" t="str">
+        <f>IF(ISBLANK($B63),"",SUMIF('Total by DSA'!$B$5:$B$144,$B63,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z63" s="13" t="str">
+        <f>IF(ISBLANK($B63),"",SUMIF('Total by DSA'!$B$5:$B$144,$B63,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA63" s="13" t="str">
+        <f>IF(ISBLANK($B63),"",SUMIF('Total by DSA'!$B$5:$B$144,$B63,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N64" s="28"/>
-    </row>
-    <row r="65" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X64" s="13" t="str">
+        <f>IF(ISBLANK($B64),"",SUMIF('Total by DSA'!$B$5:$B$144,$B64,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y64" s="13" t="str">
+        <f>IF(ISBLANK($B64),"",SUMIF('Total by DSA'!$B$5:$B$144,$B64,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z64" s="13" t="str">
+        <f>IF(ISBLANK($B64),"",SUMIF('Total by DSA'!$B$5:$B$144,$B64,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA64" s="13" t="str">
+        <f>IF(ISBLANK($B64),"",SUMIF('Total by DSA'!$B$5:$B$144,$B64,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N65" s="28"/>
-    </row>
-    <row r="66" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X65" s="13" t="str">
+        <f>IF(ISBLANK($B65),"",SUMIF('Total by DSA'!$B$5:$B$144,$B65,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y65" s="13" t="str">
+        <f>IF(ISBLANK($B65),"",SUMIF('Total by DSA'!$B$5:$B$144,$B65,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z65" s="13" t="str">
+        <f>IF(ISBLANK($B65),"",SUMIF('Total by DSA'!$B$5:$B$144,$B65,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA65" s="13" t="str">
+        <f>IF(ISBLANK($B65),"",SUMIF('Total by DSA'!$B$5:$B$144,$B65,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N66" s="28"/>
-    </row>
-    <row r="67" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X66" s="13" t="str">
+        <f>IF(ISBLANK($B66),"",SUMIF('Total by DSA'!$B$5:$B$144,$B66,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y66" s="13" t="str">
+        <f>IF(ISBLANK($B66),"",SUMIF('Total by DSA'!$B$5:$B$144,$B66,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z66" s="13" t="str">
+        <f>IF(ISBLANK($B66),"",SUMIF('Total by DSA'!$B$5:$B$144,$B66,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA66" s="13" t="str">
+        <f>IF(ISBLANK($B66),"",SUMIF('Total by DSA'!$B$5:$B$144,$B66,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N67" s="28"/>
-    </row>
-    <row r="68" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X67" s="13" t="str">
+        <f>IF(ISBLANK($B67),"",SUMIF('Total by DSA'!$B$5:$B$144,$B67,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y67" s="13" t="str">
+        <f>IF(ISBLANK($B67),"",SUMIF('Total by DSA'!$B$5:$B$144,$B67,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z67" s="13" t="str">
+        <f>IF(ISBLANK($B67),"",SUMIF('Total by DSA'!$B$5:$B$144,$B67,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA67" s="13" t="str">
+        <f>IF(ISBLANK($B67),"",SUMIF('Total by DSA'!$B$5:$B$144,$B67,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N68" s="28"/>
-    </row>
-    <row r="69" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X68" s="13" t="str">
+        <f>IF(ISBLANK($B68),"",SUMIF('Total by DSA'!$B$5:$B$144,$B68,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y68" s="13" t="str">
+        <f>IF(ISBLANK($B68),"",SUMIF('Total by DSA'!$B$5:$B$144,$B68,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z68" s="13" t="str">
+        <f>IF(ISBLANK($B68),"",SUMIF('Total by DSA'!$B$5:$B$144,$B68,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA68" s="13" t="str">
+        <f>IF(ISBLANK($B68),"",SUMIF('Total by DSA'!$B$5:$B$144,$B68,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N69" s="28"/>
-    </row>
-    <row r="70" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X69" s="13" t="str">
+        <f>IF(ISBLANK($B69),"",SUMIF('Total by DSA'!$B$5:$B$144,$B69,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y69" s="13" t="str">
+        <f>IF(ISBLANK($B69),"",SUMIF('Total by DSA'!$B$5:$B$144,$B69,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z69" s="13" t="str">
+        <f>IF(ISBLANK($B69),"",SUMIF('Total by DSA'!$B$5:$B$144,$B69,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA69" s="13" t="str">
+        <f>IF(ISBLANK($B69),"",SUMIF('Total by DSA'!$B$5:$B$144,$B69,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N70" s="28"/>
-    </row>
-    <row r="71" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X70" s="13" t="str">
+        <f>IF(ISBLANK($B70),"",SUMIF('Total by DSA'!$B$5:$B$144,$B70,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y70" s="13" t="str">
+        <f>IF(ISBLANK($B70),"",SUMIF('Total by DSA'!$B$5:$B$144,$B70,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z70" s="13" t="str">
+        <f>IF(ISBLANK($B70),"",SUMIF('Total by DSA'!$B$5:$B$144,$B70,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA70" s="13" t="str">
+        <f>IF(ISBLANK($B70),"",SUMIF('Total by DSA'!$B$5:$B$144,$B70,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="71" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N71" s="28"/>
-    </row>
-    <row r="72" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X71" s="13" t="str">
+        <f>IF(ISBLANK($B71),"",SUMIF('Total by DSA'!$B$5:$B$144,$B71,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y71" s="13" t="str">
+        <f>IF(ISBLANK($B71),"",SUMIF('Total by DSA'!$B$5:$B$144,$B71,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z71" s="13" t="str">
+        <f>IF(ISBLANK($B71),"",SUMIF('Total by DSA'!$B$5:$B$144,$B71,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA71" s="13" t="str">
+        <f>IF(ISBLANK($B71),"",SUMIF('Total by DSA'!$B$5:$B$144,$B71,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="72" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N72" s="28"/>
-    </row>
-    <row r="73" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X72" s="13" t="str">
+        <f>IF(ISBLANK($B72),"",SUMIF('Total by DSA'!$B$5:$B$144,$B72,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y72" s="13" t="str">
+        <f>IF(ISBLANK($B72),"",SUMIF('Total by DSA'!$B$5:$B$144,$B72,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z72" s="13" t="str">
+        <f>IF(ISBLANK($B72),"",SUMIF('Total by DSA'!$B$5:$B$144,$B72,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA72" s="13" t="str">
+        <f>IF(ISBLANK($B72),"",SUMIF('Total by DSA'!$B$5:$B$144,$B72,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="73" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N73" s="28"/>
-    </row>
-    <row r="74" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X73" s="13" t="str">
+        <f>IF(ISBLANK($B73),"",SUMIF('Total by DSA'!$B$5:$B$144,$B73,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y73" s="13" t="str">
+        <f>IF(ISBLANK($B73),"",SUMIF('Total by DSA'!$B$5:$B$144,$B73,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z73" s="13" t="str">
+        <f>IF(ISBLANK($B73),"",SUMIF('Total by DSA'!$B$5:$B$144,$B73,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA73" s="13" t="str">
+        <f>IF(ISBLANK($B73),"",SUMIF('Total by DSA'!$B$5:$B$144,$B73,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="74" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N74" s="28"/>
-    </row>
-    <row r="75" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X74" s="13" t="str">
+        <f>IF(ISBLANK($B74),"",SUMIF('Total by DSA'!$B$5:$B$144,$B74,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y74" s="13" t="str">
+        <f>IF(ISBLANK($B74),"",SUMIF('Total by DSA'!$B$5:$B$144,$B74,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z74" s="13" t="str">
+        <f>IF(ISBLANK($B74),"",SUMIF('Total by DSA'!$B$5:$B$144,$B74,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA74" s="13" t="str">
+        <f>IF(ISBLANK($B74),"",SUMIF('Total by DSA'!$B$5:$B$144,$B74,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="75" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N75" s="28"/>
-    </row>
-    <row r="76" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X75" s="13" t="str">
+        <f>IF(ISBLANK($B75),"",SUMIF('Total by DSA'!$B$5:$B$144,$B75,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y75" s="13" t="str">
+        <f>IF(ISBLANK($B75),"",SUMIF('Total by DSA'!$B$5:$B$144,$B75,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z75" s="13" t="str">
+        <f>IF(ISBLANK($B75),"",SUMIF('Total by DSA'!$B$5:$B$144,$B75,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA75" s="13" t="str">
+        <f>IF(ISBLANK($B75),"",SUMIF('Total by DSA'!$B$5:$B$144,$B75,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="76" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N76" s="28"/>
-    </row>
-    <row r="77" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X76" s="13" t="str">
+        <f>IF(ISBLANK($B76),"",SUMIF('Total by DSA'!$B$5:$B$144,$B76,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y76" s="13" t="str">
+        <f>IF(ISBLANK($B76),"",SUMIF('Total by DSA'!$B$5:$B$144,$B76,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z76" s="13" t="str">
+        <f>IF(ISBLANK($B76),"",SUMIF('Total by DSA'!$B$5:$B$144,$B76,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA76" s="13" t="str">
+        <f>IF(ISBLANK($B76),"",SUMIF('Total by DSA'!$B$5:$B$144,$B76,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N77" s="28"/>
-    </row>
-    <row r="78" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X77" s="13" t="str">
+        <f>IF(ISBLANK($B77),"",SUMIF('Total by DSA'!$B$5:$B$144,$B77,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y77" s="13" t="str">
+        <f>IF(ISBLANK($B77),"",SUMIF('Total by DSA'!$B$5:$B$144,$B77,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z77" s="13" t="str">
+        <f>IF(ISBLANK($B77),"",SUMIF('Total by DSA'!$B$5:$B$144,$B77,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA77" s="13" t="str">
+        <f>IF(ISBLANK($B77),"",SUMIF('Total by DSA'!$B$5:$B$144,$B77,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="78" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N78" s="28"/>
-    </row>
-    <row r="79" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X78" s="13" t="str">
+        <f>IF(ISBLANK($B78),"",SUMIF('Total by DSA'!$B$5:$B$144,$B78,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y78" s="13" t="str">
+        <f>IF(ISBLANK($B78),"",SUMIF('Total by DSA'!$B$5:$B$144,$B78,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z78" s="13" t="str">
+        <f>IF(ISBLANK($B78),"",SUMIF('Total by DSA'!$B$5:$B$144,$B78,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA78" s="13" t="str">
+        <f>IF(ISBLANK($B78),"",SUMIF('Total by DSA'!$B$5:$B$144,$B78,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="79" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N79" s="28"/>
-    </row>
-    <row r="80" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X79" s="13" t="str">
+        <f>IF(ISBLANK($B79),"",SUMIF('Total by DSA'!$B$5:$B$144,$B79,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y79" s="13" t="str">
+        <f>IF(ISBLANK($B79),"",SUMIF('Total by DSA'!$B$5:$B$144,$B79,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z79" s="13" t="str">
+        <f>IF(ISBLANK($B79),"",SUMIF('Total by DSA'!$B$5:$B$144,$B79,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA79" s="13" t="str">
+        <f>IF(ISBLANK($B79),"",SUMIF('Total by DSA'!$B$5:$B$144,$B79,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="80" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N80" s="28"/>
-    </row>
-    <row r="81" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X80" s="13" t="str">
+        <f>IF(ISBLANK($B80),"",SUMIF('Total by DSA'!$B$5:$B$144,$B80,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y80" s="13" t="str">
+        <f>IF(ISBLANK($B80),"",SUMIF('Total by DSA'!$B$5:$B$144,$B80,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z80" s="13" t="str">
+        <f>IF(ISBLANK($B80),"",SUMIF('Total by DSA'!$B$5:$B$144,$B80,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA80" s="13" t="str">
+        <f>IF(ISBLANK($B80),"",SUMIF('Total by DSA'!$B$5:$B$144,$B80,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="81" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N81" s="28"/>
-    </row>
-    <row r="82" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X81" s="13" t="str">
+        <f>IF(ISBLANK($B81),"",SUMIF('Total by DSA'!$B$5:$B$144,$B81,'Total by DSA'!Z$5:Z$144))</f>
+        <v/>
+      </c>
+      <c r="Y81" s="13" t="str">
+        <f>IF(ISBLANK($B81),"",SUMIF('Total by DSA'!$B$5:$B$144,$B81,'Total by DSA'!AA$5:AA$144))</f>
+        <v/>
+      </c>
+      <c r="Z81" s="13" t="str">
+        <f>IF(ISBLANK($B81),"",SUMIF('Total by DSA'!$B$5:$B$144,$B81,'Total by DSA'!AB$5:AB$144))</f>
+        <v/>
+      </c>
+      <c r="AA81" s="13" t="str">
+        <f>IF(ISBLANK($B81),"",SUMIF('Total by DSA'!$B$5:$B$144,$B81,'Total by DSA'!AC$5:AC$144))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="82" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N82" s="28"/>
     </row>
-    <row r="83" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N83" s="28"/>
     </row>
-    <row r="84" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N84" s="28"/>
     </row>
-    <row r="85" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N85" s="28"/>
     </row>
-    <row r="86" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N86" s="28"/>
     </row>
-    <row r="87" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N87" s="28"/>
     </row>
-    <row r="88" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N88" s="28"/>
     </row>
-    <row r="89" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N89" s="28"/>
     </row>
-    <row r="90" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N90" s="28"/>
     </row>
-    <row r="91" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N91" s="28"/>
     </row>
-    <row r="92" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N92" s="28"/>
     </row>
-    <row r="93" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N93" s="28"/>
     </row>
-    <row r="94" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N94" s="28"/>
     </row>
-    <row r="95" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N95" s="28"/>
     </row>
-    <row r="96" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="14:27" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="N96" s="28"/>
     </row>
     <row r="97" spans="14:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
